--- a/trial-4/20241018_trial-4_59181_marked.xlsx
+++ b/trial-4/20241018_trial-4_59181_marked.xlsx
@@ -74,13 +74,13 @@
     <t xml:space="preserve">Time_Other</t>
   </si>
   <si>
+    <t xml:space="preserve">Time_error</t>
+  </si>
+  <si>
     <t xml:space="preserve">Index_M</t>
   </si>
   <si>
     <t xml:space="preserve">Index_Other</t>
-  </si>
-  <si>
-    <t xml:space="preserve">time_error</t>
   </si>
   <si>
     <t xml:space="preserve">20241018_trial-4_59181_L</t>
@@ -101,7 +101,7 @@
     <t xml:space="preserve">START</t>
   </si>
   <si>
-    <t xml:space="preserve">C:/研究/鼠類對水鹿排遺反應/高田前測/實驗影片/1018_trial-4_59181/1018_trial-4_59181_L.mp4</t>
+    <t xml:space="preserve">C:/研究/鼠類對水鹿排遺反應/高田前測/實驗影片/20241018_trial-4_59181/1018_trial-4_59181_L.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">20241018_trial-4_59181_M</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">Right cage</t>
   </si>
   <si>
-    <t xml:space="preserve">C:/研究/鼠類對水鹿排遺反應/高田前測/實驗影片/1018_trial-4_59181/1018_trial-4_59181_R.mp4</t>
+    <t xml:space="preserve">C:/研究/鼠類對水鹿排遺反應/高田前測/實驗影片/20241018_trial-4_59181/1018_trial-4_59181_R.mp4</t>
   </si>
   <si>
     <t xml:space="preserve">Foraging</t>
@@ -635,10 +635,10 @@
         <v>7.433</v>
       </c>
       <c r="U2" s="2"/>
-      <c r="V2" s="2" t="n">
+      <c r="V2" s="2"/>
+      <c r="W2" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="W2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
@@ -693,10 +693,10 @@
         <v>7.833</v>
       </c>
       <c r="T3" s="3"/>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3" t="n">
         <v>235</v>
       </c>
-      <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
     <row r="4">
@@ -753,10 +753,10 @@
         <v>8.367</v>
       </c>
       <c r="U4" s="4"/>
-      <c r="V4" s="4" t="n">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="n">
         <v>251</v>
       </c>
-      <c r="W4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
@@ -812,10 +812,10 @@
         <v>14.2</v>
       </c>
       <c r="U5" s="4"/>
-      <c r="V5" s="4" t="n">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="n">
         <v>426</v>
       </c>
-      <c r="W5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -871,10 +871,10 @@
         <v>24.7</v>
       </c>
       <c r="U6" s="4"/>
-      <c r="V6" s="4" t="n">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="n">
         <v>741</v>
       </c>
-      <c r="W6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
@@ -930,10 +930,10 @@
         <v>24.7</v>
       </c>
       <c r="U7" s="4"/>
-      <c r="V7" s="4" t="n">
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="n">
         <v>741</v>
       </c>
-      <c r="W7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
@@ -988,10 +988,10 @@
         <v>24.967</v>
       </c>
       <c r="T8" s="3"/>
-      <c r="U8" s="3" t="n">
+      <c r="U8" s="3"/>
+      <c r="V8" s="3" t="n">
         <v>749</v>
       </c>
-      <c r="V8" s="3"/>
       <c r="W8" s="3"/>
     </row>
     <row r="9">
@@ -1047,10 +1047,10 @@
         <v>24.967</v>
       </c>
       <c r="T9" s="3"/>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="3"/>
+      <c r="V9" s="3" t="n">
         <v>749</v>
       </c>
-      <c r="V9" s="3"/>
       <c r="W9" s="3"/>
     </row>
     <row r="10">
@@ -1107,10 +1107,10 @@
         <v>25.367</v>
       </c>
       <c r="U10" s="4"/>
-      <c r="V10" s="4" t="n">
+      <c r="V10" s="4"/>
+      <c r="W10" s="4" t="n">
         <v>761</v>
       </c>
-      <c r="W10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
@@ -1166,10 +1166,10 @@
         <v>25.6</v>
       </c>
       <c r="U11" s="2"/>
-      <c r="V11" s="2" t="n">
+      <c r="V11" s="2"/>
+      <c r="W11" s="2" t="n">
         <v>768</v>
       </c>
-      <c r="W11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -1225,10 +1225,10 @@
         <v>25.6</v>
       </c>
       <c r="U12" s="2"/>
-      <c r="V12" s="2" t="n">
+      <c r="V12" s="2"/>
+      <c r="W12" s="2" t="n">
         <v>768</v>
       </c>
-      <c r="W12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -1284,10 +1284,10 @@
         <v>25.9</v>
       </c>
       <c r="U13" s="2"/>
-      <c r="V13" s="2" t="n">
+      <c r="V13" s="2"/>
+      <c r="W13" s="2" t="n">
         <v>777</v>
       </c>
-      <c r="W13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
@@ -1343,10 +1343,10 @@
         <v>25.9</v>
       </c>
       <c r="U14" s="2"/>
-      <c r="V14" s="2" t="n">
+      <c r="V14" s="2"/>
+      <c r="W14" s="2" t="n">
         <v>777</v>
       </c>
-      <c r="W14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
@@ -1401,10 +1401,10 @@
         <v>25.967</v>
       </c>
       <c r="T15" s="3"/>
-      <c r="U15" s="3" t="n">
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="n">
         <v>779</v>
       </c>
-      <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
     <row r="16">
@@ -1460,10 +1460,10 @@
         <v>25.967</v>
       </c>
       <c r="T16" s="3"/>
-      <c r="U16" s="3" t="n">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3" t="n">
         <v>779</v>
       </c>
-      <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
     <row r="17">
@@ -1520,10 +1520,10 @@
         <v>26.067</v>
       </c>
       <c r="U17" s="2"/>
-      <c r="V17" s="2" t="n">
+      <c r="V17" s="2"/>
+      <c r="W17" s="2" t="n">
         <v>782</v>
       </c>
-      <c r="W17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -1579,10 +1579,10 @@
         <v>26.067</v>
       </c>
       <c r="U18" s="2"/>
-      <c r="V18" s="2" t="n">
+      <c r="V18" s="2"/>
+      <c r="W18" s="2" t="n">
         <v>782</v>
       </c>
-      <c r="W18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -1638,10 +1638,10 @@
         <v>26.7</v>
       </c>
       <c r="U19" s="2"/>
-      <c r="V19" s="2" t="n">
+      <c r="V19" s="2"/>
+      <c r="W19" s="2" t="n">
         <v>801</v>
       </c>
-      <c r="W19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -1697,10 +1697,10 @@
         <v>28.767</v>
       </c>
       <c r="U20" s="2"/>
-      <c r="V20" s="2" t="n">
+      <c r="V20" s="2"/>
+      <c r="W20" s="2" t="n">
         <v>863</v>
       </c>
-      <c r="W20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -1756,10 +1756,10 @@
         <v>28.767</v>
       </c>
       <c r="U21" s="2"/>
-      <c r="V21" s="2" t="n">
+      <c r="V21" s="2"/>
+      <c r="W21" s="2" t="n">
         <v>863</v>
       </c>
-      <c r="W21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -1815,10 +1815,10 @@
         <v>36.8</v>
       </c>
       <c r="U22" s="2"/>
-      <c r="V22" s="2" t="n">
+      <c r="V22" s="2"/>
+      <c r="W22" s="2" t="n">
         <v>1104</v>
       </c>
-      <c r="W22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -1874,10 +1874,10 @@
         <v>36.8</v>
       </c>
       <c r="U23" s="2"/>
-      <c r="V23" s="2" t="n">
+      <c r="V23" s="2"/>
+      <c r="W23" s="2" t="n">
         <v>1104</v>
       </c>
-      <c r="W23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -1933,10 +1933,10 @@
         <v>37</v>
       </c>
       <c r="U24" s="2"/>
-      <c r="V24" s="2" t="n">
+      <c r="V24" s="2"/>
+      <c r="W24" s="2" t="n">
         <v>1110</v>
       </c>
-      <c r="W24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -1992,10 +1992,10 @@
         <v>38.133</v>
       </c>
       <c r="U25" s="2"/>
-      <c r="V25" s="2" t="n">
+      <c r="V25" s="2"/>
+      <c r="W25" s="2" t="n">
         <v>1144</v>
       </c>
-      <c r="W25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -2051,10 +2051,10 @@
         <v>38.133</v>
       </c>
       <c r="U26" s="2"/>
-      <c r="V26" s="2" t="n">
+      <c r="V26" s="2"/>
+      <c r="W26" s="2" t="n">
         <v>1144</v>
       </c>
-      <c r="W26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -2110,10 +2110,10 @@
         <v>41.333</v>
       </c>
       <c r="U27" s="2"/>
-      <c r="V27" s="2" t="n">
+      <c r="V27" s="2"/>
+      <c r="W27" s="2" t="n">
         <v>1240</v>
       </c>
-      <c r="W27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -2169,10 +2169,10 @@
         <v>41.333</v>
       </c>
       <c r="U28" s="2"/>
-      <c r="V28" s="2" t="n">
+      <c r="V28" s="2"/>
+      <c r="W28" s="2" t="n">
         <v>1240</v>
       </c>
-      <c r="W28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -2228,10 +2228,10 @@
         <v>41.733</v>
       </c>
       <c r="U29" s="2"/>
-      <c r="V29" s="2" t="n">
+      <c r="V29" s="2"/>
+      <c r="W29" s="2" t="n">
         <v>1252</v>
       </c>
-      <c r="W29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -2287,10 +2287,10 @@
         <v>41.733</v>
       </c>
       <c r="U30" s="2"/>
-      <c r="V30" s="2" t="n">
+      <c r="V30" s="2"/>
+      <c r="W30" s="2" t="n">
         <v>1252</v>
       </c>
-      <c r="W30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -2346,10 +2346,10 @@
         <v>44.7</v>
       </c>
       <c r="U31" s="2"/>
-      <c r="V31" s="2" t="n">
+      <c r="V31" s="2"/>
+      <c r="W31" s="2" t="n">
         <v>1341</v>
       </c>
-      <c r="W31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -2405,10 +2405,10 @@
         <v>44.7</v>
       </c>
       <c r="U32" s="2"/>
-      <c r="V32" s="2" t="n">
+      <c r="V32" s="2"/>
+      <c r="W32" s="2" t="n">
         <v>1341</v>
       </c>
-      <c r="W32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -2464,10 +2464,10 @@
         <v>45.533</v>
       </c>
       <c r="U33" s="2"/>
-      <c r="V33" s="2" t="n">
+      <c r="V33" s="2"/>
+      <c r="W33" s="2" t="n">
         <v>1366</v>
       </c>
-      <c r="W33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -2523,10 +2523,10 @@
         <v>45.533</v>
       </c>
       <c r="U34" s="2"/>
-      <c r="V34" s="2" t="n">
+      <c r="V34" s="2"/>
+      <c r="W34" s="2" t="n">
         <v>1366</v>
       </c>
-      <c r="W34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -2582,10 +2582,10 @@
         <v>47.767</v>
       </c>
       <c r="U35" s="2"/>
-      <c r="V35" s="2" t="n">
+      <c r="V35" s="2"/>
+      <c r="W35" s="2" t="n">
         <v>1433</v>
       </c>
-      <c r="W35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -2641,10 +2641,10 @@
         <v>47.767</v>
       </c>
       <c r="U36" s="2"/>
-      <c r="V36" s="2" t="n">
+      <c r="V36" s="2"/>
+      <c r="W36" s="2" t="n">
         <v>1433</v>
       </c>
-      <c r="W36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -2700,10 +2700,10 @@
         <v>48.133</v>
       </c>
       <c r="U37" s="2"/>
-      <c r="V37" s="2" t="n">
+      <c r="V37" s="2"/>
+      <c r="W37" s="2" t="n">
         <v>1444</v>
       </c>
-      <c r="W37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -2759,10 +2759,10 @@
         <v>48.133</v>
       </c>
       <c r="U38" s="2"/>
-      <c r="V38" s="2" t="n">
+      <c r="V38" s="2"/>
+      <c r="W38" s="2" t="n">
         <v>1444</v>
       </c>
-      <c r="W38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -2818,10 +2818,10 @@
         <v>48.4</v>
       </c>
       <c r="U39" s="2"/>
-      <c r="V39" s="2" t="n">
+      <c r="V39" s="2"/>
+      <c r="W39" s="2" t="n">
         <v>1452</v>
       </c>
-      <c r="W39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -2877,10 +2877,10 @@
         <v>48.4</v>
       </c>
       <c r="U40" s="2"/>
-      <c r="V40" s="2" t="n">
+      <c r="V40" s="2"/>
+      <c r="W40" s="2" t="n">
         <v>1452</v>
       </c>
-      <c r="W40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -2936,10 +2936,10 @@
         <v>48.767</v>
       </c>
       <c r="U41" s="2"/>
-      <c r="V41" s="2" t="n">
+      <c r="V41" s="2"/>
+      <c r="W41" s="2" t="n">
         <v>1463</v>
       </c>
-      <c r="W41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -2995,10 +2995,10 @@
         <v>48.767</v>
       </c>
       <c r="U42" s="2"/>
-      <c r="V42" s="2" t="n">
+      <c r="V42" s="2"/>
+      <c r="W42" s="2" t="n">
         <v>1463</v>
       </c>
-      <c r="W42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -3054,10 +3054,10 @@
         <v>50.4</v>
       </c>
       <c r="U43" s="2"/>
-      <c r="V43" s="2" t="n">
+      <c r="V43" s="2"/>
+      <c r="W43" s="2" t="n">
         <v>1512</v>
       </c>
-      <c r="W43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
@@ -3113,10 +3113,10 @@
         <v>50.4</v>
       </c>
       <c r="U44" s="2"/>
-      <c r="V44" s="2" t="n">
+      <c r="V44" s="2"/>
+      <c r="W44" s="2" t="n">
         <v>1512</v>
       </c>
-      <c r="W44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -3172,10 +3172,10 @@
         <v>50.833</v>
       </c>
       <c r="U45" s="2"/>
-      <c r="V45" s="2" t="n">
+      <c r="V45" s="2"/>
+      <c r="W45" s="2" t="n">
         <v>1525</v>
       </c>
-      <c r="W45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -3231,10 +3231,10 @@
         <v>50.833</v>
       </c>
       <c r="U46" s="2"/>
-      <c r="V46" s="2" t="n">
+      <c r="V46" s="2"/>
+      <c r="W46" s="2" t="n">
         <v>1525</v>
       </c>
-      <c r="W46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
@@ -3290,10 +3290,10 @@
         <v>52.6</v>
       </c>
       <c r="U47" s="2"/>
-      <c r="V47" s="2" t="n">
+      <c r="V47" s="2"/>
+      <c r="W47" s="2" t="n">
         <v>1578</v>
       </c>
-      <c r="W47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -3349,10 +3349,10 @@
         <v>52.6</v>
       </c>
       <c r="U48" s="2"/>
-      <c r="V48" s="2" t="n">
+      <c r="V48" s="2"/>
+      <c r="W48" s="2" t="n">
         <v>1578</v>
       </c>
-      <c r="W48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
@@ -3408,10 +3408,10 @@
         <v>53.033</v>
       </c>
       <c r="U49" s="2"/>
-      <c r="V49" s="2" t="n">
+      <c r="V49" s="2"/>
+      <c r="W49" s="2" t="n">
         <v>1591</v>
       </c>
-      <c r="W49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -3467,10 +3467,10 @@
         <v>53.033</v>
       </c>
       <c r="U50" s="2"/>
-      <c r="V50" s="2" t="n">
+      <c r="V50" s="2"/>
+      <c r="W50" s="2" t="n">
         <v>1591</v>
       </c>
-      <c r="W50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
@@ -3526,10 +3526,10 @@
         <v>54.833</v>
       </c>
       <c r="U51" s="2"/>
-      <c r="V51" s="2" t="n">
+      <c r="V51" s="2"/>
+      <c r="W51" s="2" t="n">
         <v>1645</v>
       </c>
-      <c r="W51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -3585,10 +3585,10 @@
         <v>54.833</v>
       </c>
       <c r="U52" s="2"/>
-      <c r="V52" s="2" t="n">
+      <c r="V52" s="2"/>
+      <c r="W52" s="2" t="n">
         <v>1645</v>
       </c>
-      <c r="W52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -3644,10 +3644,10 @@
         <v>55.767</v>
       </c>
       <c r="U53" s="2"/>
-      <c r="V53" s="2" t="n">
+      <c r="V53" s="2"/>
+      <c r="W53" s="2" t="n">
         <v>1673</v>
       </c>
-      <c r="W53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
@@ -3703,10 +3703,10 @@
         <v>55.767</v>
       </c>
       <c r="U54" s="2"/>
-      <c r="V54" s="2" t="n">
+      <c r="V54" s="2"/>
+      <c r="W54" s="2" t="n">
         <v>1673</v>
       </c>
-      <c r="W54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
@@ -3761,10 +3761,10 @@
         <v>56.133</v>
       </c>
       <c r="T55" s="3"/>
-      <c r="U55" s="3" t="n">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3" t="n">
         <v>1684</v>
       </c>
-      <c r="V55" s="3"/>
       <c r="W55" s="3"/>
     </row>
     <row r="56">
@@ -3820,10 +3820,10 @@
         <v>56.133</v>
       </c>
       <c r="T56" s="3"/>
-      <c r="U56" s="3" t="n">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3" t="n">
         <v>1684</v>
       </c>
-      <c r="V56" s="3"/>
       <c r="W56" s="3"/>
     </row>
     <row r="57">
@@ -3880,10 +3880,10 @@
         <v>56.133</v>
       </c>
       <c r="U57" s="2"/>
-      <c r="V57" s="2" t="n">
+      <c r="V57" s="2"/>
+      <c r="W57" s="2" t="n">
         <v>1684</v>
       </c>
-      <c r="W57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
@@ -3939,10 +3939,10 @@
         <v>56.133</v>
       </c>
       <c r="U58" s="2"/>
-      <c r="V58" s="2" t="n">
+      <c r="V58" s="2"/>
+      <c r="W58" s="2" t="n">
         <v>1684</v>
       </c>
-      <c r="W58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
@@ -3998,10 +3998,10 @@
         <v>56.367</v>
       </c>
       <c r="U59" s="2"/>
-      <c r="V59" s="2" t="n">
+      <c r="V59" s="2"/>
+      <c r="W59" s="2" t="n">
         <v>1691</v>
       </c>
-      <c r="W59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
@@ -4057,10 +4057,10 @@
         <v>56.367</v>
       </c>
       <c r="U60" s="2"/>
-      <c r="V60" s="2" t="n">
+      <c r="V60" s="2"/>
+      <c r="W60" s="2" t="n">
         <v>1691</v>
       </c>
-      <c r="W60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
@@ -4115,10 +4115,10 @@
         <v>56.433</v>
       </c>
       <c r="T61" s="3"/>
-      <c r="U61" s="3" t="n">
+      <c r="U61" s="3"/>
+      <c r="V61" s="3" t="n">
         <v>1693</v>
       </c>
-      <c r="V61" s="3"/>
       <c r="W61" s="3"/>
     </row>
     <row r="62">
@@ -4174,10 +4174,10 @@
         <v>56.433</v>
       </c>
       <c r="T62" s="3"/>
-      <c r="U62" s="3" t="n">
+      <c r="U62" s="3"/>
+      <c r="V62" s="3" t="n">
         <v>1693</v>
       </c>
-      <c r="V62" s="3"/>
       <c r="W62" s="3"/>
     </row>
     <row r="63">
@@ -4234,10 +4234,10 @@
         <v>70</v>
       </c>
       <c r="U63" s="2"/>
-      <c r="V63" s="2" t="n">
+      <c r="V63" s="2"/>
+      <c r="W63" s="2" t="n">
         <v>2100</v>
       </c>
-      <c r="W63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
@@ -4293,10 +4293,10 @@
         <v>100.567</v>
       </c>
       <c r="U64" s="2"/>
-      <c r="V64" s="2" t="n">
+      <c r="V64" s="2"/>
+      <c r="W64" s="2" t="n">
         <v>3017</v>
       </c>
-      <c r="W64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -4352,10 +4352,10 @@
         <v>100.567</v>
       </c>
       <c r="U65" s="2"/>
-      <c r="V65" s="2" t="n">
+      <c r="V65" s="2"/>
+      <c r="W65" s="2" t="n">
         <v>3017</v>
       </c>
-      <c r="W65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
@@ -4411,10 +4411,10 @@
         <v>101.5</v>
       </c>
       <c r="U66" s="2"/>
-      <c r="V66" s="2" t="n">
+      <c r="V66" s="2"/>
+      <c r="W66" s="2" t="n">
         <v>3045</v>
       </c>
-      <c r="W66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
@@ -4470,10 +4470,10 @@
         <v>101.5</v>
       </c>
       <c r="U67" s="2"/>
-      <c r="V67" s="2" t="n">
+      <c r="V67" s="2"/>
+      <c r="W67" s="2" t="n">
         <v>3045</v>
       </c>
-      <c r="W67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
@@ -4529,10 +4529,10 @@
         <v>121.533</v>
       </c>
       <c r="U68" s="2"/>
-      <c r="V68" s="2" t="n">
+      <c r="V68" s="2"/>
+      <c r="W68" s="2" t="n">
         <v>3646</v>
       </c>
-      <c r="W68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
@@ -4588,10 +4588,10 @@
         <v>121.533</v>
       </c>
       <c r="U69" s="2"/>
-      <c r="V69" s="2" t="n">
+      <c r="V69" s="2"/>
+      <c r="W69" s="2" t="n">
         <v>3646</v>
       </c>
-      <c r="W69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
@@ -4647,10 +4647,10 @@
         <v>122.567</v>
       </c>
       <c r="U70" s="2"/>
-      <c r="V70" s="2" t="n">
+      <c r="V70" s="2"/>
+      <c r="W70" s="2" t="n">
         <v>3677</v>
       </c>
-      <c r="W70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
@@ -4706,10 +4706,10 @@
         <v>122.567</v>
       </c>
       <c r="U71" s="2"/>
-      <c r="V71" s="2" t="n">
+      <c r="V71" s="2"/>
+      <c r="W71" s="2" t="n">
         <v>3677</v>
       </c>
-      <c r="W71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
@@ -4765,10 +4765,10 @@
         <v>122.767</v>
       </c>
       <c r="U72" s="2"/>
-      <c r="V72" s="2" t="n">
+      <c r="V72" s="2"/>
+      <c r="W72" s="2" t="n">
         <v>3683</v>
       </c>
-      <c r="W72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
@@ -4824,10 +4824,10 @@
         <v>122.767</v>
       </c>
       <c r="U73" s="2"/>
-      <c r="V73" s="2" t="n">
+      <c r="V73" s="2"/>
+      <c r="W73" s="2" t="n">
         <v>3683</v>
       </c>
-      <c r="W73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
@@ -4883,10 +4883,10 @@
         <v>123.033</v>
       </c>
       <c r="U74" s="2"/>
-      <c r="V74" s="2" t="n">
+      <c r="V74" s="2"/>
+      <c r="W74" s="2" t="n">
         <v>3691</v>
       </c>
-      <c r="W74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
@@ -4942,10 +4942,10 @@
         <v>123.033</v>
       </c>
       <c r="U75" s="2"/>
-      <c r="V75" s="2" t="n">
+      <c r="V75" s="2"/>
+      <c r="W75" s="2" t="n">
         <v>3691</v>
       </c>
-      <c r="W75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
@@ -5001,10 +5001,10 @@
         <v>123.867</v>
       </c>
       <c r="U76" s="2"/>
-      <c r="V76" s="2" t="n">
+      <c r="V76" s="2"/>
+      <c r="W76" s="2" t="n">
         <v>3716</v>
       </c>
-      <c r="W76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
@@ -5060,10 +5060,10 @@
         <v>123.867</v>
       </c>
       <c r="U77" s="2"/>
-      <c r="V77" s="2" t="n">
+      <c r="V77" s="2"/>
+      <c r="W77" s="2" t="n">
         <v>3716</v>
       </c>
-      <c r="W77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
@@ -5119,10 +5119,10 @@
         <v>124.067</v>
       </c>
       <c r="U78" s="2"/>
-      <c r="V78" s="2" t="n">
+      <c r="V78" s="2"/>
+      <c r="W78" s="2" t="n">
         <v>3722</v>
       </c>
-      <c r="W78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
@@ -5178,10 +5178,10 @@
         <v>124.067</v>
       </c>
       <c r="U79" s="2"/>
-      <c r="V79" s="2" t="n">
+      <c r="V79" s="2"/>
+      <c r="W79" s="2" t="n">
         <v>3722</v>
       </c>
-      <c r="W79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
@@ -5237,10 +5237,10 @@
         <v>126.067</v>
       </c>
       <c r="U80" s="2"/>
-      <c r="V80" s="2" t="n">
+      <c r="V80" s="2"/>
+      <c r="W80" s="2" t="n">
         <v>3782</v>
       </c>
-      <c r="W80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
@@ -5296,10 +5296,10 @@
         <v>126.067</v>
       </c>
       <c r="U81" s="2"/>
-      <c r="V81" s="2" t="n">
+      <c r="V81" s="2"/>
+      <c r="W81" s="2" t="n">
         <v>3782</v>
       </c>
-      <c r="W81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
@@ -5355,10 +5355,10 @@
         <v>126.633</v>
       </c>
       <c r="U82" s="2"/>
-      <c r="V82" s="2" t="n">
+      <c r="V82" s="2"/>
+      <c r="W82" s="2" t="n">
         <v>3799</v>
       </c>
-      <c r="W82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
@@ -5414,10 +5414,10 @@
         <v>126.633</v>
       </c>
       <c r="U83" s="2"/>
-      <c r="V83" s="2" t="n">
+      <c r="V83" s="2"/>
+      <c r="W83" s="2" t="n">
         <v>3799</v>
       </c>
-      <c r="W83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
@@ -5473,10 +5473,10 @@
         <v>139.5</v>
       </c>
       <c r="U84" s="2"/>
-      <c r="V84" s="2" t="n">
+      <c r="V84" s="2"/>
+      <c r="W84" s="2" t="n">
         <v>4185</v>
       </c>
-      <c r="W84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
@@ -5532,10 +5532,10 @@
         <v>213.567</v>
       </c>
       <c r="U85" s="2"/>
-      <c r="V85" s="2" t="n">
+      <c r="V85" s="2"/>
+      <c r="W85" s="2" t="n">
         <v>6407</v>
       </c>
-      <c r="W85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
@@ -5591,10 +5591,10 @@
         <v>213.567</v>
       </c>
       <c r="U86" s="2"/>
-      <c r="V86" s="2" t="n">
+      <c r="V86" s="2"/>
+      <c r="W86" s="2" t="n">
         <v>6407</v>
       </c>
-      <c r="W86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
@@ -5650,10 +5650,10 @@
         <v>214.1</v>
       </c>
       <c r="U87" s="2"/>
-      <c r="V87" s="2" t="n">
+      <c r="V87" s="2"/>
+      <c r="W87" s="2" t="n">
         <v>6423</v>
       </c>
-      <c r="W87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="3" t="s">
@@ -5708,10 +5708,10 @@
         <v>214.533</v>
       </c>
       <c r="T88" s="3"/>
-      <c r="U88" s="3" t="n">
+      <c r="U88" s="3"/>
+      <c r="V88" s="3" t="n">
         <v>6436</v>
       </c>
-      <c r="V88" s="3"/>
       <c r="W88" s="3"/>
     </row>
     <row r="89">
@@ -5767,10 +5767,10 @@
         <v>214.533</v>
       </c>
       <c r="T89" s="3"/>
-      <c r="U89" s="3" t="n">
+      <c r="U89" s="3"/>
+      <c r="V89" s="3" t="n">
         <v>6436</v>
       </c>
-      <c r="V89" s="3"/>
       <c r="W89" s="3"/>
     </row>
     <row r="90">
@@ -5826,10 +5826,10 @@
         <v>215.367</v>
       </c>
       <c r="T90" s="3"/>
-      <c r="U90" s="3" t="n">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3" t="n">
         <v>6461</v>
       </c>
-      <c r="V90" s="3"/>
       <c r="W90" s="3"/>
     </row>
     <row r="91">
@@ -5885,10 +5885,10 @@
         <v>215.367</v>
       </c>
       <c r="T91" s="3"/>
-      <c r="U91" s="3" t="n">
+      <c r="U91" s="3"/>
+      <c r="V91" s="3" t="n">
         <v>6461</v>
       </c>
-      <c r="V91" s="3"/>
       <c r="W91" s="3"/>
     </row>
     <row r="92">
@@ -5945,10 +5945,10 @@
         <v>216.2</v>
       </c>
       <c r="U92" s="4"/>
-      <c r="V92" s="4" t="n">
+      <c r="V92" s="4"/>
+      <c r="W92" s="4" t="n">
         <v>6486</v>
       </c>
-      <c r="W92" s="4"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
@@ -6004,10 +6004,10 @@
         <v>216.833</v>
       </c>
       <c r="U93" s="4"/>
-      <c r="V93" s="4" t="n">
+      <c r="V93" s="4"/>
+      <c r="W93" s="4" t="n">
         <v>6505</v>
       </c>
-      <c r="W93" s="4"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="s">
@@ -6063,10 +6063,10 @@
         <v>216.833</v>
       </c>
       <c r="U94" s="4"/>
-      <c r="V94" s="4" t="n">
+      <c r="V94" s="4"/>
+      <c r="W94" s="4" t="n">
         <v>6505</v>
       </c>
-      <c r="W94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
@@ -6122,10 +6122,10 @@
         <v>217.433</v>
       </c>
       <c r="U95" s="4"/>
-      <c r="V95" s="4" t="n">
+      <c r="V95" s="4"/>
+      <c r="W95" s="4" t="n">
         <v>6523</v>
       </c>
-      <c r="W95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="s">
@@ -6181,10 +6181,10 @@
         <v>217.433</v>
       </c>
       <c r="U96" s="4"/>
-      <c r="V96" s="4" t="n">
+      <c r="V96" s="4"/>
+      <c r="W96" s="4" t="n">
         <v>6523</v>
       </c>
-      <c r="W96" s="4"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
@@ -6240,10 +6240,10 @@
         <v>220.267</v>
       </c>
       <c r="U97" s="4"/>
-      <c r="V97" s="4" t="n">
+      <c r="V97" s="4"/>
+      <c r="W97" s="4" t="n">
         <v>6608</v>
       </c>
-      <c r="W97" s="4"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="s">
@@ -6299,10 +6299,10 @@
         <v>220.267</v>
       </c>
       <c r="U98" s="4"/>
-      <c r="V98" s="4" t="n">
+      <c r="V98" s="4"/>
+      <c r="W98" s="4" t="n">
         <v>6608</v>
       </c>
-      <c r="W98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
@@ -6357,10 +6357,10 @@
         <v>242.6</v>
       </c>
       <c r="T99" s="3"/>
-      <c r="U99" s="3" t="n">
+      <c r="U99" s="3"/>
+      <c r="V99" s="3" t="n">
         <v>7278</v>
       </c>
-      <c r="V99" s="3"/>
       <c r="W99" s="3"/>
     </row>
     <row r="100">
@@ -6416,10 +6416,10 @@
         <v>242.6</v>
       </c>
       <c r="T100" s="3"/>
-      <c r="U100" s="3" t="n">
+      <c r="U100" s="3"/>
+      <c r="V100" s="3" t="n">
         <v>7278</v>
       </c>
-      <c r="V100" s="3"/>
       <c r="W100" s="3"/>
     </row>
     <row r="101">
@@ -6476,10 +6476,10 @@
         <v>242.967</v>
       </c>
       <c r="U101" s="4"/>
-      <c r="V101" s="4" t="n">
+      <c r="V101" s="4"/>
+      <c r="W101" s="4" t="n">
         <v>7289</v>
       </c>
-      <c r="W101" s="4"/>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
@@ -6535,10 +6535,10 @@
         <v>242.967</v>
       </c>
       <c r="U102" s="4"/>
-      <c r="V102" s="4" t="n">
+      <c r="V102" s="4"/>
+      <c r="W102" s="4" t="n">
         <v>7289</v>
       </c>
-      <c r="W102" s="4"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
@@ -6594,10 +6594,10 @@
         <v>243.433</v>
       </c>
       <c r="U103" s="2"/>
-      <c r="V103" s="2" t="n">
+      <c r="V103" s="2"/>
+      <c r="W103" s="2" t="n">
         <v>7303</v>
       </c>
-      <c r="W103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="4" t="s">
@@ -6653,10 +6653,10 @@
         <v>243.467</v>
       </c>
       <c r="U104" s="4"/>
-      <c r="V104" s="4" t="n">
+      <c r="V104" s="4"/>
+      <c r="W104" s="4" t="n">
         <v>7304</v>
       </c>
-      <c r="W104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
@@ -6711,10 +6711,10 @@
         <v>243.7</v>
       </c>
       <c r="T105" s="3"/>
-      <c r="U105" s="3" t="n">
+      <c r="U105" s="3"/>
+      <c r="V105" s="3" t="n">
         <v>7311</v>
       </c>
-      <c r="V105" s="3"/>
       <c r="W105" s="3"/>
     </row>
     <row r="106">
@@ -6770,10 +6770,10 @@
         <v>243.7</v>
       </c>
       <c r="T106" s="3"/>
-      <c r="U106" s="3" t="n">
+      <c r="U106" s="3"/>
+      <c r="V106" s="3" t="n">
         <v>7311</v>
       </c>
-      <c r="V106" s="3"/>
       <c r="W106" s="3"/>
     </row>
     <row r="107">
@@ -6830,10 +6830,10 @@
         <v>244.367</v>
       </c>
       <c r="U107" s="2"/>
-      <c r="V107" s="2" t="n">
+      <c r="V107" s="2"/>
+      <c r="W107" s="2" t="n">
         <v>7331</v>
       </c>
-      <c r="W107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
@@ -6889,10 +6889,10 @@
         <v>244.367</v>
       </c>
       <c r="U108" s="2"/>
-      <c r="V108" s="2" t="n">
+      <c r="V108" s="2"/>
+      <c r="W108" s="2" t="n">
         <v>7331</v>
       </c>
-      <c r="W108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
@@ -6948,10 +6948,10 @@
         <v>311.433</v>
       </c>
       <c r="U109" s="2"/>
-      <c r="V109" s="2" t="n">
+      <c r="V109" s="2"/>
+      <c r="W109" s="2" t="n">
         <v>9343</v>
       </c>
-      <c r="W109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
@@ -7007,10 +7007,10 @@
         <v>311.433</v>
       </c>
       <c r="U110" s="2"/>
-      <c r="V110" s="2" t="n">
+      <c r="V110" s="2"/>
+      <c r="W110" s="2" t="n">
         <v>9343</v>
       </c>
-      <c r="W110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
@@ -7066,10 +7066,10 @@
         <v>311.8</v>
       </c>
       <c r="U111" s="2"/>
-      <c r="V111" s="2" t="n">
+      <c r="V111" s="2"/>
+      <c r="W111" s="2" t="n">
         <v>9354</v>
       </c>
-      <c r="W111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
@@ -7124,10 +7124,10 @@
         <v>312.2</v>
       </c>
       <c r="T112" s="3"/>
-      <c r="U112" s="3" t="n">
+      <c r="U112" s="3"/>
+      <c r="V112" s="3" t="n">
         <v>9366</v>
       </c>
-      <c r="V112" s="3"/>
       <c r="W112" s="3"/>
     </row>
     <row r="113">
@@ -7183,10 +7183,10 @@
         <v>312.2</v>
       </c>
       <c r="T113" s="3"/>
-      <c r="U113" s="3" t="n">
+      <c r="U113" s="3"/>
+      <c r="V113" s="3" t="n">
         <v>9366</v>
       </c>
-      <c r="V113" s="3"/>
       <c r="W113" s="3"/>
     </row>
     <row r="114">
@@ -7242,10 +7242,10 @@
         <v>312.8</v>
       </c>
       <c r="T114" s="3"/>
-      <c r="U114" s="3" t="n">
+      <c r="U114" s="3"/>
+      <c r="V114" s="3" t="n">
         <v>9384</v>
       </c>
-      <c r="V114" s="3"/>
       <c r="W114" s="3"/>
     </row>
     <row r="115">
@@ -7301,10 +7301,10 @@
         <v>312.8</v>
       </c>
       <c r="T115" s="3"/>
-      <c r="U115" s="3" t="n">
+      <c r="U115" s="3"/>
+      <c r="V115" s="3" t="n">
         <v>9384</v>
       </c>
-      <c r="V115" s="3"/>
       <c r="W115" s="3"/>
     </row>
     <row r="116">
@@ -7361,10 +7361,10 @@
         <v>313.767</v>
       </c>
       <c r="U116" s="4"/>
-      <c r="V116" s="4" t="n">
+      <c r="V116" s="4"/>
+      <c r="W116" s="4" t="n">
         <v>9413</v>
       </c>
-      <c r="W116" s="4"/>
     </row>
     <row r="117">
       <c r="A117" s="4" t="s">
@@ -7420,10 +7420,10 @@
         <v>314.267</v>
       </c>
       <c r="U117" s="4"/>
-      <c r="V117" s="4" t="n">
+      <c r="V117" s="4"/>
+      <c r="W117" s="4" t="n">
         <v>9428</v>
       </c>
-      <c r="W117" s="4"/>
     </row>
     <row r="118">
       <c r="A118" s="4" t="s">
@@ -7479,10 +7479,10 @@
         <v>314.267</v>
       </c>
       <c r="U118" s="4"/>
-      <c r="V118" s="4" t="n">
+      <c r="V118" s="4"/>
+      <c r="W118" s="4" t="n">
         <v>9428</v>
       </c>
-      <c r="W118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
@@ -7537,10 +7537,10 @@
         <v>324.667</v>
       </c>
       <c r="T119" s="3"/>
-      <c r="U119" s="3" t="n">
+      <c r="U119" s="3"/>
+      <c r="V119" s="3" t="n">
         <v>9740</v>
       </c>
-      <c r="V119" s="3"/>
       <c r="W119" s="3"/>
     </row>
     <row r="120">
@@ -7596,10 +7596,10 @@
         <v>324.667</v>
       </c>
       <c r="T120" s="3"/>
-      <c r="U120" s="3" t="n">
+      <c r="U120" s="3"/>
+      <c r="V120" s="3" t="n">
         <v>9740</v>
       </c>
-      <c r="V120" s="3"/>
       <c r="W120" s="3"/>
     </row>
     <row r="121">
@@ -7656,10 +7656,10 @@
         <v>324.8</v>
       </c>
       <c r="U121" s="4"/>
-      <c r="V121" s="4" t="n">
+      <c r="V121" s="4"/>
+      <c r="W121" s="4" t="n">
         <v>9744</v>
       </c>
-      <c r="W121" s="4"/>
     </row>
     <row r="122">
       <c r="A122" s="4" t="s">
@@ -7715,10 +7715,10 @@
         <v>324.8</v>
       </c>
       <c r="U122" s="4"/>
-      <c r="V122" s="4" t="n">
+      <c r="V122" s="4"/>
+      <c r="W122" s="4" t="n">
         <v>9744</v>
       </c>
-      <c r="W122" s="4"/>
     </row>
     <row r="123">
       <c r="A123" s="4" t="s">
@@ -7774,10 +7774,10 @@
         <v>325.467</v>
       </c>
       <c r="U123" s="4"/>
-      <c r="V123" s="4" t="n">
+      <c r="V123" s="4"/>
+      <c r="W123" s="4" t="n">
         <v>9764</v>
       </c>
-      <c r="W123" s="4"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
@@ -7833,10 +7833,10 @@
         <v>325.8</v>
       </c>
       <c r="U124" s="2"/>
-      <c r="V124" s="2" t="n">
+      <c r="V124" s="2"/>
+      <c r="W124" s="2" t="n">
         <v>9774</v>
       </c>
-      <c r="W124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" s="3" t="s">
@@ -7891,10 +7891,10 @@
         <v>326.267</v>
       </c>
       <c r="T125" s="3"/>
-      <c r="U125" s="3" t="n">
+      <c r="U125" s="3"/>
+      <c r="V125" s="3" t="n">
         <v>9788</v>
       </c>
-      <c r="V125" s="3"/>
       <c r="W125" s="3"/>
     </row>
     <row r="126">
@@ -7950,10 +7950,10 @@
         <v>326.267</v>
       </c>
       <c r="T126" s="3"/>
-      <c r="U126" s="3" t="n">
+      <c r="U126" s="3"/>
+      <c r="V126" s="3" t="n">
         <v>9788</v>
       </c>
-      <c r="V126" s="3"/>
       <c r="W126" s="3"/>
     </row>
     <row r="127">
@@ -8010,10 +8010,10 @@
         <v>326.433</v>
       </c>
       <c r="U127" s="2"/>
-      <c r="V127" s="2" t="n">
+      <c r="V127" s="2"/>
+      <c r="W127" s="2" t="n">
         <v>9793</v>
       </c>
-      <c r="W127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
@@ -8069,10 +8069,10 @@
         <v>326.433</v>
       </c>
       <c r="U128" s="2"/>
-      <c r="V128" s="2" t="n">
+      <c r="V128" s="2"/>
+      <c r="W128" s="2" t="n">
         <v>9793</v>
       </c>
-      <c r="W128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
@@ -8128,10 +8128,10 @@
         <v>334.533</v>
       </c>
       <c r="U129" s="2"/>
-      <c r="V129" s="2" t="n">
+      <c r="V129" s="2"/>
+      <c r="W129" s="2" t="n">
         <v>10036</v>
       </c>
-      <c r="W129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
@@ -8187,10 +8187,10 @@
         <v>347.8</v>
       </c>
       <c r="U130" s="2"/>
-      <c r="V130" s="2" t="n">
+      <c r="V130" s="2"/>
+      <c r="W130" s="2" t="n">
         <v>10434</v>
       </c>
-      <c r="W130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
@@ -8246,10 +8246,10 @@
         <v>347.8</v>
       </c>
       <c r="U131" s="2"/>
-      <c r="V131" s="2" t="n">
+      <c r="V131" s="2"/>
+      <c r="W131" s="2" t="n">
         <v>10434</v>
       </c>
-      <c r="W131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
@@ -8305,10 +8305,10 @@
         <v>348.2</v>
       </c>
       <c r="U132" s="2"/>
-      <c r="V132" s="2" t="n">
+      <c r="V132" s="2"/>
+      <c r="W132" s="2" t="n">
         <v>10446</v>
       </c>
-      <c r="W132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
@@ -8363,10 +8363,10 @@
         <v>348.667</v>
       </c>
       <c r="T133" s="3"/>
-      <c r="U133" s="3" t="n">
+      <c r="U133" s="3"/>
+      <c r="V133" s="3" t="n">
         <v>10460</v>
       </c>
-      <c r="V133" s="3"/>
       <c r="W133" s="3"/>
     </row>
     <row r="134">
@@ -8422,10 +8422,10 @@
         <v>348.667</v>
       </c>
       <c r="T134" s="3"/>
-      <c r="U134" s="3" t="n">
+      <c r="U134" s="3"/>
+      <c r="V134" s="3" t="n">
         <v>10460</v>
       </c>
-      <c r="V134" s="3"/>
       <c r="W134" s="3"/>
     </row>
     <row r="135">
@@ -8481,10 +8481,10 @@
         <v>349.233</v>
       </c>
       <c r="T135" s="3"/>
-      <c r="U135" s="3" t="n">
+      <c r="U135" s="3"/>
+      <c r="V135" s="3" t="n">
         <v>10477</v>
       </c>
-      <c r="V135" s="3"/>
       <c r="W135" s="3"/>
     </row>
     <row r="136">
@@ -8540,10 +8540,10 @@
         <v>349.233</v>
       </c>
       <c r="T136" s="3"/>
-      <c r="U136" s="3" t="n">
+      <c r="U136" s="3"/>
+      <c r="V136" s="3" t="n">
         <v>10477</v>
       </c>
-      <c r="V136" s="3"/>
       <c r="W136" s="3"/>
     </row>
     <row r="137">
@@ -8600,10 +8600,10 @@
         <v>350.133</v>
       </c>
       <c r="U137" s="4"/>
-      <c r="V137" s="4" t="n">
+      <c r="V137" s="4"/>
+      <c r="W137" s="4" t="n">
         <v>10504</v>
       </c>
-      <c r="W137" s="4"/>
     </row>
     <row r="138">
       <c r="A138" s="4" t="s">
@@ -8659,10 +8659,10 @@
         <v>350.533</v>
       </c>
       <c r="U138" s="4"/>
-      <c r="V138" s="4" t="n">
+      <c r="V138" s="4"/>
+      <c r="W138" s="4" t="n">
         <v>10516</v>
       </c>
-      <c r="W138" s="4"/>
     </row>
     <row r="139">
       <c r="A139" s="4" t="s">
@@ -8718,10 +8718,10 @@
         <v>350.533</v>
       </c>
       <c r="U139" s="4"/>
-      <c r="V139" s="4" t="n">
+      <c r="V139" s="4"/>
+      <c r="W139" s="4" t="n">
         <v>10516</v>
       </c>
-      <c r="W139" s="4"/>
     </row>
     <row r="140">
       <c r="A140" s="4" t="s">
@@ -8777,10 +8777,10 @@
         <v>350.9</v>
       </c>
       <c r="U140" s="4"/>
-      <c r="V140" s="4" t="n">
+      <c r="V140" s="4"/>
+      <c r="W140" s="4" t="n">
         <v>10527</v>
       </c>
-      <c r="W140" s="4"/>
     </row>
     <row r="141">
       <c r="A141" s="4" t="s">
@@ -8836,10 +8836,10 @@
         <v>350.9</v>
       </c>
       <c r="U141" s="4"/>
-      <c r="V141" s="4" t="n">
+      <c r="V141" s="4"/>
+      <c r="W141" s="4" t="n">
         <v>10527</v>
       </c>
-      <c r="W141" s="4"/>
     </row>
     <row r="142">
       <c r="A142" s="4" t="s">
@@ -8895,10 +8895,10 @@
         <v>351.533</v>
       </c>
       <c r="U142" s="4"/>
-      <c r="V142" s="4" t="n">
+      <c r="V142" s="4"/>
+      <c r="W142" s="4" t="n">
         <v>10546</v>
       </c>
-      <c r="W142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="4" t="s">
@@ -8954,10 +8954,10 @@
         <v>351.533</v>
       </c>
       <c r="U143" s="4"/>
-      <c r="V143" s="4" t="n">
+      <c r="V143" s="4"/>
+      <c r="W143" s="4" t="n">
         <v>10546</v>
       </c>
-      <c r="W143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="3" t="s">
@@ -9012,10 +9012,10 @@
         <v>361.5</v>
       </c>
       <c r="T144" s="3"/>
-      <c r="U144" s="3" t="n">
+      <c r="U144" s="3"/>
+      <c r="V144" s="3" t="n">
         <v>10845</v>
       </c>
-      <c r="V144" s="3"/>
       <c r="W144" s="3"/>
     </row>
     <row r="145">
@@ -9071,10 +9071,10 @@
         <v>361.5</v>
       </c>
       <c r="T145" s="3"/>
-      <c r="U145" s="3" t="n">
+      <c r="U145" s="3"/>
+      <c r="V145" s="3" t="n">
         <v>10845</v>
       </c>
-      <c r="V145" s="3"/>
       <c r="W145" s="3"/>
     </row>
     <row r="146">
@@ -9131,10 +9131,10 @@
         <v>361.967</v>
       </c>
       <c r="U146" s="2"/>
-      <c r="V146" s="2" t="n">
+      <c r="V146" s="2"/>
+      <c r="W146" s="2" t="n">
         <v>10859</v>
       </c>
-      <c r="W146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="4" t="s">
@@ -9190,10 +9190,10 @@
         <v>362</v>
       </c>
       <c r="U147" s="4"/>
-      <c r="V147" s="4" t="n">
+      <c r="V147" s="4"/>
+      <c r="W147" s="4" t="n">
         <v>10860</v>
       </c>
-      <c r="W147" s="4"/>
     </row>
     <row r="148">
       <c r="A148" s="4" t="s">
@@ -9249,10 +9249,10 @@
         <v>362</v>
       </c>
       <c r="U148" s="4"/>
-      <c r="V148" s="4" t="n">
+      <c r="V148" s="4"/>
+      <c r="W148" s="4" t="n">
         <v>10860</v>
       </c>
-      <c r="W148" s="4"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
@@ -9308,10 +9308,10 @@
         <v>362.333</v>
       </c>
       <c r="U149" s="2"/>
-      <c r="V149" s="2" t="n">
+      <c r="V149" s="2"/>
+      <c r="W149" s="2" t="n">
         <v>10870</v>
       </c>
-      <c r="W149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
@@ -9367,10 +9367,10 @@
         <v>362.333</v>
       </c>
       <c r="U150" s="2"/>
-      <c r="V150" s="2" t="n">
+      <c r="V150" s="2"/>
+      <c r="W150" s="2" t="n">
         <v>10870</v>
       </c>
-      <c r="W150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="4" t="s">
@@ -9426,10 +9426,10 @@
         <v>362.333</v>
       </c>
       <c r="U151" s="4"/>
-      <c r="V151" s="4" t="n">
+      <c r="V151" s="4"/>
+      <c r="W151" s="4" t="n">
         <v>10870</v>
       </c>
-      <c r="W151" s="4"/>
     </row>
     <row r="152">
       <c r="A152" s="3" t="s">
@@ -9484,10 +9484,10 @@
         <v>362.433</v>
       </c>
       <c r="T152" s="3"/>
-      <c r="U152" s="3" t="n">
+      <c r="U152" s="3"/>
+      <c r="V152" s="3" t="n">
         <v>10873</v>
       </c>
-      <c r="V152" s="3"/>
       <c r="W152" s="3"/>
     </row>
     <row r="153">
@@ -9543,10 +9543,10 @@
         <v>362.433</v>
       </c>
       <c r="T153" s="3"/>
-      <c r="U153" s="3" t="n">
+      <c r="U153" s="3"/>
+      <c r="V153" s="3" t="n">
         <v>10873</v>
       </c>
-      <c r="V153" s="3"/>
       <c r="W153" s="3"/>
     </row>
     <row r="154">
@@ -9603,10 +9603,10 @@
         <v>377</v>
       </c>
       <c r="U154" s="2"/>
-      <c r="V154" s="2" t="n">
+      <c r="V154" s="2"/>
+      <c r="W154" s="2" t="n">
         <v>11310</v>
       </c>
-      <c r="W154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
@@ -9662,10 +9662,10 @@
         <v>377</v>
       </c>
       <c r="U155" s="2"/>
-      <c r="V155" s="2" t="n">
+      <c r="V155" s="2"/>
+      <c r="W155" s="2" t="n">
         <v>11310</v>
       </c>
-      <c r="W155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
@@ -9721,10 +9721,10 @@
         <v>377.533</v>
       </c>
       <c r="U156" s="2"/>
-      <c r="V156" s="2" t="n">
+      <c r="V156" s="2"/>
+      <c r="W156" s="2" t="n">
         <v>11326</v>
       </c>
-      <c r="W156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="3" t="s">
@@ -9779,10 +9779,10 @@
         <v>378.067</v>
       </c>
       <c r="T157" s="3"/>
-      <c r="U157" s="3" t="n">
+      <c r="U157" s="3"/>
+      <c r="V157" s="3" t="n">
         <v>11342</v>
       </c>
-      <c r="V157" s="3"/>
       <c r="W157" s="3"/>
     </row>
     <row r="158">
@@ -9838,10 +9838,10 @@
         <v>378.067</v>
       </c>
       <c r="T158" s="3"/>
-      <c r="U158" s="3" t="n">
+      <c r="U158" s="3"/>
+      <c r="V158" s="3" t="n">
         <v>11342</v>
       </c>
-      <c r="V158" s="3"/>
       <c r="W158" s="3"/>
     </row>
     <row r="159">
@@ -9897,10 +9897,10 @@
         <v>378.5</v>
       </c>
       <c r="T159" s="3"/>
-      <c r="U159" s="3" t="n">
+      <c r="U159" s="3"/>
+      <c r="V159" s="3" t="n">
         <v>11355</v>
       </c>
-      <c r="V159" s="3"/>
       <c r="W159" s="3"/>
     </row>
     <row r="160">
@@ -9956,10 +9956,10 @@
         <v>378.5</v>
       </c>
       <c r="T160" s="3"/>
-      <c r="U160" s="3" t="n">
+      <c r="U160" s="3"/>
+      <c r="V160" s="3" t="n">
         <v>11355</v>
       </c>
-      <c r="V160" s="3"/>
       <c r="W160" s="3"/>
     </row>
     <row r="161">
@@ -10016,10 +10016,10 @@
         <v>379.367</v>
       </c>
       <c r="U161" s="4"/>
-      <c r="V161" s="4" t="n">
+      <c r="V161" s="4"/>
+      <c r="W161" s="4" t="n">
         <v>11381</v>
       </c>
-      <c r="W161" s="4"/>
     </row>
     <row r="162">
       <c r="A162" s="4" t="s">
@@ -10075,10 +10075,10 @@
         <v>379.933</v>
       </c>
       <c r="U162" s="4"/>
-      <c r="V162" s="4" t="n">
+      <c r="V162" s="4"/>
+      <c r="W162" s="4" t="n">
         <v>11398</v>
       </c>
-      <c r="W162" s="4"/>
     </row>
     <row r="163">
       <c r="A163" s="4" t="s">
@@ -10134,10 +10134,10 @@
         <v>379.933</v>
       </c>
       <c r="U163" s="4"/>
-      <c r="V163" s="4" t="n">
+      <c r="V163" s="4"/>
+      <c r="W163" s="4" t="n">
         <v>11398</v>
       </c>
-      <c r="W163" s="4"/>
     </row>
     <row r="164">
       <c r="A164" s="3" t="s">
@@ -10192,10 +10192,10 @@
         <v>408.633</v>
       </c>
       <c r="T164" s="3"/>
-      <c r="U164" s="3" t="n">
+      <c r="U164" s="3"/>
+      <c r="V164" s="3" t="n">
         <v>12259</v>
       </c>
-      <c r="V164" s="3"/>
       <c r="W164" s="3"/>
     </row>
     <row r="165">
@@ -10251,10 +10251,10 @@
         <v>408.633</v>
       </c>
       <c r="T165" s="3"/>
-      <c r="U165" s="3" t="n">
+      <c r="U165" s="3"/>
+      <c r="V165" s="3" t="n">
         <v>12259</v>
       </c>
-      <c r="V165" s="3"/>
       <c r="W165" s="3"/>
     </row>
     <row r="166">
@@ -10311,10 +10311,10 @@
         <v>409.033</v>
       </c>
       <c r="U166" s="2"/>
-      <c r="V166" s="2" t="n">
+      <c r="V166" s="2"/>
+      <c r="W166" s="2" t="n">
         <v>12271</v>
       </c>
-      <c r="W166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" s="4" t="s">
@@ -10370,10 +10370,10 @@
         <v>409.133</v>
       </c>
       <c r="U167" s="4"/>
-      <c r="V167" s="4" t="n">
+      <c r="V167" s="4"/>
+      <c r="W167" s="4" t="n">
         <v>12274</v>
       </c>
-      <c r="W167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="4" t="s">
@@ -10429,10 +10429,10 @@
         <v>409.133</v>
       </c>
       <c r="U168" s="4"/>
-      <c r="V168" s="4" t="n">
+      <c r="V168" s="4"/>
+      <c r="W168" s="4" t="n">
         <v>12274</v>
       </c>
-      <c r="W168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="3" t="s">
@@ -10487,10 +10487,10 @@
         <v>409.533</v>
       </c>
       <c r="T169" s="3"/>
-      <c r="U169" s="3" t="n">
+      <c r="U169" s="3"/>
+      <c r="V169" s="3" t="n">
         <v>12286</v>
       </c>
-      <c r="V169" s="3"/>
       <c r="W169" s="3"/>
     </row>
     <row r="170">
@@ -10546,10 +10546,10 @@
         <v>409.533</v>
       </c>
       <c r="T170" s="3"/>
-      <c r="U170" s="3" t="n">
+      <c r="U170" s="3"/>
+      <c r="V170" s="3" t="n">
         <v>12286</v>
       </c>
-      <c r="V170" s="3"/>
       <c r="W170" s="3"/>
     </row>
     <row r="171">
@@ -10606,10 +10606,10 @@
         <v>409.533</v>
       </c>
       <c r="U171" s="4"/>
-      <c r="V171" s="4" t="n">
+      <c r="V171" s="4"/>
+      <c r="W171" s="4" t="n">
         <v>12286</v>
       </c>
-      <c r="W171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
@@ -10665,10 +10665,10 @@
         <v>409.6</v>
       </c>
       <c r="U172" s="2"/>
-      <c r="V172" s="2" t="n">
+      <c r="V172" s="2"/>
+      <c r="W172" s="2" t="n">
         <v>12288</v>
       </c>
-      <c r="W172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
@@ -10724,10 +10724,10 @@
         <v>409.6</v>
       </c>
       <c r="U173" s="2"/>
-      <c r="V173" s="2" t="n">
+      <c r="V173" s="2"/>
+      <c r="W173" s="2" t="n">
         <v>12288</v>
       </c>
-      <c r="W173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
@@ -10783,10 +10783,10 @@
         <v>415.033</v>
       </c>
       <c r="U174" s="2"/>
-      <c r="V174" s="2" t="n">
+      <c r="V174" s="2"/>
+      <c r="W174" s="2" t="n">
         <v>12451</v>
       </c>
-      <c r="W174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
@@ -10842,10 +10842,10 @@
         <v>415.033</v>
       </c>
       <c r="U175" s="2"/>
-      <c r="V175" s="2" t="n">
+      <c r="V175" s="2"/>
+      <c r="W175" s="2" t="n">
         <v>12451</v>
       </c>
-      <c r="W175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
@@ -10901,10 +10901,10 @@
         <v>415.533</v>
       </c>
       <c r="U176" s="2"/>
-      <c r="V176" s="2" t="n">
+      <c r="V176" s="2"/>
+      <c r="W176" s="2" t="n">
         <v>12466</v>
       </c>
-      <c r="W176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
@@ -10960,10 +10960,10 @@
         <v>415.533</v>
       </c>
       <c r="U177" s="2"/>
-      <c r="V177" s="2" t="n">
+      <c r="V177" s="2"/>
+      <c r="W177" s="2" t="n">
         <v>12466</v>
       </c>
-      <c r="W177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
@@ -11019,10 +11019,10 @@
         <v>416.133</v>
       </c>
       <c r="U178" s="2"/>
-      <c r="V178" s="2" t="n">
+      <c r="V178" s="2"/>
+      <c r="W178" s="2" t="n">
         <v>12484</v>
       </c>
-      <c r="W178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
@@ -11078,10 +11078,10 @@
         <v>416.133</v>
       </c>
       <c r="U179" s="2"/>
-      <c r="V179" s="2" t="n">
+      <c r="V179" s="2"/>
+      <c r="W179" s="2" t="n">
         <v>12484</v>
       </c>
-      <c r="W179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
@@ -11137,10 +11137,10 @@
         <v>417.3</v>
       </c>
       <c r="U180" s="2"/>
-      <c r="V180" s="2" t="n">
+      <c r="V180" s="2"/>
+      <c r="W180" s="2" t="n">
         <v>12519</v>
       </c>
-      <c r="W180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="3" t="s">
@@ -11195,10 +11195,10 @@
         <v>417.867</v>
       </c>
       <c r="T181" s="3"/>
-      <c r="U181" s="3" t="n">
+      <c r="U181" s="3"/>
+      <c r="V181" s="3" t="n">
         <v>12536</v>
       </c>
-      <c r="V181" s="3"/>
       <c r="W181" s="3"/>
     </row>
     <row r="182">
@@ -11254,10 +11254,10 @@
         <v>417.867</v>
       </c>
       <c r="T182" s="3"/>
-      <c r="U182" s="3" t="n">
+      <c r="U182" s="3"/>
+      <c r="V182" s="3" t="n">
         <v>12536</v>
       </c>
-      <c r="V182" s="3"/>
       <c r="W182" s="3"/>
     </row>
     <row r="183">
@@ -11313,10 +11313,10 @@
         <v>418.333</v>
       </c>
       <c r="T183" s="3"/>
-      <c r="U183" s="3" t="n">
+      <c r="U183" s="3"/>
+      <c r="V183" s="3" t="n">
         <v>12550</v>
       </c>
-      <c r="V183" s="3"/>
       <c r="W183" s="3"/>
     </row>
     <row r="184">
@@ -11372,10 +11372,10 @@
         <v>418.333</v>
       </c>
       <c r="T184" s="3"/>
-      <c r="U184" s="3" t="n">
+      <c r="U184" s="3"/>
+      <c r="V184" s="3" t="n">
         <v>12550</v>
       </c>
-      <c r="V184" s="3"/>
       <c r="W184" s="3"/>
     </row>
     <row r="185">
@@ -11432,10 +11432,10 @@
         <v>419.3</v>
       </c>
       <c r="U185" s="4"/>
-      <c r="V185" s="4" t="n">
+      <c r="V185" s="4"/>
+      <c r="W185" s="4" t="n">
         <v>12579</v>
       </c>
-      <c r="W185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="4" t="s">
@@ -11491,10 +11491,10 @@
         <v>419.733</v>
       </c>
       <c r="U186" s="4"/>
-      <c r="V186" s="4" t="n">
+      <c r="V186" s="4"/>
+      <c r="W186" s="4" t="n">
         <v>12592</v>
       </c>
-      <c r="W186" s="4"/>
     </row>
     <row r="187">
       <c r="A187" s="4" t="s">
@@ -11550,10 +11550,10 @@
         <v>419.733</v>
       </c>
       <c r="U187" s="4"/>
-      <c r="V187" s="4" t="n">
+      <c r="V187" s="4"/>
+      <c r="W187" s="4" t="n">
         <v>12592</v>
       </c>
-      <c r="W187" s="4"/>
     </row>
     <row r="188">
       <c r="A188" s="4" t="s">
@@ -11609,10 +11609,10 @@
         <v>422.4</v>
       </c>
       <c r="U188" s="4"/>
-      <c r="V188" s="4" t="n">
+      <c r="V188" s="4"/>
+      <c r="W188" s="4" t="n">
         <v>12672</v>
       </c>
-      <c r="W188" s="4"/>
     </row>
     <row r="189">
       <c r="A189" s="4" t="s">
@@ -11668,10 +11668,10 @@
         <v>422.4</v>
       </c>
       <c r="U189" s="4"/>
-      <c r="V189" s="4" t="n">
+      <c r="V189" s="4"/>
+      <c r="W189" s="4" t="n">
         <v>12672</v>
       </c>
-      <c r="W189" s="4"/>
     </row>
     <row r="190">
       <c r="A190" s="4" t="s">
@@ -11727,10 +11727,10 @@
         <v>422.8</v>
       </c>
       <c r="U190" s="4"/>
-      <c r="V190" s="4" t="n">
+      <c r="V190" s="4"/>
+      <c r="W190" s="4" t="n">
         <v>12684</v>
       </c>
-      <c r="W190" s="4"/>
     </row>
     <row r="191">
       <c r="A191" s="4" t="s">
@@ -11786,10 +11786,10 @@
         <v>422.8</v>
       </c>
       <c r="U191" s="4"/>
-      <c r="V191" s="4" t="n">
+      <c r="V191" s="4"/>
+      <c r="W191" s="4" t="n">
         <v>12684</v>
       </c>
-      <c r="W191" s="4"/>
     </row>
     <row r="192">
       <c r="A192" s="4" t="s">
@@ -11845,10 +11845,10 @@
         <v>477.733</v>
       </c>
       <c r="U192" s="4"/>
-      <c r="V192" s="4" t="n">
+      <c r="V192" s="4"/>
+      <c r="W192" s="4" t="n">
         <v>14332</v>
       </c>
-      <c r="W192" s="4"/>
     </row>
     <row r="193">
       <c r="A193" s="4" t="s">
@@ -11904,10 +11904,10 @@
         <v>477.733</v>
       </c>
       <c r="U193" s="4"/>
-      <c r="V193" s="4" t="n">
+      <c r="V193" s="4"/>
+      <c r="W193" s="4" t="n">
         <v>14332</v>
       </c>
-      <c r="W193" s="4"/>
     </row>
     <row r="194">
       <c r="A194" s="4" t="s">
@@ -11963,10 +11963,10 @@
         <v>479.933</v>
       </c>
       <c r="U194" s="4"/>
-      <c r="V194" s="4" t="n">
+      <c r="V194" s="4"/>
+      <c r="W194" s="4" t="n">
         <v>14398</v>
       </c>
-      <c r="W194" s="4"/>
     </row>
     <row r="195">
       <c r="A195" s="4" t="s">
@@ -12022,10 +12022,10 @@
         <v>479.933</v>
       </c>
       <c r="U195" s="4"/>
-      <c r="V195" s="4" t="n">
+      <c r="V195" s="4"/>
+      <c r="W195" s="4" t="n">
         <v>14398</v>
       </c>
-      <c r="W195" s="4"/>
     </row>
     <row r="196">
       <c r="A196" s="4" t="s">
@@ -12081,10 +12081,10 @@
         <v>481.3</v>
       </c>
       <c r="U196" s="4"/>
-      <c r="V196" s="4" t="n">
+      <c r="V196" s="4"/>
+      <c r="W196" s="4" t="n">
         <v>14439</v>
       </c>
-      <c r="W196" s="4"/>
     </row>
     <row r="197">
       <c r="A197" s="4" t="s">
@@ -12140,10 +12140,10 @@
         <v>481.3</v>
       </c>
       <c r="U197" s="4"/>
-      <c r="V197" s="4" t="n">
+      <c r="V197" s="4"/>
+      <c r="W197" s="4" t="n">
         <v>14439</v>
       </c>
-      <c r="W197" s="4"/>
     </row>
     <row r="198">
       <c r="A198" s="4" t="s">
@@ -12199,10 +12199,10 @@
         <v>481.833</v>
       </c>
       <c r="U198" s="4"/>
-      <c r="V198" s="4" t="n">
+      <c r="V198" s="4"/>
+      <c r="W198" s="4" t="n">
         <v>14455</v>
       </c>
-      <c r="W198" s="4"/>
     </row>
     <row r="199">
       <c r="A199" s="4" t="s">
@@ -12258,10 +12258,10 @@
         <v>485.533</v>
       </c>
       <c r="U199" s="4"/>
-      <c r="V199" s="4" t="n">
+      <c r="V199" s="4"/>
+      <c r="W199" s="4" t="n">
         <v>14566</v>
       </c>
-      <c r="W199" s="4"/>
     </row>
     <row r="200">
       <c r="A200" s="4" t="s">
@@ -12317,10 +12317,10 @@
         <v>485.533</v>
       </c>
       <c r="U200" s="4"/>
-      <c r="V200" s="4" t="n">
+      <c r="V200" s="4"/>
+      <c r="W200" s="4" t="n">
         <v>14566</v>
       </c>
-      <c r="W200" s="4"/>
     </row>
     <row r="201">
       <c r="A201" s="4" t="s">
@@ -12376,10 +12376,10 @@
         <v>497.867</v>
       </c>
       <c r="U201" s="4"/>
-      <c r="V201" s="4" t="n">
+      <c r="V201" s="4"/>
+      <c r="W201" s="4" t="n">
         <v>14936</v>
       </c>
-      <c r="W201" s="4"/>
     </row>
     <row r="202">
       <c r="A202" s="3" t="s">
@@ -12434,10 +12434,10 @@
         <v>536.3</v>
       </c>
       <c r="T202" s="3"/>
-      <c r="U202" s="3" t="n">
+      <c r="U202" s="3"/>
+      <c r="V202" s="3" t="n">
         <v>16089</v>
       </c>
-      <c r="V202" s="3"/>
       <c r="W202" s="3"/>
     </row>
     <row r="203">
@@ -12493,10 +12493,10 @@
         <v>536.3</v>
       </c>
       <c r="T203" s="3"/>
-      <c r="U203" s="3" t="n">
+      <c r="U203" s="3"/>
+      <c r="V203" s="3" t="n">
         <v>16089</v>
       </c>
-      <c r="V203" s="3"/>
       <c r="W203" s="3"/>
     </row>
     <row r="204">
@@ -12553,10 +12553,10 @@
         <v>536.733</v>
       </c>
       <c r="U204" s="2"/>
-      <c r="V204" s="2" t="n">
+      <c r="V204" s="2"/>
+      <c r="W204" s="2" t="n">
         <v>16102</v>
       </c>
-      <c r="W204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="4" t="s">
@@ -12612,10 +12612,10 @@
         <v>536.767</v>
       </c>
       <c r="U205" s="4"/>
-      <c r="V205" s="4" t="n">
+      <c r="V205" s="4"/>
+      <c r="W205" s="4" t="n">
         <v>16103</v>
       </c>
-      <c r="W205" s="4"/>
     </row>
     <row r="206">
       <c r="A206" s="4" t="s">
@@ -12671,10 +12671,10 @@
         <v>536.767</v>
       </c>
       <c r="U206" s="4"/>
-      <c r="V206" s="4" t="n">
+      <c r="V206" s="4"/>
+      <c r="W206" s="4" t="n">
         <v>16103</v>
       </c>
-      <c r="W206" s="4"/>
     </row>
     <row r="207">
       <c r="A207" s="3" t="s">
@@ -12729,10 +12729,10 @@
         <v>537.2</v>
       </c>
       <c r="T207" s="3"/>
-      <c r="U207" s="3" t="n">
+      <c r="U207" s="3"/>
+      <c r="V207" s="3" t="n">
         <v>16116</v>
       </c>
-      <c r="V207" s="3"/>
       <c r="W207" s="3"/>
     </row>
     <row r="208">
@@ -12788,10 +12788,10 @@
         <v>537.2</v>
       </c>
       <c r="T208" s="3"/>
-      <c r="U208" s="3" t="n">
+      <c r="U208" s="3"/>
+      <c r="V208" s="3" t="n">
         <v>16116</v>
       </c>
-      <c r="V208" s="3"/>
       <c r="W208" s="3"/>
     </row>
     <row r="209">
@@ -12848,10 +12848,10 @@
         <v>537.2</v>
       </c>
       <c r="U209" s="4"/>
-      <c r="V209" s="4" t="n">
+      <c r="V209" s="4"/>
+      <c r="W209" s="4" t="n">
         <v>16116</v>
       </c>
-      <c r="W209" s="4"/>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
@@ -12907,10 +12907,10 @@
         <v>538.333</v>
       </c>
       <c r="U210" s="2"/>
-      <c r="V210" s="2" t="n">
+      <c r="V210" s="2"/>
+      <c r="W210" s="2" t="n">
         <v>16150</v>
       </c>
-      <c r="W210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
@@ -12966,10 +12966,10 @@
         <v>538.333</v>
       </c>
       <c r="U211" s="2"/>
-      <c r="V211" s="2" t="n">
+      <c r="V211" s="2"/>
+      <c r="W211" s="2" t="n">
         <v>16150</v>
       </c>
-      <c r="W211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
@@ -13025,10 +13025,10 @@
         <v>542.9</v>
       </c>
       <c r="U212" s="2"/>
-      <c r="V212" s="2" t="n">
+      <c r="V212" s="2"/>
+      <c r="W212" s="2" t="n">
         <v>16287</v>
       </c>
-      <c r="W212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
@@ -13084,10 +13084,10 @@
         <v>574.267</v>
       </c>
       <c r="U213" s="2"/>
-      <c r="V213" s="2" t="n">
+      <c r="V213" s="2"/>
+      <c r="W213" s="2" t="n">
         <v>17228</v>
       </c>
-      <c r="W213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
@@ -13143,10 +13143,10 @@
         <v>574.267</v>
       </c>
       <c r="U214" s="2"/>
-      <c r="V214" s="2" t="n">
+      <c r="V214" s="2"/>
+      <c r="W214" s="2" t="n">
         <v>17228</v>
       </c>
-      <c r="W214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
@@ -13202,10 +13202,10 @@
         <v>574.633</v>
       </c>
       <c r="U215" s="2"/>
-      <c r="V215" s="2" t="n">
+      <c r="V215" s="2"/>
+      <c r="W215" s="2" t="n">
         <v>17239</v>
       </c>
-      <c r="W215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" s="3" t="s">
@@ -13260,10 +13260,10 @@
         <v>575.2</v>
       </c>
       <c r="T216" s="3"/>
-      <c r="U216" s="3" t="n">
+      <c r="U216" s="3"/>
+      <c r="V216" s="3" t="n">
         <v>17256</v>
       </c>
-      <c r="V216" s="3"/>
       <c r="W216" s="3"/>
     </row>
     <row r="217">
@@ -13319,10 +13319,10 @@
         <v>575.2</v>
       </c>
       <c r="T217" s="3"/>
-      <c r="U217" s="3" t="n">
+      <c r="U217" s="3"/>
+      <c r="V217" s="3" t="n">
         <v>17256</v>
       </c>
-      <c r="V217" s="3"/>
       <c r="W217" s="3"/>
     </row>
     <row r="218">
@@ -13378,10 +13378,10 @@
         <v>575.667</v>
       </c>
       <c r="T218" s="3"/>
-      <c r="U218" s="3" t="n">
+      <c r="U218" s="3"/>
+      <c r="V218" s="3" t="n">
         <v>17270</v>
       </c>
-      <c r="V218" s="3"/>
       <c r="W218" s="3"/>
     </row>
     <row r="219">
@@ -13437,10 +13437,10 @@
         <v>575.667</v>
       </c>
       <c r="T219" s="3"/>
-      <c r="U219" s="3" t="n">
+      <c r="U219" s="3"/>
+      <c r="V219" s="3" t="n">
         <v>17270</v>
       </c>
-      <c r="V219" s="3"/>
       <c r="W219" s="3"/>
     </row>
     <row r="220">
@@ -13497,10 +13497,10 @@
         <v>576.6</v>
       </c>
       <c r="U220" s="4"/>
-      <c r="V220" s="4" t="n">
+      <c r="V220" s="4"/>
+      <c r="W220" s="4" t="n">
         <v>17298</v>
       </c>
-      <c r="W220" s="4"/>
     </row>
     <row r="221">
       <c r="A221" s="4" t="s">
@@ -13556,10 +13556,10 @@
         <v>577.2</v>
       </c>
       <c r="U221" s="4"/>
-      <c r="V221" s="4" t="n">
+      <c r="V221" s="4"/>
+      <c r="W221" s="4" t="n">
         <v>17316</v>
       </c>
-      <c r="W221" s="4"/>
     </row>
     <row r="222">
       <c r="A222" s="4" t="s">
@@ -13615,10 +13615,10 @@
         <v>577.2</v>
       </c>
       <c r="U222" s="4"/>
-      <c r="V222" s="4" t="n">
+      <c r="V222" s="4"/>
+      <c r="W222" s="4" t="n">
         <v>17316</v>
       </c>
-      <c r="W222" s="4"/>
     </row>
     <row r="223">
       <c r="A223" s="4" t="s">
@@ -13674,10 +13674,10 @@
         <v>579.133</v>
       </c>
       <c r="U223" s="4"/>
-      <c r="V223" s="4" t="n">
+      <c r="V223" s="4"/>
+      <c r="W223" s="4" t="n">
         <v>17374</v>
       </c>
-      <c r="W223" s="4"/>
     </row>
     <row r="224">
       <c r="A224" s="4" t="s">
@@ -13733,10 +13733,10 @@
         <v>579.133</v>
       </c>
       <c r="U224" s="4"/>
-      <c r="V224" s="4" t="n">
+      <c r="V224" s="4"/>
+      <c r="W224" s="4" t="n">
         <v>17374</v>
       </c>
-      <c r="W224" s="4"/>
     </row>
     <row r="225">
       <c r="A225" s="4" t="s">
@@ -13792,10 +13792,10 @@
         <v>579.4</v>
       </c>
       <c r="U225" s="4"/>
-      <c r="V225" s="4" t="n">
+      <c r="V225" s="4"/>
+      <c r="W225" s="4" t="n">
         <v>17382</v>
       </c>
-      <c r="W225" s="4"/>
     </row>
     <row r="226">
       <c r="A226" s="4" t="s">
@@ -13851,10 +13851,10 @@
         <v>579.4</v>
       </c>
       <c r="U226" s="4"/>
-      <c r="V226" s="4" t="n">
+      <c r="V226" s="4"/>
+      <c r="W226" s="4" t="n">
         <v>17382</v>
       </c>
-      <c r="W226" s="4"/>
     </row>
     <row r="227">
       <c r="A227" s="4" t="s">
@@ -13910,10 +13910,10 @@
         <v>581.967</v>
       </c>
       <c r="U227" s="4"/>
-      <c r="V227" s="4" t="n">
+      <c r="V227" s="4"/>
+      <c r="W227" s="4" t="n">
         <v>17459</v>
       </c>
-      <c r="W227" s="4"/>
     </row>
     <row r="228">
       <c r="A228" s="4" t="s">
@@ -13969,10 +13969,10 @@
         <v>581.967</v>
       </c>
       <c r="U228" s="4"/>
-      <c r="V228" s="4" t="n">
+      <c r="V228" s="4"/>
+      <c r="W228" s="4" t="n">
         <v>17459</v>
       </c>
-      <c r="W228" s="4"/>
     </row>
     <row r="229">
       <c r="A229" s="4" t="s">
@@ -14028,10 +14028,10 @@
         <v>582.233</v>
       </c>
       <c r="U229" s="4"/>
-      <c r="V229" s="4" t="n">
+      <c r="V229" s="4"/>
+      <c r="W229" s="4" t="n">
         <v>17467</v>
       </c>
-      <c r="W229" s="4"/>
     </row>
     <row r="230">
       <c r="A230" s="4" t="s">
@@ -14087,10 +14087,10 @@
         <v>582.233</v>
       </c>
       <c r="U230" s="4"/>
-      <c r="V230" s="4" t="n">
+      <c r="V230" s="4"/>
+      <c r="W230" s="4" t="n">
         <v>17467</v>
       </c>
-      <c r="W230" s="4"/>
     </row>
     <row r="231">
       <c r="A231" s="3" t="s">
@@ -14145,10 +14145,10 @@
         <v>582.3</v>
       </c>
       <c r="T231" s="3"/>
-      <c r="U231" s="3" t="n">
+      <c r="U231" s="3"/>
+      <c r="V231" s="3" t="n">
         <v>17469</v>
       </c>
-      <c r="V231" s="3"/>
       <c r="W231" s="3"/>
     </row>
     <row r="232">
@@ -14204,10 +14204,10 @@
         <v>582.3</v>
       </c>
       <c r="T232" s="3"/>
-      <c r="U232" s="3" t="n">
+      <c r="U232" s="3"/>
+      <c r="V232" s="3" t="n">
         <v>17469</v>
       </c>
-      <c r="V232" s="3"/>
       <c r="W232" s="3"/>
     </row>
     <row r="233">
@@ -14264,10 +14264,10 @@
         <v>582.467</v>
       </c>
       <c r="U233" s="2"/>
-      <c r="V233" s="2" t="n">
+      <c r="V233" s="2"/>
+      <c r="W233" s="2" t="n">
         <v>17474</v>
       </c>
-      <c r="W233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="4" t="s">
@@ -14323,10 +14323,10 @@
         <v>582.8</v>
       </c>
       <c r="U234" s="4"/>
-      <c r="V234" s="4" t="n">
+      <c r="V234" s="4"/>
+      <c r="W234" s="4" t="n">
         <v>17484</v>
       </c>
-      <c r="W234" s="4"/>
     </row>
     <row r="235">
       <c r="A235" s="4" t="s">
@@ -14382,10 +14382,10 @@
         <v>582.8</v>
       </c>
       <c r="U235" s="4"/>
-      <c r="V235" s="4" t="n">
+      <c r="V235" s="4"/>
+      <c r="W235" s="4" t="n">
         <v>17484</v>
       </c>
-      <c r="W235" s="4"/>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
@@ -14441,10 +14441,10 @@
         <v>582.933</v>
       </c>
       <c r="U236" s="2"/>
-      <c r="V236" s="2" t="n">
+      <c r="V236" s="2"/>
+      <c r="W236" s="2" t="n">
         <v>17488</v>
       </c>
-      <c r="W236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
@@ -14500,10 +14500,10 @@
         <v>582.933</v>
       </c>
       <c r="U237" s="2"/>
-      <c r="V237" s="2" t="n">
+      <c r="V237" s="2"/>
+      <c r="W237" s="2" t="n">
         <v>17488</v>
       </c>
-      <c r="W237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="3" t="s">
@@ -14558,10 +14558,10 @@
         <v>583</v>
       </c>
       <c r="T238" s="3"/>
-      <c r="U238" s="3" t="n">
+      <c r="U238" s="3"/>
+      <c r="V238" s="3" t="n">
         <v>17490</v>
       </c>
-      <c r="V238" s="3"/>
       <c r="W238" s="3"/>
     </row>
     <row r="239">
@@ -14617,10 +14617,10 @@
         <v>583</v>
       </c>
       <c r="T239" s="3"/>
-      <c r="U239" s="3" t="n">
+      <c r="U239" s="3"/>
+      <c r="V239" s="3" t="n">
         <v>17490</v>
       </c>
-      <c r="V239" s="3"/>
       <c r="W239" s="3"/>
     </row>
     <row r="240">
@@ -14677,10 +14677,10 @@
         <v>583.167</v>
       </c>
       <c r="U240" s="4"/>
-      <c r="V240" s="4" t="n">
+      <c r="V240" s="4"/>
+      <c r="W240" s="4" t="n">
         <v>17495</v>
       </c>
-      <c r="W240" s="4"/>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
@@ -14736,10 +14736,10 @@
         <v>596.8</v>
       </c>
       <c r="U241" s="2"/>
-      <c r="V241" s="2" t="n">
+      <c r="V241" s="2"/>
+      <c r="W241" s="2" t="n">
         <v>17904</v>
       </c>
-      <c r="W241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
@@ -14795,10 +14795,10 @@
         <v>596.8</v>
       </c>
       <c r="U242" s="2"/>
-      <c r="V242" s="2" t="n">
+      <c r="V242" s="2"/>
+      <c r="W242" s="2" t="n">
         <v>17904</v>
       </c>
-      <c r="W242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
@@ -14854,10 +14854,10 @@
         <v>597.067</v>
       </c>
       <c r="U243" s="2"/>
-      <c r="V243" s="2" t="n">
+      <c r="V243" s="2"/>
+      <c r="W243" s="2" t="n">
         <v>17912</v>
       </c>
-      <c r="W243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" s="3" t="s">
@@ -14912,10 +14912,10 @@
         <v>597.633</v>
       </c>
       <c r="T244" s="3"/>
-      <c r="U244" s="3" t="n">
+      <c r="U244" s="3"/>
+      <c r="V244" s="3" t="n">
         <v>17929</v>
       </c>
-      <c r="V244" s="3"/>
       <c r="W244" s="3"/>
     </row>
     <row r="245">
@@ -14971,10 +14971,10 @@
         <v>597.633</v>
       </c>
       <c r="T245" s="3"/>
-      <c r="U245" s="3" t="n">
+      <c r="U245" s="3"/>
+      <c r="V245" s="3" t="n">
         <v>17929</v>
       </c>
-      <c r="V245" s="3"/>
       <c r="W245" s="3"/>
     </row>
     <row r="246">
@@ -15030,10 +15030,10 @@
         <v>598.1</v>
       </c>
       <c r="T246" s="3"/>
-      <c r="U246" s="3" t="n">
+      <c r="U246" s="3"/>
+      <c r="V246" s="3" t="n">
         <v>17943</v>
       </c>
-      <c r="V246" s="3"/>
       <c r="W246" s="3"/>
     </row>
     <row r="247">
@@ -15089,10 +15089,10 @@
         <v>598.1</v>
       </c>
       <c r="T247" s="3"/>
-      <c r="U247" s="3" t="n">
+      <c r="U247" s="3"/>
+      <c r="V247" s="3" t="n">
         <v>17943</v>
       </c>
-      <c r="V247" s="3"/>
       <c r="W247" s="3"/>
     </row>
     <row r="248">
@@ -15149,10 +15149,10 @@
         <v>599.033</v>
       </c>
       <c r="U248" s="4"/>
-      <c r="V248" s="4" t="n">
+      <c r="V248" s="4"/>
+      <c r="W248" s="4" t="n">
         <v>17971</v>
       </c>
-      <c r="W248" s="4"/>
     </row>
     <row r="249">
       <c r="A249" s="4" t="s">
@@ -15208,10 +15208,10 @@
         <v>599.867</v>
       </c>
       <c r="U249" s="4"/>
-      <c r="V249" s="4" t="n">
+      <c r="V249" s="4"/>
+      <c r="W249" s="4" t="n">
         <v>17996</v>
       </c>
-      <c r="W249" s="4"/>
     </row>
     <row r="250">
       <c r="A250" s="4" t="s">
@@ -15267,10 +15267,10 @@
         <v>599.867</v>
       </c>
       <c r="U250" s="4"/>
-      <c r="V250" s="4" t="n">
+      <c r="V250" s="4"/>
+      <c r="W250" s="4" t="n">
         <v>17996</v>
       </c>
-      <c r="W250" s="4"/>
     </row>
     <row r="251">
       <c r="A251" s="4" t="s">
@@ -15326,10 +15326,10 @@
         <v>602.733</v>
       </c>
       <c r="U251" s="4"/>
-      <c r="V251" s="4" t="n">
+      <c r="V251" s="4"/>
+      <c r="W251" s="4" t="n">
         <v>18082</v>
       </c>
-      <c r="W251" s="4"/>
     </row>
     <row r="252">
       <c r="A252" s="4" t="s">
@@ -15385,10 +15385,10 @@
         <v>602.733</v>
       </c>
       <c r="U252" s="4"/>
-      <c r="V252" s="4" t="n">
+      <c r="V252" s="4"/>
+      <c r="W252" s="4" t="n">
         <v>18082</v>
       </c>
-      <c r="W252" s="4"/>
     </row>
     <row r="253">
       <c r="A253" s="4" t="s">
@@ -15444,10 +15444,10 @@
         <v>603.233</v>
       </c>
       <c r="U253" s="4"/>
-      <c r="V253" s="4" t="n">
+      <c r="V253" s="4"/>
+      <c r="W253" s="4" t="n">
         <v>18097</v>
       </c>
-      <c r="W253" s="4"/>
     </row>
     <row r="254">
       <c r="A254" s="4" t="s">
@@ -15503,10 +15503,10 @@
         <v>603.233</v>
       </c>
       <c r="U254" s="4"/>
-      <c r="V254" s="4" t="n">
+      <c r="V254" s="4"/>
+      <c r="W254" s="4" t="n">
         <v>18097</v>
       </c>
-      <c r="W254" s="4"/>
     </row>
     <row r="255">
       <c r="A255" s="4" t="s">
@@ -15562,10 +15562,10 @@
         <v>605.467</v>
       </c>
       <c r="U255" s="4"/>
-      <c r="V255" s="4" t="n">
+      <c r="V255" s="4"/>
+      <c r="W255" s="4" t="n">
         <v>18164</v>
       </c>
-      <c r="W255" s="4"/>
     </row>
     <row r="256">
       <c r="A256" s="4" t="s">
@@ -15621,10 +15621,10 @@
         <v>605.467</v>
       </c>
       <c r="U256" s="4"/>
-      <c r="V256" s="4" t="n">
+      <c r="V256" s="4"/>
+      <c r="W256" s="4" t="n">
         <v>18164</v>
       </c>
-      <c r="W256" s="4"/>
     </row>
     <row r="257">
       <c r="A257" s="4" t="s">
@@ -15680,10 +15680,10 @@
         <v>606.567</v>
       </c>
       <c r="U257" s="4"/>
-      <c r="V257" s="4" t="n">
+      <c r="V257" s="4"/>
+      <c r="W257" s="4" t="n">
         <v>18197</v>
       </c>
-      <c r="W257" s="4"/>
     </row>
     <row r="258">
       <c r="A258" s="4" t="s">
@@ -15739,10 +15739,10 @@
         <v>606.567</v>
       </c>
       <c r="U258" s="4"/>
-      <c r="V258" s="4" t="n">
+      <c r="V258" s="4"/>
+      <c r="W258" s="4" t="n">
         <v>18197</v>
       </c>
-      <c r="W258" s="4"/>
     </row>
     <row r="259">
       <c r="A259" s="3" t="s">
@@ -15797,10 +15797,10 @@
         <v>644.367</v>
       </c>
       <c r="T259" s="3"/>
-      <c r="U259" s="3" t="n">
+      <c r="U259" s="3"/>
+      <c r="V259" s="3" t="n">
         <v>19331</v>
       </c>
-      <c r="V259" s="3"/>
       <c r="W259" s="3"/>
     </row>
     <row r="260">
@@ -15856,10 +15856,10 @@
         <v>644.367</v>
       </c>
       <c r="T260" s="3"/>
-      <c r="U260" s="3" t="n">
+      <c r="U260" s="3"/>
+      <c r="V260" s="3" t="n">
         <v>19331</v>
       </c>
-      <c r="V260" s="3"/>
       <c r="W260" s="3"/>
     </row>
     <row r="261">
@@ -15916,10 +15916,10 @@
         <v>644.9</v>
       </c>
       <c r="U261" s="4"/>
-      <c r="V261" s="4" t="n">
+      <c r="V261" s="4"/>
+      <c r="W261" s="4" t="n">
         <v>19347</v>
       </c>
-      <c r="W261" s="4"/>
     </row>
     <row r="262">
       <c r="A262" s="4" t="s">
@@ -15975,10 +15975,10 @@
         <v>644.9</v>
       </c>
       <c r="U262" s="4"/>
-      <c r="V262" s="4" t="n">
+      <c r="V262" s="4"/>
+      <c r="W262" s="4" t="n">
         <v>19347</v>
       </c>
-      <c r="W262" s="4"/>
     </row>
     <row r="263">
       <c r="A263" s="4" t="s">
@@ -16034,10 +16034,10 @@
         <v>645.233</v>
       </c>
       <c r="U263" s="4"/>
-      <c r="V263" s="4" t="n">
+      <c r="V263" s="4"/>
+      <c r="W263" s="4" t="n">
         <v>19357</v>
       </c>
-      <c r="W263" s="4"/>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
@@ -16093,10 +16093,10 @@
         <v>645.967</v>
       </c>
       <c r="U264" s="2"/>
-      <c r="V264" s="2" t="n">
+      <c r="V264" s="2"/>
+      <c r="W264" s="2" t="n">
         <v>19379</v>
       </c>
-      <c r="W264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" s="3" t="s">
@@ -16151,10 +16151,10 @@
         <v>646.533</v>
       </c>
       <c r="T265" s="3"/>
-      <c r="U265" s="3" t="n">
+      <c r="U265" s="3"/>
+      <c r="V265" s="3" t="n">
         <v>19396</v>
       </c>
-      <c r="V265" s="3"/>
       <c r="W265" s="3"/>
     </row>
     <row r="266">
@@ -16210,10 +16210,10 @@
         <v>646.533</v>
       </c>
       <c r="T266" s="3"/>
-      <c r="U266" s="3" t="n">
+      <c r="U266" s="3"/>
+      <c r="V266" s="3" t="n">
         <v>19396</v>
       </c>
-      <c r="V266" s="3"/>
       <c r="W266" s="3"/>
     </row>
     <row r="267">
@@ -16270,10 +16270,10 @@
         <v>646.733</v>
       </c>
       <c r="U267" s="2"/>
-      <c r="V267" s="2" t="n">
+      <c r="V267" s="2"/>
+      <c r="W267" s="2" t="n">
         <v>19402</v>
       </c>
-      <c r="W267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
@@ -16329,10 +16329,10 @@
         <v>646.733</v>
       </c>
       <c r="U268" s="2"/>
-      <c r="V268" s="2" t="n">
+      <c r="V268" s="2"/>
+      <c r="W268" s="2" t="n">
         <v>19402</v>
       </c>
-      <c r="W268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
@@ -16388,10 +16388,10 @@
         <v>661.733</v>
       </c>
       <c r="U269" s="2"/>
-      <c r="V269" s="2" t="n">
+      <c r="V269" s="2"/>
+      <c r="W269" s="2" t="n">
         <v>19852</v>
       </c>
-      <c r="W269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
@@ -16447,10 +16447,10 @@
         <v>667.067</v>
       </c>
       <c r="U270" s="2"/>
-      <c r="V270" s="2" t="n">
+      <c r="V270" s="2"/>
+      <c r="W270" s="2" t="n">
         <v>20012</v>
       </c>
-      <c r="W270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
@@ -16506,10 +16506,10 @@
         <v>667.067</v>
       </c>
       <c r="U271" s="2"/>
-      <c r="V271" s="2" t="n">
+      <c r="V271" s="2"/>
+      <c r="W271" s="2" t="n">
         <v>20012</v>
       </c>
-      <c r="W271" s="2"/>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
@@ -16565,10 +16565,10 @@
         <v>667.367</v>
       </c>
       <c r="U272" s="2"/>
-      <c r="V272" s="2" t="n">
+      <c r="V272" s="2"/>
+      <c r="W272" s="2" t="n">
         <v>20021</v>
       </c>
-      <c r="W272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" s="3" t="s">
@@ -16623,10 +16623,10 @@
         <v>668.167</v>
       </c>
       <c r="T273" s="3"/>
-      <c r="U273" s="3" t="n">
+      <c r="U273" s="3"/>
+      <c r="V273" s="3" t="n">
         <v>20045</v>
       </c>
-      <c r="V273" s="3"/>
       <c r="W273" s="3"/>
     </row>
     <row r="274">
@@ -16682,10 +16682,10 @@
         <v>668.167</v>
       </c>
       <c r="T274" s="3"/>
-      <c r="U274" s="3" t="n">
+      <c r="U274" s="3"/>
+      <c r="V274" s="3" t="n">
         <v>20045</v>
       </c>
-      <c r="V274" s="3"/>
       <c r="W274" s="3"/>
     </row>
     <row r="275">
@@ -16741,10 +16741,10 @@
         <v>668.9</v>
       </c>
       <c r="T275" s="3"/>
-      <c r="U275" s="3" t="n">
+      <c r="U275" s="3"/>
+      <c r="V275" s="3" t="n">
         <v>20067</v>
       </c>
-      <c r="V275" s="3"/>
       <c r="W275" s="3"/>
     </row>
     <row r="276">
@@ -16800,10 +16800,10 @@
         <v>668.9</v>
       </c>
       <c r="T276" s="3"/>
-      <c r="U276" s="3" t="n">
+      <c r="U276" s="3"/>
+      <c r="V276" s="3" t="n">
         <v>20067</v>
       </c>
-      <c r="V276" s="3"/>
       <c r="W276" s="3"/>
     </row>
     <row r="277">
@@ -16860,10 +16860,10 @@
         <v>669.8</v>
       </c>
       <c r="U277" s="4"/>
-      <c r="V277" s="4" t="n">
+      <c r="V277" s="4"/>
+      <c r="W277" s="4" t="n">
         <v>20094</v>
       </c>
-      <c r="W277" s="4"/>
     </row>
     <row r="278">
       <c r="A278" s="4" t="s">
@@ -16919,10 +16919,10 @@
         <v>671.6</v>
       </c>
       <c r="U278" s="4"/>
-      <c r="V278" s="4" t="n">
+      <c r="V278" s="4"/>
+      <c r="W278" s="4" t="n">
         <v>20148</v>
       </c>
-      <c r="W278" s="4"/>
     </row>
     <row r="279">
       <c r="A279" s="4" t="s">
@@ -16978,10 +16978,10 @@
         <v>671.6</v>
       </c>
       <c r="U279" s="4"/>
-      <c r="V279" s="4" t="n">
+      <c r="V279" s="4"/>
+      <c r="W279" s="4" t="n">
         <v>20148</v>
       </c>
-      <c r="W279" s="4"/>
     </row>
     <row r="280">
       <c r="A280" s="3" t="s">
@@ -17036,10 +17036,10 @@
         <v>687.033</v>
       </c>
       <c r="T280" s="3"/>
-      <c r="U280" s="3" t="n">
+      <c r="U280" s="3"/>
+      <c r="V280" s="3" t="n">
         <v>20611</v>
       </c>
-      <c r="V280" s="3"/>
       <c r="W280" s="3"/>
     </row>
     <row r="281">
@@ -17095,10 +17095,10 @@
         <v>687.033</v>
       </c>
       <c r="T281" s="3"/>
-      <c r="U281" s="3" t="n">
+      <c r="U281" s="3"/>
+      <c r="V281" s="3" t="n">
         <v>20611</v>
       </c>
-      <c r="V281" s="3"/>
       <c r="W281" s="3"/>
     </row>
     <row r="282">
@@ -17155,10 +17155,10 @@
         <v>687.3</v>
       </c>
       <c r="U282" s="2"/>
-      <c r="V282" s="2" t="n">
+      <c r="V282" s="2"/>
+      <c r="W282" s="2" t="n">
         <v>20619</v>
       </c>
-      <c r="W282" s="2"/>
     </row>
     <row r="283">
       <c r="A283" s="4" t="s">
@@ -17214,10 +17214,10 @@
         <v>687.5</v>
       </c>
       <c r="U283" s="4"/>
-      <c r="V283" s="4" t="n">
+      <c r="V283" s="4"/>
+      <c r="W283" s="4" t="n">
         <v>20625</v>
       </c>
-      <c r="W283" s="4"/>
     </row>
     <row r="284">
       <c r="A284" s="4" t="s">
@@ -17273,10 +17273,10 @@
         <v>687.5</v>
       </c>
       <c r="U284" s="4"/>
-      <c r="V284" s="4" t="n">
+      <c r="V284" s="4"/>
+      <c r="W284" s="4" t="n">
         <v>20625</v>
       </c>
-      <c r="W284" s="4"/>
     </row>
     <row r="285">
       <c r="A285" s="4" t="s">
@@ -17332,10 +17332,10 @@
         <v>687.9</v>
       </c>
       <c r="U285" s="4"/>
-      <c r="V285" s="4" t="n">
+      <c r="V285" s="4"/>
+      <c r="W285" s="4" t="n">
         <v>20637</v>
       </c>
-      <c r="W285" s="4"/>
     </row>
     <row r="286">
       <c r="A286" s="3" t="s">
@@ -17390,10 +17390,10 @@
         <v>687.967</v>
       </c>
       <c r="T286" s="3"/>
-      <c r="U286" s="3" t="n">
+      <c r="U286" s="3"/>
+      <c r="V286" s="3" t="n">
         <v>20639</v>
       </c>
-      <c r="V286" s="3"/>
       <c r="W286" s="3"/>
     </row>
     <row r="287">
@@ -17449,10 +17449,10 @@
         <v>687.967</v>
       </c>
       <c r="T287" s="3"/>
-      <c r="U287" s="3" t="n">
+      <c r="U287" s="3"/>
+      <c r="V287" s="3" t="n">
         <v>20639</v>
       </c>
-      <c r="V287" s="3"/>
       <c r="W287" s="3"/>
     </row>
     <row r="288">
@@ -17509,10 +17509,10 @@
         <v>690.5</v>
       </c>
       <c r="U288" s="2"/>
-      <c r="V288" s="2" t="n">
+      <c r="V288" s="2"/>
+      <c r="W288" s="2" t="n">
         <v>20715</v>
       </c>
-      <c r="W288" s="2"/>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
@@ -17568,10 +17568,10 @@
         <v>690.5</v>
       </c>
       <c r="U289" s="2"/>
-      <c r="V289" s="2" t="n">
+      <c r="V289" s="2"/>
+      <c r="W289" s="2" t="n">
         <v>20715</v>
       </c>
-      <c r="W289" s="2"/>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
@@ -17627,10 +17627,10 @@
         <v>703.8</v>
       </c>
       <c r="U290" s="2"/>
-      <c r="V290" s="2" t="n">
+      <c r="V290" s="2"/>
+      <c r="W290" s="2" t="n">
         <v>21114</v>
       </c>
-      <c r="W290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
@@ -17686,10 +17686,10 @@
         <v>703.8</v>
       </c>
       <c r="U291" s="2"/>
-      <c r="V291" s="2" t="n">
+      <c r="V291" s="2"/>
+      <c r="W291" s="2" t="n">
         <v>21114</v>
       </c>
-      <c r="W291" s="2"/>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
@@ -17745,10 +17745,10 @@
         <v>704.2</v>
       </c>
       <c r="U292" s="2"/>
-      <c r="V292" s="2" t="n">
+      <c r="V292" s="2"/>
+      <c r="W292" s="2" t="n">
         <v>21126</v>
       </c>
-      <c r="W292" s="2"/>
     </row>
     <row r="293">
       <c r="A293" s="3" t="s">
@@ -17803,10 +17803,10 @@
         <v>704.967</v>
       </c>
       <c r="T293" s="3"/>
-      <c r="U293" s="3" t="n">
+      <c r="U293" s="3"/>
+      <c r="V293" s="3" t="n">
         <v>21149</v>
       </c>
-      <c r="V293" s="3"/>
       <c r="W293" s="3"/>
     </row>
     <row r="294">
@@ -17862,10 +17862,10 @@
         <v>704.967</v>
       </c>
       <c r="T294" s="3"/>
-      <c r="U294" s="3" t="n">
+      <c r="U294" s="3"/>
+      <c r="V294" s="3" t="n">
         <v>21149</v>
       </c>
-      <c r="V294" s="3"/>
       <c r="W294" s="3"/>
     </row>
     <row r="295">
@@ -17921,10 +17921,10 @@
         <v>705.6</v>
       </c>
       <c r="T295" s="3"/>
-      <c r="U295" s="3" t="n">
+      <c r="U295" s="3"/>
+      <c r="V295" s="3" t="n">
         <v>21168</v>
       </c>
-      <c r="V295" s="3"/>
       <c r="W295" s="3"/>
     </row>
     <row r="296">
@@ -17980,10 +17980,10 @@
         <v>705.6</v>
       </c>
       <c r="T296" s="3"/>
-      <c r="U296" s="3" t="n">
+      <c r="U296" s="3"/>
+      <c r="V296" s="3" t="n">
         <v>21168</v>
       </c>
-      <c r="V296" s="3"/>
       <c r="W296" s="3"/>
     </row>
     <row r="297">
@@ -18040,10 +18040,10 @@
         <v>706.5</v>
       </c>
       <c r="U297" s="4"/>
-      <c r="V297" s="4" t="n">
+      <c r="V297" s="4"/>
+      <c r="W297" s="4" t="n">
         <v>21195</v>
       </c>
-      <c r="W297" s="4"/>
     </row>
     <row r="298">
       <c r="A298" s="4" t="s">
@@ -18099,10 +18099,10 @@
         <v>709.167</v>
       </c>
       <c r="U298" s="4"/>
-      <c r="V298" s="4" t="n">
+      <c r="V298" s="4"/>
+      <c r="W298" s="4" t="n">
         <v>21275</v>
       </c>
-      <c r="W298" s="4"/>
     </row>
     <row r="299">
       <c r="A299" s="4" t="s">
@@ -18158,10 +18158,10 @@
         <v>709.167</v>
       </c>
       <c r="U299" s="4"/>
-      <c r="V299" s="4" t="n">
+      <c r="V299" s="4"/>
+      <c r="W299" s="4" t="n">
         <v>21275</v>
       </c>
-      <c r="W299" s="4"/>
     </row>
     <row r="300">
       <c r="A300" s="3" t="s">
@@ -18216,10 +18216,10 @@
         <v>715.567</v>
       </c>
       <c r="T300" s="3"/>
-      <c r="U300" s="3" t="n">
+      <c r="U300" s="3"/>
+      <c r="V300" s="3" t="n">
         <v>21467</v>
       </c>
-      <c r="V300" s="3"/>
       <c r="W300" s="3"/>
     </row>
     <row r="301">
@@ -18275,10 +18275,10 @@
         <v>715.567</v>
       </c>
       <c r="T301" s="3"/>
-      <c r="U301" s="3" t="n">
+      <c r="U301" s="3"/>
+      <c r="V301" s="3" t="n">
         <v>21467</v>
       </c>
-      <c r="V301" s="3"/>
       <c r="W301" s="3"/>
     </row>
     <row r="302">
@@ -18335,10 +18335,10 @@
         <v>716.033</v>
       </c>
       <c r="U302" s="4"/>
-      <c r="V302" s="4" t="n">
+      <c r="V302" s="4"/>
+      <c r="W302" s="4" t="n">
         <v>21481</v>
       </c>
-      <c r="W302" s="4"/>
     </row>
     <row r="303">
       <c r="A303" s="4" t="s">
@@ -18394,10 +18394,10 @@
         <v>716.033</v>
       </c>
       <c r="U303" s="4"/>
-      <c r="V303" s="4" t="n">
+      <c r="V303" s="4"/>
+      <c r="W303" s="4" t="n">
         <v>21481</v>
       </c>
-      <c r="W303" s="4"/>
     </row>
     <row r="304">
       <c r="A304" s="4" t="s">
@@ -18453,10 +18453,10 @@
         <v>716.4</v>
       </c>
       <c r="U304" s="4"/>
-      <c r="V304" s="4" t="n">
+      <c r="V304" s="4"/>
+      <c r="W304" s="4" t="n">
         <v>21492</v>
       </c>
-      <c r="W304" s="4"/>
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
@@ -18512,10 +18512,10 @@
         <v>719.367</v>
       </c>
       <c r="U305" s="2"/>
-      <c r="V305" s="2" t="n">
+      <c r="V305" s="2"/>
+      <c r="W305" s="2" t="n">
         <v>21581</v>
       </c>
-      <c r="W305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
@@ -18571,10 +18571,10 @@
         <v>719.767</v>
       </c>
       <c r="U306" s="2"/>
-      <c r="V306" s="2" t="n">
+      <c r="V306" s="2"/>
+      <c r="W306" s="2" t="n">
         <v>21593</v>
       </c>
-      <c r="W306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
@@ -18630,10 +18630,10 @@
         <v>719.767</v>
       </c>
       <c r="U307" s="2"/>
-      <c r="V307" s="2" t="n">
+      <c r="V307" s="2"/>
+      <c r="W307" s="2" t="n">
         <v>21593</v>
       </c>
-      <c r="W307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="3" t="s">
@@ -18688,10 +18688,10 @@
         <v>720.067</v>
       </c>
       <c r="T308" s="3"/>
-      <c r="U308" s="3" t="n">
+      <c r="U308" s="3"/>
+      <c r="V308" s="3" t="n">
         <v>21602</v>
       </c>
-      <c r="V308" s="3"/>
       <c r="W308" s="3"/>
     </row>
     <row r="309">
@@ -18747,10 +18747,10 @@
         <v>720.067</v>
       </c>
       <c r="T309" s="3"/>
-      <c r="U309" s="3" t="n">
+      <c r="U309" s="3"/>
+      <c r="V309" s="3" t="n">
         <v>21602</v>
       </c>
-      <c r="V309" s="3"/>
       <c r="W309" s="3"/>
     </row>
     <row r="310">
@@ -18807,10 +18807,10 @@
         <v>727.067</v>
       </c>
       <c r="U310" s="2"/>
-      <c r="V310" s="2" t="n">
+      <c r="V310" s="2"/>
+      <c r="W310" s="2" t="n">
         <v>21812</v>
       </c>
-      <c r="W310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
@@ -18866,10 +18866,10 @@
         <v>727.067</v>
       </c>
       <c r="U311" s="2"/>
-      <c r="V311" s="2" t="n">
+      <c r="V311" s="2"/>
+      <c r="W311" s="2" t="n">
         <v>21812</v>
       </c>
-      <c r="W311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
@@ -18925,10 +18925,10 @@
         <v>727.633</v>
       </c>
       <c r="U312" s="2"/>
-      <c r="V312" s="2" t="n">
+      <c r="V312" s="2"/>
+      <c r="W312" s="2" t="n">
         <v>21829</v>
       </c>
-      <c r="W312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="3" t="s">
@@ -18983,10 +18983,10 @@
         <v>728.367</v>
       </c>
       <c r="T313" s="3"/>
-      <c r="U313" s="3" t="n">
+      <c r="U313" s="3"/>
+      <c r="V313" s="3" t="n">
         <v>21851</v>
       </c>
-      <c r="V313" s="3"/>
       <c r="W313" s="3"/>
     </row>
     <row r="314">
@@ -19042,10 +19042,10 @@
         <v>728.367</v>
       </c>
       <c r="T314" s="3"/>
-      <c r="U314" s="3" t="n">
+      <c r="U314" s="3"/>
+      <c r="V314" s="3" t="n">
         <v>21851</v>
       </c>
-      <c r="V314" s="3"/>
       <c r="W314" s="3"/>
     </row>
     <row r="315">
@@ -19101,10 +19101,10 @@
         <v>728.967</v>
       </c>
       <c r="T315" s="3"/>
-      <c r="U315" s="3" t="n">
+      <c r="U315" s="3"/>
+      <c r="V315" s="3" t="n">
         <v>21869</v>
       </c>
-      <c r="V315" s="3"/>
       <c r="W315" s="3"/>
     </row>
     <row r="316">
@@ -19160,10 +19160,10 @@
         <v>728.967</v>
       </c>
       <c r="T316" s="3"/>
-      <c r="U316" s="3" t="n">
+      <c r="U316" s="3"/>
+      <c r="V316" s="3" t="n">
         <v>21869</v>
       </c>
-      <c r="V316" s="3"/>
       <c r="W316" s="3"/>
     </row>
     <row r="317">
@@ -19220,10 +19220,10 @@
         <v>729.9</v>
       </c>
       <c r="U317" s="4"/>
-      <c r="V317" s="4" t="n">
+      <c r="V317" s="4"/>
+      <c r="W317" s="4" t="n">
         <v>21897</v>
       </c>
-      <c r="W317" s="4"/>
     </row>
     <row r="318">
       <c r="A318" s="4" t="s">
@@ -19279,10 +19279,10 @@
         <v>734.567</v>
       </c>
       <c r="U318" s="4"/>
-      <c r="V318" s="4" t="n">
+      <c r="V318" s="4"/>
+      <c r="W318" s="4" t="n">
         <v>22037</v>
       </c>
-      <c r="W318" s="4"/>
     </row>
     <row r="319">
       <c r="A319" s="4" t="s">
@@ -19338,10 +19338,10 @@
         <v>734.567</v>
       </c>
       <c r="U319" s="4"/>
-      <c r="V319" s="4" t="n">
+      <c r="V319" s="4"/>
+      <c r="W319" s="4" t="n">
         <v>22037</v>
       </c>
-      <c r="W319" s="4"/>
     </row>
     <row r="320">
       <c r="A320" s="3" t="s">
@@ -19396,10 +19396,10 @@
         <v>751.733</v>
       </c>
       <c r="T320" s="3"/>
-      <c r="U320" s="3" t="n">
+      <c r="U320" s="3"/>
+      <c r="V320" s="3" t="n">
         <v>22552</v>
       </c>
-      <c r="V320" s="3"/>
       <c r="W320" s="3"/>
     </row>
     <row r="321">
@@ -19455,10 +19455,10 @@
         <v>751.733</v>
       </c>
       <c r="T321" s="3"/>
-      <c r="U321" s="3" t="n">
+      <c r="U321" s="3"/>
+      <c r="V321" s="3" t="n">
         <v>22552</v>
       </c>
-      <c r="V321" s="3"/>
       <c r="W321" s="3"/>
     </row>
     <row r="322">
@@ -19515,10 +19515,10 @@
         <v>751.767</v>
       </c>
       <c r="U322" s="2"/>
-      <c r="V322" s="2" t="n">
+      <c r="V322" s="2"/>
+      <c r="W322" s="2" t="n">
         <v>22553</v>
       </c>
-      <c r="W322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" s="4" t="s">
@@ -19574,10 +19574,10 @@
         <v>752</v>
       </c>
       <c r="U323" s="4"/>
-      <c r="V323" s="4" t="n">
+      <c r="V323" s="4"/>
+      <c r="W323" s="4" t="n">
         <v>22560</v>
       </c>
-      <c r="W323" s="4"/>
     </row>
     <row r="324">
       <c r="A324" s="4" t="s">
@@ -19633,10 +19633,10 @@
         <v>752</v>
       </c>
       <c r="U324" s="4"/>
-      <c r="V324" s="4" t="n">
+      <c r="V324" s="4"/>
+      <c r="W324" s="4" t="n">
         <v>22560</v>
       </c>
-      <c r="W324" s="4"/>
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
@@ -19692,10 +19692,10 @@
         <v>752.233</v>
       </c>
       <c r="U325" s="2"/>
-      <c r="V325" s="2" t="n">
+      <c r="V325" s="2"/>
+      <c r="W325" s="2" t="n">
         <v>22567</v>
       </c>
-      <c r="W325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
@@ -19751,10 +19751,10 @@
         <v>752.233</v>
       </c>
       <c r="U326" s="2"/>
-      <c r="V326" s="2" t="n">
+      <c r="V326" s="2"/>
+      <c r="W326" s="2" t="n">
         <v>22567</v>
       </c>
-      <c r="W326" s="2"/>
     </row>
     <row r="327">
       <c r="A327" s="3" t="s">
@@ -19809,10 +19809,10 @@
         <v>752.467</v>
       </c>
       <c r="T327" s="3"/>
-      <c r="U327" s="3" t="n">
+      <c r="U327" s="3"/>
+      <c r="V327" s="3" t="n">
         <v>22574</v>
       </c>
-      <c r="V327" s="3"/>
       <c r="W327" s="3"/>
     </row>
     <row r="328">
@@ -19868,10 +19868,10 @@
         <v>752.467</v>
       </c>
       <c r="T328" s="3"/>
-      <c r="U328" s="3" t="n">
+      <c r="U328" s="3"/>
+      <c r="V328" s="3" t="n">
         <v>22574</v>
       </c>
-      <c r="V328" s="3"/>
       <c r="W328" s="3"/>
     </row>
     <row r="329">
@@ -19928,10 +19928,10 @@
         <v>752.533</v>
       </c>
       <c r="U329" s="4"/>
-      <c r="V329" s="4" t="n">
+      <c r="V329" s="4"/>
+      <c r="W329" s="4" t="n">
         <v>22576</v>
       </c>
-      <c r="W329" s="4"/>
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
@@ -19987,10 +19987,10 @@
         <v>787.6</v>
       </c>
       <c r="U330" s="2"/>
-      <c r="V330" s="2" t="n">
+      <c r="V330" s="2"/>
+      <c r="W330" s="2" t="n">
         <v>23628</v>
       </c>
-      <c r="W330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" s="2" t="s">
@@ -20046,10 +20046,10 @@
         <v>787.6</v>
       </c>
       <c r="U331" s="2"/>
-      <c r="V331" s="2" t="n">
+      <c r="V331" s="2"/>
+      <c r="W331" s="2" t="n">
         <v>23628</v>
       </c>
-      <c r="W331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" s="2" t="s">
@@ -20105,10 +20105,10 @@
         <v>788</v>
       </c>
       <c r="U332" s="2"/>
-      <c r="V332" s="2" t="n">
+      <c r="V332" s="2"/>
+      <c r="W332" s="2" t="n">
         <v>23640</v>
       </c>
-      <c r="W332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" s="3" t="s">
@@ -20163,10 +20163,10 @@
         <v>788.8</v>
       </c>
       <c r="T333" s="3"/>
-      <c r="U333" s="3" t="n">
+      <c r="U333" s="3"/>
+      <c r="V333" s="3" t="n">
         <v>23664</v>
       </c>
-      <c r="V333" s="3"/>
       <c r="W333" s="3"/>
     </row>
     <row r="334">
@@ -20222,10 +20222,10 @@
         <v>788.8</v>
       </c>
       <c r="T334" s="3"/>
-      <c r="U334" s="3" t="n">
+      <c r="U334" s="3"/>
+      <c r="V334" s="3" t="n">
         <v>23664</v>
       </c>
-      <c r="V334" s="3"/>
       <c r="W334" s="3"/>
     </row>
     <row r="335">
@@ -20281,10 +20281,10 @@
         <v>789.367</v>
       </c>
       <c r="T335" s="3"/>
-      <c r="U335" s="3" t="n">
+      <c r="U335" s="3"/>
+      <c r="V335" s="3" t="n">
         <v>23681</v>
       </c>
-      <c r="V335" s="3"/>
       <c r="W335" s="3"/>
     </row>
     <row r="336">
@@ -20340,10 +20340,10 @@
         <v>789.367</v>
       </c>
       <c r="T336" s="3"/>
-      <c r="U336" s="3" t="n">
+      <c r="U336" s="3"/>
+      <c r="V336" s="3" t="n">
         <v>23681</v>
       </c>
-      <c r="V336" s="3"/>
       <c r="W336" s="3"/>
     </row>
     <row r="337">
@@ -20400,10 +20400,10 @@
         <v>790.267</v>
       </c>
       <c r="U337" s="4"/>
-      <c r="V337" s="4" t="n">
+      <c r="V337" s="4"/>
+      <c r="W337" s="4" t="n">
         <v>23708</v>
       </c>
-      <c r="W337" s="4"/>
     </row>
     <row r="338">
       <c r="A338" s="4" t="s">
@@ -20459,10 +20459,10 @@
         <v>790.8</v>
       </c>
       <c r="U338" s="4"/>
-      <c r="V338" s="4" t="n">
+      <c r="V338" s="4"/>
+      <c r="W338" s="4" t="n">
         <v>23724</v>
       </c>
-      <c r="W338" s="4"/>
     </row>
     <row r="339">
       <c r="A339" s="4" t="s">
@@ -20518,10 +20518,10 @@
         <v>790.8</v>
       </c>
       <c r="U339" s="4"/>
-      <c r="V339" s="4" t="n">
+      <c r="V339" s="4"/>
+      <c r="W339" s="4" t="n">
         <v>23724</v>
       </c>
-      <c r="W339" s="4"/>
     </row>
     <row r="340">
       <c r="A340" s="4" t="s">
@@ -20577,10 +20577,10 @@
         <v>795.7</v>
       </c>
       <c r="U340" s="4"/>
-      <c r="V340" s="4" t="n">
+      <c r="V340" s="4"/>
+      <c r="W340" s="4" t="n">
         <v>23871</v>
       </c>
-      <c r="W340" s="4"/>
     </row>
     <row r="341">
       <c r="A341" s="4" t="s">
@@ -20636,10 +20636,10 @@
         <v>795.7</v>
       </c>
       <c r="U341" s="4"/>
-      <c r="V341" s="4" t="n">
+      <c r="V341" s="4"/>
+      <c r="W341" s="4" t="n">
         <v>23871</v>
       </c>
-      <c r="W341" s="4"/>
     </row>
     <row r="342">
       <c r="A342" s="4" t="s">
@@ -20695,10 +20695,10 @@
         <v>797.867</v>
       </c>
       <c r="U342" s="4"/>
-      <c r="V342" s="4" t="n">
+      <c r="V342" s="4"/>
+      <c r="W342" s="4" t="n">
         <v>23936</v>
       </c>
-      <c r="W342" s="4"/>
     </row>
     <row r="343">
       <c r="A343" s="4" t="s">
@@ -20754,10 +20754,10 @@
         <v>797.867</v>
       </c>
       <c r="U343" s="4"/>
-      <c r="V343" s="4" t="n">
+      <c r="V343" s="4"/>
+      <c r="W343" s="4" t="n">
         <v>23936</v>
       </c>
-      <c r="W343" s="4"/>
     </row>
     <row r="344">
       <c r="A344" s="4" t="s">
@@ -20813,10 +20813,10 @@
         <v>812.467</v>
       </c>
       <c r="U344" s="4"/>
-      <c r="V344" s="4" t="n">
+      <c r="V344" s="4"/>
+      <c r="W344" s="4" t="n">
         <v>24374</v>
       </c>
-      <c r="W344" s="4"/>
     </row>
     <row r="345">
       <c r="A345" s="4" t="s">
@@ -20872,10 +20872,10 @@
         <v>812.467</v>
       </c>
       <c r="U345" s="4"/>
-      <c r="V345" s="4" t="n">
+      <c r="V345" s="4"/>
+      <c r="W345" s="4" t="n">
         <v>24374</v>
       </c>
-      <c r="W345" s="4"/>
     </row>
     <row r="346">
       <c r="A346" s="4" t="s">
@@ -20931,10 +20931,10 @@
         <v>813.867</v>
       </c>
       <c r="U346" s="4"/>
-      <c r="V346" s="4" t="n">
+      <c r="V346" s="4"/>
+      <c r="W346" s="4" t="n">
         <v>24416</v>
       </c>
-      <c r="W346" s="4"/>
     </row>
     <row r="347">
       <c r="A347" s="4" t="s">
@@ -20990,10 +20990,10 @@
         <v>813.867</v>
       </c>
       <c r="U347" s="4"/>
-      <c r="V347" s="4" t="n">
+      <c r="V347" s="4"/>
+      <c r="W347" s="4" t="n">
         <v>24416</v>
       </c>
-      <c r="W347" s="4"/>
     </row>
     <row r="348">
       <c r="A348" s="4" t="s">
@@ -21049,10 +21049,10 @@
         <v>820.833</v>
       </c>
       <c r="U348" s="4"/>
-      <c r="V348" s="4" t="n">
+      <c r="V348" s="4"/>
+      <c r="W348" s="4" t="n">
         <v>24625</v>
       </c>
-      <c r="W348" s="4"/>
     </row>
     <row r="349">
       <c r="A349" s="4" t="s">
@@ -21108,10 +21108,10 @@
         <v>823.633</v>
       </c>
       <c r="U349" s="4"/>
-      <c r="V349" s="4" t="n">
+      <c r="V349" s="4"/>
+      <c r="W349" s="4" t="n">
         <v>24709</v>
       </c>
-      <c r="W349" s="4"/>
     </row>
     <row r="350">
       <c r="A350" s="3" t="s">
@@ -21166,10 +21166,10 @@
         <v>854.333</v>
       </c>
       <c r="T350" s="3"/>
-      <c r="U350" s="3" t="n">
+      <c r="U350" s="3"/>
+      <c r="V350" s="3" t="n">
         <v>25630</v>
       </c>
-      <c r="V350" s="3"/>
       <c r="W350" s="3"/>
     </row>
     <row r="351">
@@ -21225,10 +21225,10 @@
         <v>854.333</v>
       </c>
       <c r="T351" s="3"/>
-      <c r="U351" s="3" t="n">
+      <c r="U351" s="3"/>
+      <c r="V351" s="3" t="n">
         <v>25630</v>
       </c>
-      <c r="V351" s="3"/>
       <c r="W351" s="3"/>
     </row>
     <row r="352">
@@ -21285,10 +21285,10 @@
         <v>854.667</v>
       </c>
       <c r="U352" s="2"/>
-      <c r="V352" s="2" t="n">
+      <c r="V352" s="2"/>
+      <c r="W352" s="2" t="n">
         <v>25640</v>
       </c>
-      <c r="W352" s="2"/>
     </row>
     <row r="353">
       <c r="A353" s="4" t="s">
@@ -21344,10 +21344,10 @@
         <v>855.067</v>
       </c>
       <c r="U353" s="4"/>
-      <c r="V353" s="4" t="n">
+      <c r="V353" s="4"/>
+      <c r="W353" s="4" t="n">
         <v>25652</v>
       </c>
-      <c r="W353" s="4"/>
     </row>
     <row r="354">
       <c r="A354" s="4" t="s">
@@ -21403,10 +21403,10 @@
         <v>855.067</v>
       </c>
       <c r="U354" s="4"/>
-      <c r="V354" s="4" t="n">
+      <c r="V354" s="4"/>
+      <c r="W354" s="4" t="n">
         <v>25652</v>
       </c>
-      <c r="W354" s="4"/>
     </row>
     <row r="355">
       <c r="A355" s="3" t="s">
@@ -21461,10 +21461,10 @@
         <v>855.333</v>
       </c>
       <c r="T355" s="3"/>
-      <c r="U355" s="3" t="n">
+      <c r="U355" s="3"/>
+      <c r="V355" s="3" t="n">
         <v>25660</v>
       </c>
-      <c r="V355" s="3"/>
       <c r="W355" s="3"/>
     </row>
     <row r="356">
@@ -21520,10 +21520,10 @@
         <v>855.333</v>
       </c>
       <c r="T356" s="3"/>
-      <c r="U356" s="3" t="n">
+      <c r="U356" s="3"/>
+      <c r="V356" s="3" t="n">
         <v>25660</v>
       </c>
-      <c r="V356" s="3"/>
       <c r="W356" s="3"/>
     </row>
     <row r="357">
@@ -21580,10 +21580,10 @@
         <v>855.367</v>
       </c>
       <c r="U357" s="4"/>
-      <c r="V357" s="4" t="n">
+      <c r="V357" s="4"/>
+      <c r="W357" s="4" t="n">
         <v>25661</v>
       </c>
-      <c r="W357" s="4"/>
     </row>
     <row r="358">
       <c r="A358" s="2" t="s">
@@ -21639,10 +21639,10 @@
         <v>855.4</v>
       </c>
       <c r="U358" s="2"/>
-      <c r="V358" s="2" t="n">
+      <c r="V358" s="2"/>
+      <c r="W358" s="2" t="n">
         <v>25662</v>
       </c>
-      <c r="W358" s="2"/>
     </row>
     <row r="359">
       <c r="A359" s="2" t="s">
@@ -21698,10 +21698,10 @@
         <v>855.4</v>
       </c>
       <c r="U359" s="2"/>
-      <c r="V359" s="2" t="n">
+      <c r="V359" s="2"/>
+      <c r="W359" s="2" t="n">
         <v>25662</v>
       </c>
-      <c r="W359" s="2"/>
     </row>
     <row r="360">
       <c r="A360" s="2" t="s">
@@ -21757,10 +21757,10 @@
         <v>858.167</v>
       </c>
       <c r="U360" s="2"/>
-      <c r="V360" s="2" t="n">
+      <c r="V360" s="2"/>
+      <c r="W360" s="2" t="n">
         <v>25745</v>
       </c>
-      <c r="W360" s="2"/>
     </row>
     <row r="361">
       <c r="A361" s="2" t="s">
@@ -21816,10 +21816,10 @@
         <v>858.167</v>
       </c>
       <c r="U361" s="2"/>
-      <c r="V361" s="2" t="n">
+      <c r="V361" s="2"/>
+      <c r="W361" s="2" t="n">
         <v>25745</v>
       </c>
-      <c r="W361" s="2"/>
     </row>
     <row r="362">
       <c r="A362" s="2" t="s">
@@ -21875,10 +21875,10 @@
         <v>858.667</v>
       </c>
       <c r="U362" s="2"/>
-      <c r="V362" s="2" t="n">
+      <c r="V362" s="2"/>
+      <c r="W362" s="2" t="n">
         <v>25760</v>
       </c>
-      <c r="W362" s="2"/>
     </row>
     <row r="363">
       <c r="A363" s="2" t="s">
@@ -21934,10 +21934,10 @@
         <v>858.667</v>
       </c>
       <c r="U363" s="2"/>
-      <c r="V363" s="2" t="n">
+      <c r="V363" s="2"/>
+      <c r="W363" s="2" t="n">
         <v>25760</v>
       </c>
-      <c r="W363" s="2"/>
     </row>
     <row r="364">
       <c r="A364" s="2" t="s">
@@ -21993,10 +21993,10 @@
         <v>869.067</v>
       </c>
       <c r="U364" s="2"/>
-      <c r="V364" s="2" t="n">
+      <c r="V364" s="2"/>
+      <c r="W364" s="2" t="n">
         <v>26072</v>
       </c>
-      <c r="W364" s="2"/>
     </row>
     <row r="365">
       <c r="A365" s="2" t="s">
@@ -22052,10 +22052,10 @@
         <v>869.067</v>
       </c>
       <c r="U365" s="2"/>
-      <c r="V365" s="2" t="n">
+      <c r="V365" s="2"/>
+      <c r="W365" s="2" t="n">
         <v>26072</v>
       </c>
-      <c r="W365" s="2"/>
     </row>
     <row r="366">
       <c r="A366" s="2" t="s">
@@ -22111,10 +22111,10 @@
         <v>869.433</v>
       </c>
       <c r="U366" s="2"/>
-      <c r="V366" s="2" t="n">
+      <c r="V366" s="2"/>
+      <c r="W366" s="2" t="n">
         <v>26083</v>
       </c>
-      <c r="W366" s="2"/>
     </row>
     <row r="367">
       <c r="A367" s="3" t="s">
@@ -22169,10 +22169,10 @@
         <v>870.1</v>
       </c>
       <c r="T367" s="3"/>
-      <c r="U367" s="3" t="n">
+      <c r="U367" s="3"/>
+      <c r="V367" s="3" t="n">
         <v>26103</v>
       </c>
-      <c r="V367" s="3"/>
       <c r="W367" s="3"/>
     </row>
     <row r="368">
@@ -22228,10 +22228,10 @@
         <v>870.1</v>
       </c>
       <c r="T368" s="3"/>
-      <c r="U368" s="3" t="n">
+      <c r="U368" s="3"/>
+      <c r="V368" s="3" t="n">
         <v>26103</v>
       </c>
-      <c r="V368" s="3"/>
       <c r="W368" s="3"/>
     </row>
     <row r="369">
@@ -22287,10 +22287,10 @@
         <v>870.567</v>
       </c>
       <c r="T369" s="3"/>
-      <c r="U369" s="3" t="n">
+      <c r="U369" s="3"/>
+      <c r="V369" s="3" t="n">
         <v>26117</v>
       </c>
-      <c r="V369" s="3"/>
       <c r="W369" s="3"/>
     </row>
     <row r="370">
@@ -22346,10 +22346,10 @@
         <v>870.567</v>
       </c>
       <c r="T370" s="3"/>
-      <c r="U370" s="3" t="n">
+      <c r="U370" s="3"/>
+      <c r="V370" s="3" t="n">
         <v>26117</v>
       </c>
-      <c r="V370" s="3"/>
       <c r="W370" s="3"/>
     </row>
     <row r="371">
@@ -22406,10 +22406,10 @@
         <v>871.7</v>
       </c>
       <c r="U371" s="4"/>
-      <c r="V371" s="4" t="n">
+      <c r="V371" s="4"/>
+      <c r="W371" s="4" t="n">
         <v>26151</v>
       </c>
-      <c r="W371" s="4"/>
     </row>
     <row r="372">
       <c r="A372" s="4" t="s">
@@ -22465,10 +22465,10 @@
         <v>872.267</v>
       </c>
       <c r="U372" s="4"/>
-      <c r="V372" s="4" t="n">
+      <c r="V372" s="4"/>
+      <c r="W372" s="4" t="n">
         <v>26168</v>
       </c>
-      <c r="W372" s="4"/>
     </row>
     <row r="373">
       <c r="A373" s="3" t="s">
@@ -22523,10 +22523,10 @@
         <v>877.833</v>
       </c>
       <c r="T373" s="3"/>
-      <c r="U373" s="3" t="n">
+      <c r="U373" s="3"/>
+      <c r="V373" s="3" t="n">
         <v>26335</v>
       </c>
-      <c r="V373" s="3"/>
       <c r="W373" s="3"/>
     </row>
     <row r="374">
@@ -22582,10 +22582,10 @@
         <v>877.833</v>
       </c>
       <c r="T374" s="3"/>
-      <c r="U374" s="3" t="n">
+      <c r="U374" s="3"/>
+      <c r="V374" s="3" t="n">
         <v>26335</v>
       </c>
-      <c r="V374" s="3"/>
       <c r="W374" s="3"/>
     </row>
     <row r="375">
@@ -22642,10 +22642,10 @@
         <v>878.933</v>
       </c>
       <c r="U375" s="4"/>
-      <c r="V375" s="4" t="n">
+      <c r="V375" s="4"/>
+      <c r="W375" s="4" t="n">
         <v>26368</v>
       </c>
-      <c r="W375" s="4"/>
     </row>
     <row r="376">
       <c r="A376" s="2" t="s">
@@ -22701,10 +22701,10 @@
         <v>879.267</v>
       </c>
       <c r="U376" s="2"/>
-      <c r="V376" s="2" t="n">
+      <c r="V376" s="2"/>
+      <c r="W376" s="2" t="n">
         <v>26378</v>
       </c>
-      <c r="W376" s="2"/>
     </row>
     <row r="377">
       <c r="A377" s="3" t="s">
@@ -22759,10 +22759,10 @@
         <v>879.8</v>
       </c>
       <c r="T377" s="3"/>
-      <c r="U377" s="3" t="n">
+      <c r="U377" s="3"/>
+      <c r="V377" s="3" t="n">
         <v>26394</v>
       </c>
-      <c r="V377" s="3"/>
       <c r="W377" s="3"/>
     </row>
     <row r="378">
@@ -22818,10 +22818,10 @@
         <v>879.8</v>
       </c>
       <c r="T378" s="3"/>
-      <c r="U378" s="3" t="n">
+      <c r="U378" s="3"/>
+      <c r="V378" s="3" t="n">
         <v>26394</v>
       </c>
-      <c r="V378" s="3"/>
       <c r="W378" s="3"/>
     </row>
     <row r="379">
@@ -22878,10 +22878,10 @@
         <v>881.233</v>
       </c>
       <c r="U379" s="2"/>
-      <c r="V379" s="2" t="n">
+      <c r="V379" s="2"/>
+      <c r="W379" s="2" t="n">
         <v>26437</v>
       </c>
-      <c r="W379" s="2"/>
     </row>
     <row r="380">
       <c r="A380" s="3" t="s">
@@ -22936,10 +22936,10 @@
         <v>881.833</v>
       </c>
       <c r="T380" s="3"/>
-      <c r="U380" s="3" t="n">
+      <c r="U380" s="3"/>
+      <c r="V380" s="3" t="n">
         <v>26455</v>
       </c>
-      <c r="V380" s="3"/>
       <c r="W380" s="3"/>
     </row>
     <row r="381">
@@ -22995,10 +22995,10 @@
         <v>881.833</v>
       </c>
       <c r="T381" s="3"/>
-      <c r="U381" s="3" t="n">
+      <c r="U381" s="3"/>
+      <c r="V381" s="3" t="n">
         <v>26455</v>
       </c>
-      <c r="V381" s="3"/>
       <c r="W381" s="3"/>
     </row>
     <row r="382">
@@ -23054,10 +23054,10 @@
         <v>882.4</v>
       </c>
       <c r="T382" s="3"/>
-      <c r="U382" s="3" t="n">
+      <c r="U382" s="3"/>
+      <c r="V382" s="3" t="n">
         <v>26472</v>
       </c>
-      <c r="V382" s="3"/>
       <c r="W382" s="3"/>
     </row>
     <row r="383">
@@ -23113,10 +23113,10 @@
         <v>882.4</v>
       </c>
       <c r="T383" s="3"/>
-      <c r="U383" s="3" t="n">
+      <c r="U383" s="3"/>
+      <c r="V383" s="3" t="n">
         <v>26472</v>
       </c>
-      <c r="V383" s="3"/>
       <c r="W383" s="3"/>
     </row>
     <row r="384">
@@ -23173,10 +23173,10 @@
         <v>883.567</v>
       </c>
       <c r="U384" s="4"/>
-      <c r="V384" s="4" t="n">
+      <c r="V384" s="4"/>
+      <c r="W384" s="4" t="n">
         <v>26507</v>
       </c>
-      <c r="W384" s="4"/>
     </row>
     <row r="385">
       <c r="A385" s="4" t="s">
@@ -23232,10 +23232,10 @@
         <v>887.5</v>
       </c>
       <c r="U385" s="4"/>
-      <c r="V385" s="4" t="n">
+      <c r="V385" s="4"/>
+      <c r="W385" s="4" t="n">
         <v>26625</v>
       </c>
-      <c r="W385" s="4"/>
     </row>
     <row r="386">
       <c r="A386" s="4" t="s">
@@ -23291,10 +23291,10 @@
         <v>887.5</v>
       </c>
       <c r="U386" s="4"/>
-      <c r="V386" s="4" t="n">
+      <c r="V386" s="4"/>
+      <c r="W386" s="4" t="n">
         <v>26625</v>
       </c>
-      <c r="W386" s="4"/>
     </row>
     <row r="387">
       <c r="A387" s="4" t="s">
@@ -23350,10 +23350,10 @@
         <v>887.733</v>
       </c>
       <c r="U387" s="4"/>
-      <c r="V387" s="4" t="n">
+      <c r="V387" s="4"/>
+      <c r="W387" s="4" t="n">
         <v>26632</v>
       </c>
-      <c r="W387" s="4"/>
     </row>
     <row r="388">
       <c r="A388" s="4" t="s">
@@ -23409,10 +23409,10 @@
         <v>887.733</v>
       </c>
       <c r="U388" s="4"/>
-      <c r="V388" s="4" t="n">
+      <c r="V388" s="4"/>
+      <c r="W388" s="4" t="n">
         <v>26632</v>
       </c>
-      <c r="W388" s="4"/>
     </row>
     <row r="389">
       <c r="A389" s="4" t="s">
@@ -23468,10 +23468,10 @@
         <v>889.267</v>
       </c>
       <c r="U389" s="4"/>
-      <c r="V389" s="4" t="n">
+      <c r="V389" s="4"/>
+      <c r="W389" s="4" t="n">
         <v>26678</v>
       </c>
-      <c r="W389" s="4"/>
     </row>
     <row r="390">
       <c r="A390" s="4" t="s">
@@ -23527,10 +23527,10 @@
         <v>889.267</v>
       </c>
       <c r="U390" s="4"/>
-      <c r="V390" s="4" t="n">
+      <c r="V390" s="4"/>
+      <c r="W390" s="4" t="n">
         <v>26678</v>
       </c>
-      <c r="W390" s="4"/>
     </row>
     <row r="391">
       <c r="A391" s="3" t="s">
@@ -23585,10 +23585,10 @@
         <v>894.733</v>
       </c>
       <c r="T391" s="3"/>
-      <c r="U391" s="3" t="n">
+      <c r="U391" s="3"/>
+      <c r="V391" s="3" t="n">
         <v>26842</v>
       </c>
-      <c r="V391" s="3"/>
       <c r="W391" s="3"/>
     </row>
     <row r="392">
@@ -23644,10 +23644,10 @@
         <v>894.733</v>
       </c>
       <c r="T392" s="3"/>
-      <c r="U392" s="3" t="n">
+      <c r="U392" s="3"/>
+      <c r="V392" s="3" t="n">
         <v>26842</v>
       </c>
-      <c r="V392" s="3"/>
       <c r="W392" s="3"/>
     </row>
     <row r="393">
@@ -23704,10 +23704,10 @@
         <v>895.533</v>
       </c>
       <c r="U393" s="4"/>
-      <c r="V393" s="4" t="n">
+      <c r="V393" s="4"/>
+      <c r="W393" s="4" t="n">
         <v>26866</v>
       </c>
-      <c r="W393" s="4"/>
     </row>
     <row r="394">
       <c r="A394" s="4" t="s">
@@ -23763,10 +23763,10 @@
         <v>895.533</v>
       </c>
       <c r="U394" s="4"/>
-      <c r="V394" s="4" t="n">
+      <c r="V394" s="4"/>
+      <c r="W394" s="4" t="n">
         <v>26866</v>
       </c>
-      <c r="W394" s="4"/>
     </row>
     <row r="395">
       <c r="A395" s="4" t="s">
@@ -23822,10 +23822,10 @@
         <v>895.867</v>
       </c>
       <c r="U395" s="4"/>
-      <c r="V395" s="4" t="n">
+      <c r="V395" s="4"/>
+      <c r="W395" s="4" t="n">
         <v>26876</v>
       </c>
-      <c r="W395" s="4"/>
     </row>
     <row r="396">
       <c r="A396" s="2" t="s">
@@ -23881,10 +23881,10 @@
         <v>897.2</v>
       </c>
       <c r="U396" s="2"/>
-      <c r="V396" s="2" t="n">
+      <c r="V396" s="2"/>
+      <c r="W396" s="2" t="n">
         <v>26916</v>
       </c>
-      <c r="W396" s="2"/>
     </row>
     <row r="397">
       <c r="A397" s="3" t="s">
@@ -23939,10 +23939,10 @@
         <v>897.733</v>
       </c>
       <c r="T397" s="3"/>
-      <c r="U397" s="3" t="n">
+      <c r="U397" s="3"/>
+      <c r="V397" s="3" t="n">
         <v>26932</v>
       </c>
-      <c r="V397" s="3"/>
       <c r="W397" s="3"/>
     </row>
     <row r="398">
@@ -23998,10 +23998,10 @@
         <v>897.733</v>
       </c>
       <c r="T398" s="3"/>
-      <c r="U398" s="3" t="n">
+      <c r="U398" s="3"/>
+      <c r="V398" s="3" t="n">
         <v>26932</v>
       </c>
-      <c r="V398" s="3"/>
       <c r="W398" s="3"/>
     </row>
     <row r="399">
@@ -24058,10 +24058,10 @@
         <v>898.4</v>
       </c>
       <c r="U399" s="2"/>
-      <c r="V399" s="2" t="n">
+      <c r="V399" s="2"/>
+      <c r="W399" s="2" t="n">
         <v>26952</v>
       </c>
-      <c r="W399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" s="2" t="s">
@@ -24117,10 +24117,10 @@
         <v>898.4</v>
       </c>
       <c r="U400" s="2"/>
-      <c r="V400" s="2" t="n">
+      <c r="V400" s="2"/>
+      <c r="W400" s="2" t="n">
         <v>26952</v>
       </c>
-      <c r="W400" s="2"/>
     </row>
     <row r="401">
       <c r="A401" s="2" t="s">
@@ -24176,10 +24176,10 @@
         <v>906.233</v>
       </c>
       <c r="U401" s="2"/>
-      <c r="V401" s="2" t="n">
+      <c r="V401" s="2"/>
+      <c r="W401" s="2" t="n">
         <v>27187</v>
       </c>
-      <c r="W401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" s="2" t="s">
@@ -24235,10 +24235,10 @@
         <v>906.233</v>
       </c>
       <c r="U402" s="2"/>
-      <c r="V402" s="2" t="n">
+      <c r="V402" s="2"/>
+      <c r="W402" s="2" t="n">
         <v>27187</v>
       </c>
-      <c r="W402" s="2"/>
     </row>
     <row r="403">
       <c r="A403" s="2" t="s">
@@ -24294,10 +24294,10 @@
         <v>907.8</v>
       </c>
       <c r="U403" s="2"/>
-      <c r="V403" s="2" t="n">
+      <c r="V403" s="2"/>
+      <c r="W403" s="2" t="n">
         <v>27234</v>
       </c>
-      <c r="W403" s="2"/>
     </row>
     <row r="404">
       <c r="A404" s="3" t="s">
@@ -24352,10 +24352,10 @@
         <v>908.333</v>
       </c>
       <c r="T404" s="3"/>
-      <c r="U404" s="3" t="n">
+      <c r="U404" s="3"/>
+      <c r="V404" s="3" t="n">
         <v>27250</v>
       </c>
-      <c r="V404" s="3"/>
       <c r="W404" s="3"/>
     </row>
     <row r="405">
@@ -24411,10 +24411,10 @@
         <v>908.333</v>
       </c>
       <c r="T405" s="3"/>
-      <c r="U405" s="3" t="n">
+      <c r="U405" s="3"/>
+      <c r="V405" s="3" t="n">
         <v>27250</v>
       </c>
-      <c r="V405" s="3"/>
       <c r="W405" s="3"/>
     </row>
     <row r="406">
@@ -24470,10 +24470,10 @@
         <v>908.9</v>
       </c>
       <c r="T406" s="3"/>
-      <c r="U406" s="3" t="n">
+      <c r="U406" s="3"/>
+      <c r="V406" s="3" t="n">
         <v>27267</v>
       </c>
-      <c r="V406" s="3"/>
       <c r="W406" s="3"/>
     </row>
     <row r="407">
@@ -24529,10 +24529,10 @@
         <v>908.9</v>
       </c>
       <c r="T407" s="3"/>
-      <c r="U407" s="3" t="n">
+      <c r="U407" s="3"/>
+      <c r="V407" s="3" t="n">
         <v>27267</v>
       </c>
-      <c r="V407" s="3"/>
       <c r="W407" s="3"/>
     </row>
     <row r="408">
@@ -24589,10 +24589,10 @@
         <v>910.1</v>
       </c>
       <c r="U408" s="4"/>
-      <c r="V408" s="4" t="n">
+      <c r="V408" s="4"/>
+      <c r="W408" s="4" t="n">
         <v>27303</v>
       </c>
-      <c r="W408" s="4"/>
     </row>
     <row r="409">
       <c r="A409" s="3" t="s">
@@ -24647,10 +24647,10 @@
         <v>914.4</v>
       </c>
       <c r="T409" s="3"/>
-      <c r="U409" s="3" t="n">
+      <c r="U409" s="3"/>
+      <c r="V409" s="3" t="n">
         <v>27432</v>
       </c>
-      <c r="V409" s="3"/>
       <c r="W409" s="3"/>
     </row>
     <row r="410">
@@ -24706,10 +24706,10 @@
         <v>914.4</v>
       </c>
       <c r="T410" s="3"/>
-      <c r="U410" s="3" t="n">
+      <c r="U410" s="3"/>
+      <c r="V410" s="3" t="n">
         <v>27432</v>
       </c>
-      <c r="V410" s="3"/>
       <c r="W410" s="3"/>
     </row>
     <row r="411">
@@ -24766,10 +24766,10 @@
         <v>915.633</v>
       </c>
       <c r="U411" s="4"/>
-      <c r="V411" s="4" t="n">
+      <c r="V411" s="4"/>
+      <c r="W411" s="4" t="n">
         <v>27469</v>
       </c>
-      <c r="W411" s="4"/>
     </row>
     <row r="412">
       <c r="A412" s="2" t="s">
@@ -24825,10 +24825,10 @@
         <v>917.3</v>
       </c>
       <c r="U412" s="2"/>
-      <c r="V412" s="2" t="n">
+      <c r="V412" s="2"/>
+      <c r="W412" s="2" t="n">
         <v>27519</v>
       </c>
-      <c r="W412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" s="3" t="s">
@@ -24883,10 +24883,10 @@
         <v>917.667</v>
       </c>
       <c r="T413" s="3"/>
-      <c r="U413" s="3" t="n">
+      <c r="U413" s="3"/>
+      <c r="V413" s="3" t="n">
         <v>27530</v>
       </c>
-      <c r="V413" s="3"/>
       <c r="W413" s="3"/>
     </row>
     <row r="414">
@@ -24942,10 +24942,10 @@
         <v>917.667</v>
       </c>
       <c r="T414" s="3"/>
-      <c r="U414" s="3" t="n">
+      <c r="U414" s="3"/>
+      <c r="V414" s="3" t="n">
         <v>27530</v>
       </c>
-      <c r="V414" s="3"/>
       <c r="W414" s="3"/>
     </row>
     <row r="415">
@@ -25002,10 +25002,10 @@
         <v>918.3</v>
       </c>
       <c r="U415" s="2"/>
-      <c r="V415" s="2" t="n">
+      <c r="V415" s="2"/>
+      <c r="W415" s="2" t="n">
         <v>27549</v>
       </c>
-      <c r="W415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="2" t="s">
@@ -25061,10 +25061,10 @@
         <v>918.3</v>
       </c>
       <c r="U416" s="2"/>
-      <c r="V416" s="2" t="n">
+      <c r="V416" s="2"/>
+      <c r="W416" s="2" t="n">
         <v>27549</v>
       </c>
-      <c r="W416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" s="2" t="s">
@@ -25120,10 +25120,10 @@
         <v>952.567</v>
       </c>
       <c r="U417" s="2"/>
-      <c r="V417" s="2" t="n">
+      <c r="V417" s="2"/>
+      <c r="W417" s="2" t="n">
         <v>28577</v>
       </c>
-      <c r="W417" s="2"/>
     </row>
     <row r="418">
       <c r="A418" s="2" t="s">
@@ -25179,10 +25179,10 @@
         <v>952.567</v>
       </c>
       <c r="U418" s="2"/>
-      <c r="V418" s="2" t="n">
+      <c r="V418" s="2"/>
+      <c r="W418" s="2" t="n">
         <v>28577</v>
       </c>
-      <c r="W418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="2" t="s">
@@ -25238,10 +25238,10 @@
         <v>952.933</v>
       </c>
       <c r="U419" s="2"/>
-      <c r="V419" s="2" t="n">
+      <c r="V419" s="2"/>
+      <c r="W419" s="2" t="n">
         <v>28588</v>
       </c>
-      <c r="W419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="3" t="s">
@@ -25296,10 +25296,10 @@
         <v>953.233</v>
       </c>
       <c r="T420" s="3"/>
-      <c r="U420" s="3" t="n">
+      <c r="U420" s="3"/>
+      <c r="V420" s="3" t="n">
         <v>28597</v>
       </c>
-      <c r="V420" s="3"/>
       <c r="W420" s="3"/>
     </row>
     <row r="421">
@@ -25355,10 +25355,10 @@
         <v>953.233</v>
       </c>
       <c r="T421" s="3"/>
-      <c r="U421" s="3" t="n">
+      <c r="U421" s="3"/>
+      <c r="V421" s="3" t="n">
         <v>28597</v>
       </c>
-      <c r="V421" s="3"/>
       <c r="W421" s="3"/>
     </row>
     <row r="422">
@@ -25414,10 +25414,10 @@
         <v>953.733</v>
       </c>
       <c r="T422" s="3"/>
-      <c r="U422" s="3" t="n">
+      <c r="U422" s="3"/>
+      <c r="V422" s="3" t="n">
         <v>28612</v>
       </c>
-      <c r="V422" s="3"/>
       <c r="W422" s="3"/>
     </row>
     <row r="423">
@@ -25473,10 +25473,10 @@
         <v>953.733</v>
       </c>
       <c r="T423" s="3"/>
-      <c r="U423" s="3" t="n">
+      <c r="U423" s="3"/>
+      <c r="V423" s="3" t="n">
         <v>28612</v>
       </c>
-      <c r="V423" s="3"/>
       <c r="W423" s="3"/>
     </row>
     <row r="424">
@@ -25533,10 +25533,10 @@
         <v>955.033</v>
       </c>
       <c r="U424" s="4"/>
-      <c r="V424" s="4" t="n">
+      <c r="V424" s="4"/>
+      <c r="W424" s="4" t="n">
         <v>28651</v>
       </c>
-      <c r="W424" s="4"/>
     </row>
     <row r="425">
       <c r="A425" s="3" t="s">
@@ -25591,10 +25591,10 @@
         <v>963.667</v>
       </c>
       <c r="T425" s="3"/>
-      <c r="U425" s="3" t="n">
+      <c r="U425" s="3"/>
+      <c r="V425" s="3" t="n">
         <v>28910</v>
       </c>
-      <c r="V425" s="3"/>
       <c r="W425" s="3"/>
     </row>
     <row r="426">
@@ -25650,10 +25650,10 @@
         <v>963.667</v>
       </c>
       <c r="T426" s="3"/>
-      <c r="U426" s="3" t="n">
+      <c r="U426" s="3"/>
+      <c r="V426" s="3" t="n">
         <v>28910</v>
       </c>
-      <c r="V426" s="3"/>
       <c r="W426" s="3"/>
     </row>
     <row r="427">
@@ -25710,10 +25710,10 @@
         <v>964.967</v>
       </c>
       <c r="U427" s="4"/>
-      <c r="V427" s="4" t="n">
+      <c r="V427" s="4"/>
+      <c r="W427" s="4" t="n">
         <v>28949</v>
       </c>
-      <c r="W427" s="4"/>
     </row>
     <row r="428">
       <c r="A428" s="2" t="s">
@@ -25769,10 +25769,10 @@
         <v>966.867</v>
       </c>
       <c r="U428" s="2"/>
-      <c r="V428" s="2" t="n">
+      <c r="V428" s="2"/>
+      <c r="W428" s="2" t="n">
         <v>29006</v>
       </c>
-      <c r="W428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="3" t="s">
@@ -25827,10 +25827,10 @@
         <v>967.067</v>
       </c>
       <c r="T429" s="3"/>
-      <c r="U429" s="3" t="n">
+      <c r="U429" s="3"/>
+      <c r="V429" s="3" t="n">
         <v>29012</v>
       </c>
-      <c r="V429" s="3"/>
       <c r="W429" s="3"/>
     </row>
     <row r="430">
@@ -25886,10 +25886,10 @@
         <v>967.067</v>
       </c>
       <c r="T430" s="3"/>
-      <c r="U430" s="3" t="n">
+      <c r="U430" s="3"/>
+      <c r="V430" s="3" t="n">
         <v>29012</v>
       </c>
-      <c r="V430" s="3"/>
       <c r="W430" s="3"/>
     </row>
     <row r="431">
@@ -25946,10 +25946,10 @@
         <v>967.533</v>
       </c>
       <c r="U431" s="2"/>
-      <c r="V431" s="2" t="n">
+      <c r="V431" s="2"/>
+      <c r="W431" s="2" t="n">
         <v>29026</v>
       </c>
-      <c r="W431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="2" t="s">
@@ -26005,10 +26005,10 @@
         <v>967.533</v>
       </c>
       <c r="U432" s="2"/>
-      <c r="V432" s="2" t="n">
+      <c r="V432" s="2"/>
+      <c r="W432" s="2" t="n">
         <v>29026</v>
       </c>
-      <c r="W432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="2" t="s">
@@ -26064,10 +26064,10 @@
         <v>967.633</v>
       </c>
       <c r="U433" s="2"/>
-      <c r="V433" s="2" t="n">
+      <c r="V433" s="2"/>
+      <c r="W433" s="2" t="n">
         <v>29029</v>
       </c>
-      <c r="W433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="2" t="s">
@@ -26123,10 +26123,10 @@
         <v>967.633</v>
       </c>
       <c r="U434" s="2"/>
-      <c r="V434" s="2" t="n">
+      <c r="V434" s="2"/>
+      <c r="W434" s="2" t="n">
         <v>29029</v>
       </c>
-      <c r="W434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="2" t="s">
@@ -26182,10 +26182,10 @@
         <v>969.633</v>
       </c>
       <c r="U435" s="2"/>
-      <c r="V435" s="2" t="n">
+      <c r="V435" s="2"/>
+      <c r="W435" s="2" t="n">
         <v>29089</v>
       </c>
-      <c r="W435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="3" t="s">
@@ -26240,10 +26240,10 @@
         <v>969.867</v>
       </c>
       <c r="T436" s="3"/>
-      <c r="U436" s="3" t="n">
+      <c r="U436" s="3"/>
+      <c r="V436" s="3" t="n">
         <v>29096</v>
       </c>
-      <c r="V436" s="3"/>
       <c r="W436" s="3"/>
     </row>
     <row r="437">
@@ -26299,10 +26299,10 @@
         <v>969.867</v>
       </c>
       <c r="T437" s="3"/>
-      <c r="U437" s="3" t="n">
+      <c r="U437" s="3"/>
+      <c r="V437" s="3" t="n">
         <v>29096</v>
       </c>
-      <c r="V437" s="3"/>
       <c r="W437" s="3"/>
     </row>
     <row r="438">
@@ -26358,10 +26358,10 @@
         <v>972.033</v>
       </c>
       <c r="T438" s="3"/>
-      <c r="U438" s="3" t="n">
+      <c r="U438" s="3"/>
+      <c r="V438" s="3" t="n">
         <v>29161</v>
       </c>
-      <c r="V438" s="3"/>
       <c r="W438" s="3"/>
     </row>
     <row r="439">
@@ -26417,10 +26417,10 @@
         <v>972.033</v>
       </c>
       <c r="T439" s="3"/>
-      <c r="U439" s="3" t="n">
+      <c r="U439" s="3"/>
+      <c r="V439" s="3" t="n">
         <v>29161</v>
       </c>
-      <c r="V439" s="3"/>
       <c r="W439" s="3"/>
     </row>
     <row r="440">
@@ -26477,10 +26477,10 @@
         <v>973.4</v>
       </c>
       <c r="U440" s="4"/>
-      <c r="V440" s="4" t="n">
+      <c r="V440" s="4"/>
+      <c r="W440" s="4" t="n">
         <v>29202</v>
       </c>
-      <c r="W440" s="4"/>
     </row>
     <row r="441">
       <c r="A441" s="4" t="s">
@@ -26536,10 +26536,10 @@
         <v>974.967</v>
       </c>
       <c r="U441" s="4"/>
-      <c r="V441" s="4" t="n">
+      <c r="V441" s="4"/>
+      <c r="W441" s="4" t="n">
         <v>29249</v>
       </c>
-      <c r="W441" s="4"/>
     </row>
     <row r="442">
       <c r="A442" s="4" t="s">
@@ -26595,10 +26595,10 @@
         <v>974.967</v>
       </c>
       <c r="U442" s="4"/>
-      <c r="V442" s="4" t="n">
+      <c r="V442" s="4"/>
+      <c r="W442" s="4" t="n">
         <v>29249</v>
       </c>
-      <c r="W442" s="4"/>
     </row>
     <row r="443">
       <c r="A443" s="3" t="s">
@@ -26653,10 +26653,10 @@
         <v>989.533</v>
       </c>
       <c r="T443" s="3"/>
-      <c r="U443" s="3" t="n">
+      <c r="U443" s="3"/>
+      <c r="V443" s="3" t="n">
         <v>29686</v>
       </c>
-      <c r="V443" s="3"/>
       <c r="W443" s="3"/>
     </row>
     <row r="444">
@@ -26712,10 +26712,10 @@
         <v>989.533</v>
       </c>
       <c r="T444" s="3"/>
-      <c r="U444" s="3" t="n">
+      <c r="U444" s="3"/>
+      <c r="V444" s="3" t="n">
         <v>29686</v>
       </c>
-      <c r="V444" s="3"/>
       <c r="W444" s="3"/>
     </row>
     <row r="445">
@@ -26772,10 +26772,10 @@
         <v>990.433</v>
       </c>
       <c r="U445" s="4"/>
-      <c r="V445" s="4" t="n">
+      <c r="V445" s="4"/>
+      <c r="W445" s="4" t="n">
         <v>29713</v>
       </c>
-      <c r="W445" s="4"/>
     </row>
     <row r="446">
       <c r="A446" s="4" t="s">
@@ -26831,10 +26831,10 @@
         <v>990.433</v>
       </c>
       <c r="U446" s="4"/>
-      <c r="V446" s="4" t="n">
+      <c r="V446" s="4"/>
+      <c r="W446" s="4" t="n">
         <v>29713</v>
       </c>
-      <c r="W446" s="4"/>
     </row>
     <row r="447">
       <c r="A447" s="4" t="s">
@@ -26890,10 +26890,10 @@
         <v>990.8</v>
       </c>
       <c r="U447" s="4"/>
-      <c r="V447" s="4" t="n">
+      <c r="V447" s="4"/>
+      <c r="W447" s="4" t="n">
         <v>29724</v>
       </c>
-      <c r="W447" s="4"/>
     </row>
     <row r="448">
       <c r="A448" s="3" t="s">
@@ -26948,10 +26948,10 @@
         <v>991.9</v>
       </c>
       <c r="T448" s="3"/>
-      <c r="U448" s="3" t="n">
+      <c r="U448" s="3"/>
+      <c r="V448" s="3" t="n">
         <v>29757</v>
       </c>
-      <c r="V448" s="3"/>
       <c r="W448" s="3"/>
     </row>
     <row r="449">
@@ -27007,10 +27007,10 @@
         <v>991.9</v>
       </c>
       <c r="T449" s="3"/>
-      <c r="U449" s="3" t="n">
+      <c r="U449" s="3"/>
+      <c r="V449" s="3" t="n">
         <v>29757</v>
       </c>
-      <c r="V449" s="3"/>
       <c r="W449" s="3"/>
     </row>
     <row r="450">
@@ -27067,10 +27067,10 @@
         <v>993.2</v>
       </c>
       <c r="U450" s="4"/>
-      <c r="V450" s="4" t="n">
+      <c r="V450" s="4"/>
+      <c r="W450" s="4" t="n">
         <v>29796</v>
       </c>
-      <c r="W450" s="4"/>
     </row>
     <row r="451">
       <c r="A451" s="4" t="s">
@@ -27126,10 +27126,10 @@
         <v>993.733</v>
       </c>
       <c r="U451" s="4"/>
-      <c r="V451" s="4" t="n">
+      <c r="V451" s="4"/>
+      <c r="W451" s="4" t="n">
         <v>29812</v>
       </c>
-      <c r="W451" s="4"/>
     </row>
     <row r="452">
       <c r="A452" s="4" t="s">
@@ -27185,10 +27185,10 @@
         <v>993.733</v>
       </c>
       <c r="U452" s="4"/>
-      <c r="V452" s="4" t="n">
+      <c r="V452" s="4"/>
+      <c r="W452" s="4" t="n">
         <v>29812</v>
       </c>
-      <c r="W452" s="4"/>
     </row>
     <row r="453">
       <c r="A453" s="4" t="s">
@@ -27244,10 +27244,10 @@
         <v>997.333</v>
       </c>
       <c r="U453" s="4"/>
-      <c r="V453" s="4" t="n">
+      <c r="V453" s="4"/>
+      <c r="W453" s="4" t="n">
         <v>29920</v>
       </c>
-      <c r="W453" s="4"/>
     </row>
     <row r="454">
       <c r="A454" s="4" t="s">
@@ -27303,10 +27303,10 @@
         <v>997.333</v>
       </c>
       <c r="U454" s="4"/>
-      <c r="V454" s="4" t="n">
+      <c r="V454" s="4"/>
+      <c r="W454" s="4" t="n">
         <v>29920</v>
       </c>
-      <c r="W454" s="4"/>
     </row>
     <row r="455">
       <c r="A455" s="4" t="s">
@@ -27362,10 +27362,10 @@
         <v>999.033</v>
       </c>
       <c r="U455" s="4"/>
-      <c r="V455" s="4" t="n">
+      <c r="V455" s="4"/>
+      <c r="W455" s="4" t="n">
         <v>29971</v>
       </c>
-      <c r="W455" s="4"/>
     </row>
     <row r="456">
       <c r="A456" s="4" t="s">
@@ -27421,10 +27421,10 @@
         <v>999.033</v>
       </c>
       <c r="U456" s="4"/>
-      <c r="V456" s="4" t="n">
+      <c r="V456" s="4"/>
+      <c r="W456" s="4" t="n">
         <v>29971</v>
       </c>
-      <c r="W456" s="4"/>
     </row>
     <row r="457">
       <c r="A457" s="4" t="s">
@@ -27480,10 +27480,10 @@
         <v>1002</v>
       </c>
       <c r="U457" s="4"/>
-      <c r="V457" s="4" t="n">
+      <c r="V457" s="4"/>
+      <c r="W457" s="4" t="n">
         <v>30060</v>
       </c>
-      <c r="W457" s="4"/>
     </row>
     <row r="458">
       <c r="A458" s="4" t="s">
@@ -27539,10 +27539,10 @@
         <v>1002</v>
       </c>
       <c r="U458" s="4"/>
-      <c r="V458" s="4" t="n">
+      <c r="V458" s="4"/>
+      <c r="W458" s="4" t="n">
         <v>30060</v>
       </c>
-      <c r="W458" s="4"/>
     </row>
     <row r="459">
       <c r="A459" s="4" t="s">
@@ -27598,10 +27598,10 @@
         <v>1002.567</v>
       </c>
       <c r="U459" s="4"/>
-      <c r="V459" s="4" t="n">
+      <c r="V459" s="4"/>
+      <c r="W459" s="4" t="n">
         <v>30077</v>
       </c>
-      <c r="W459" s="4"/>
     </row>
     <row r="460">
       <c r="A460" s="4" t="s">
@@ -27657,10 +27657,10 @@
         <v>1002.567</v>
       </c>
       <c r="U460" s="4"/>
-      <c r="V460" s="4" t="n">
+      <c r="V460" s="4"/>
+      <c r="W460" s="4" t="n">
         <v>30077</v>
       </c>
-      <c r="W460" s="4"/>
     </row>
     <row r="461">
       <c r="A461" s="4" t="s">
@@ -27716,10 +27716,10 @@
         <v>1015.633</v>
       </c>
       <c r="U461" s="4"/>
-      <c r="V461" s="4" t="n">
+      <c r="V461" s="4"/>
+      <c r="W461" s="4" t="n">
         <v>30469</v>
       </c>
-      <c r="W461" s="4"/>
     </row>
     <row r="462">
       <c r="A462" s="3" t="s">
@@ -27774,10 +27774,10 @@
         <v>1117.167</v>
       </c>
       <c r="T462" s="3"/>
-      <c r="U462" s="3" t="n">
+      <c r="U462" s="3"/>
+      <c r="V462" s="3" t="n">
         <v>33515</v>
       </c>
-      <c r="V462" s="3"/>
       <c r="W462" s="3"/>
     </row>
     <row r="463">
@@ -27833,10 +27833,10 @@
         <v>1117.167</v>
       </c>
       <c r="T463" s="3"/>
-      <c r="U463" s="3" t="n">
+      <c r="U463" s="3"/>
+      <c r="V463" s="3" t="n">
         <v>33515</v>
       </c>
-      <c r="V463" s="3"/>
       <c r="W463" s="3"/>
     </row>
     <row r="464">
@@ -27893,10 +27893,10 @@
         <v>1118.2</v>
       </c>
       <c r="U464" s="4"/>
-      <c r="V464" s="4" t="n">
+      <c r="V464" s="4"/>
+      <c r="W464" s="4" t="n">
         <v>33546</v>
       </c>
-      <c r="W464" s="4"/>
     </row>
     <row r="465">
       <c r="A465" s="4" t="s">
@@ -27952,10 +27952,10 @@
         <v>1118.2</v>
       </c>
       <c r="U465" s="4"/>
-      <c r="V465" s="4" t="n">
+      <c r="V465" s="4"/>
+      <c r="W465" s="4" t="n">
         <v>33546</v>
       </c>
-      <c r="W465" s="4"/>
     </row>
     <row r="466">
       <c r="A466" s="4" t="s">
@@ -28011,10 +28011,10 @@
         <v>1118.633</v>
       </c>
       <c r="U466" s="4"/>
-      <c r="V466" s="4" t="n">
+      <c r="V466" s="4"/>
+      <c r="W466" s="4" t="n">
         <v>33559</v>
       </c>
-      <c r="W466" s="4"/>
     </row>
     <row r="467">
       <c r="A467" s="3" t="s">
@@ -28069,10 +28069,10 @@
         <v>1120.6</v>
       </c>
       <c r="T467" s="3"/>
-      <c r="U467" s="3" t="n">
+      <c r="U467" s="3"/>
+      <c r="V467" s="3" t="n">
         <v>33618</v>
       </c>
-      <c r="V467" s="3"/>
       <c r="W467" s="3"/>
     </row>
     <row r="468">
@@ -28128,10 +28128,10 @@
         <v>1120.6</v>
       </c>
       <c r="T468" s="3"/>
-      <c r="U468" s="3" t="n">
+      <c r="U468" s="3"/>
+      <c r="V468" s="3" t="n">
         <v>33618</v>
       </c>
-      <c r="V468" s="3"/>
       <c r="W468" s="3"/>
     </row>
     <row r="469">
@@ -28188,10 +28188,10 @@
         <v>1121.067</v>
       </c>
       <c r="U469" s="2"/>
-      <c r="V469" s="2" t="n">
+      <c r="V469" s="2"/>
+      <c r="W469" s="2" t="n">
         <v>33632</v>
       </c>
-      <c r="W469" s="2"/>
     </row>
     <row r="470">
       <c r="A470" s="3" t="s">
@@ -28246,10 +28246,10 @@
         <v>1127.067</v>
       </c>
       <c r="T470" s="3"/>
-      <c r="U470" s="3" t="n">
+      <c r="U470" s="3"/>
+      <c r="V470" s="3" t="n">
         <v>33812</v>
       </c>
-      <c r="V470" s="3"/>
       <c r="W470" s="3"/>
     </row>
     <row r="471">
@@ -28305,10 +28305,10 @@
         <v>1127.067</v>
       </c>
       <c r="T471" s="3"/>
-      <c r="U471" s="3" t="n">
+      <c r="U471" s="3"/>
+      <c r="V471" s="3" t="n">
         <v>33812</v>
       </c>
-      <c r="V471" s="3"/>
       <c r="W471" s="3"/>
     </row>
     <row r="472">
@@ -28365,10 +28365,10 @@
         <v>1127.6</v>
       </c>
       <c r="U472" s="2"/>
-      <c r="V472" s="2" t="n">
+      <c r="V472" s="2"/>
+      <c r="W472" s="2" t="n">
         <v>33828</v>
       </c>
-      <c r="W472" s="2"/>
     </row>
     <row r="473">
       <c r="A473" s="3" t="s">
@@ -28423,10 +28423,10 @@
         <v>1132.067</v>
       </c>
       <c r="T473" s="3"/>
-      <c r="U473" s="3" t="n">
+      <c r="U473" s="3"/>
+      <c r="V473" s="3" t="n">
         <v>33962</v>
       </c>
-      <c r="V473" s="3"/>
       <c r="W473" s="3"/>
     </row>
     <row r="474">
@@ -28482,10 +28482,10 @@
         <v>1139.167</v>
       </c>
       <c r="T474" s="3"/>
-      <c r="U474" s="3" t="n">
+      <c r="U474" s="3"/>
+      <c r="V474" s="3" t="n">
         <v>34175</v>
       </c>
-      <c r="V474" s="3"/>
       <c r="W474" s="3"/>
     </row>
     <row r="475">
@@ -28541,10 +28541,10 @@
         <v>1139.167</v>
       </c>
       <c r="T475" s="3"/>
-      <c r="U475" s="3" t="n">
+      <c r="U475" s="3"/>
+      <c r="V475" s="3" t="n">
         <v>34175</v>
       </c>
-      <c r="V475" s="3"/>
       <c r="W475" s="3"/>
     </row>
     <row r="476">
@@ -28601,10 +28601,10 @@
         <v>1139.7</v>
       </c>
       <c r="U476" s="2"/>
-      <c r="V476" s="2" t="n">
+      <c r="V476" s="2"/>
+      <c r="W476" s="2" t="n">
         <v>34191</v>
       </c>
-      <c r="W476" s="2"/>
     </row>
     <row r="477">
       <c r="A477" s="3" t="s">
@@ -28659,10 +28659,10 @@
         <v>1144.8</v>
       </c>
       <c r="T477" s="3"/>
-      <c r="U477" s="3" t="n">
+      <c r="U477" s="3"/>
+      <c r="V477" s="3" t="n">
         <v>34344</v>
       </c>
-      <c r="V477" s="3"/>
       <c r="W477" s="3"/>
     </row>
     <row r="478">
@@ -28718,10 +28718,10 @@
         <v>1144.8</v>
       </c>
       <c r="T478" s="3"/>
-      <c r="U478" s="3" t="n">
+      <c r="U478" s="3"/>
+      <c r="V478" s="3" t="n">
         <v>34344</v>
       </c>
-      <c r="V478" s="3"/>
       <c r="W478" s="3"/>
     </row>
     <row r="479">
@@ -28778,10 +28778,10 @@
         <v>1145.267</v>
       </c>
       <c r="U479" s="2"/>
-      <c r="V479" s="2" t="n">
+      <c r="V479" s="2"/>
+      <c r="W479" s="2" t="n">
         <v>34358</v>
       </c>
-      <c r="W479" s="2"/>
     </row>
     <row r="480">
       <c r="A480" s="3" t="s">
@@ -28836,10 +28836,10 @@
         <v>1145.467</v>
       </c>
       <c r="T480" s="3"/>
-      <c r="U480" s="3" t="n">
+      <c r="U480" s="3"/>
+      <c r="V480" s="3" t="n">
         <v>34364</v>
       </c>
-      <c r="V480" s="3"/>
       <c r="W480" s="3"/>
     </row>
     <row r="481">
@@ -28895,10 +28895,10 @@
         <v>1145.467</v>
       </c>
       <c r="T481" s="3"/>
-      <c r="U481" s="3" t="n">
+      <c r="U481" s="3"/>
+      <c r="V481" s="3" t="n">
         <v>34364</v>
       </c>
-      <c r="V481" s="3"/>
       <c r="W481" s="3"/>
     </row>
     <row r="482">
@@ -28955,10 +28955,10 @@
         <v>1147.1</v>
       </c>
       <c r="U482" s="4"/>
-      <c r="V482" s="4" t="n">
+      <c r="V482" s="4"/>
+      <c r="W482" s="4" t="n">
         <v>34413</v>
       </c>
-      <c r="W482" s="4"/>
     </row>
     <row r="483">
       <c r="A483" s="4" t="s">
@@ -29014,10 +29014,10 @@
         <v>1148.733</v>
       </c>
       <c r="U483" s="4"/>
-      <c r="V483" s="4" t="n">
+      <c r="V483" s="4"/>
+      <c r="W483" s="4" t="n">
         <v>34462</v>
       </c>
-      <c r="W483" s="4"/>
     </row>
     <row r="484">
       <c r="A484" s="4" t="s">
@@ -29073,10 +29073,10 @@
         <v>1148.733</v>
       </c>
       <c r="U484" s="4"/>
-      <c r="V484" s="4" t="n">
+      <c r="V484" s="4"/>
+      <c r="W484" s="4" t="n">
         <v>34462</v>
       </c>
-      <c r="W484" s="4"/>
     </row>
     <row r="485">
       <c r="A485" s="4" t="s">
@@ -29132,10 +29132,10 @@
         <v>1148.867</v>
       </c>
       <c r="U485" s="4"/>
-      <c r="V485" s="4" t="n">
+      <c r="V485" s="4"/>
+      <c r="W485" s="4" t="n">
         <v>34466</v>
       </c>
-      <c r="W485" s="4"/>
     </row>
     <row r="486">
       <c r="A486" s="4" t="s">
@@ -29191,10 +29191,10 @@
         <v>1148.867</v>
       </c>
       <c r="U486" s="4"/>
-      <c r="V486" s="4" t="n">
+      <c r="V486" s="4"/>
+      <c r="W486" s="4" t="n">
         <v>34466</v>
       </c>
-      <c r="W486" s="4"/>
     </row>
     <row r="487">
       <c r="A487" s="4" t="s">
@@ -29250,10 +29250,10 @@
         <v>1152.633</v>
       </c>
       <c r="U487" s="4"/>
-      <c r="V487" s="4" t="n">
+      <c r="V487" s="4"/>
+      <c r="W487" s="4" t="n">
         <v>34579</v>
       </c>
-      <c r="W487" s="4"/>
     </row>
     <row r="488">
       <c r="A488" s="4" t="s">
@@ -29309,10 +29309,10 @@
         <v>1152.633</v>
       </c>
       <c r="U488" s="4"/>
-      <c r="V488" s="4" t="n">
+      <c r="V488" s="4"/>
+      <c r="W488" s="4" t="n">
         <v>34579</v>
       </c>
-      <c r="W488" s="4"/>
     </row>
     <row r="489">
       <c r="A489" s="3" t="s">
@@ -29367,10 +29367,10 @@
         <v>1155.167</v>
       </c>
       <c r="T489" s="3"/>
-      <c r="U489" s="3" t="n">
+      <c r="U489" s="3"/>
+      <c r="V489" s="3" t="n">
         <v>34655</v>
       </c>
-      <c r="V489" s="3"/>
       <c r="W489" s="3"/>
     </row>
     <row r="490">
@@ -29426,10 +29426,10 @@
         <v>1155.167</v>
       </c>
       <c r="T490" s="3"/>
-      <c r="U490" s="3" t="n">
+      <c r="U490" s="3"/>
+      <c r="V490" s="3" t="n">
         <v>34655</v>
       </c>
-      <c r="V490" s="3"/>
       <c r="W490" s="3"/>
     </row>
     <row r="491">
@@ -29486,10 +29486,10 @@
         <v>1156.333</v>
       </c>
       <c r="U491" s="4"/>
-      <c r="V491" s="4" t="n">
+      <c r="V491" s="4"/>
+      <c r="W491" s="4" t="n">
         <v>34690</v>
       </c>
-      <c r="W491" s="4"/>
     </row>
     <row r="492">
       <c r="A492" s="4" t="s">
@@ -29545,10 +29545,10 @@
         <v>1156.333</v>
       </c>
       <c r="U492" s="4"/>
-      <c r="V492" s="4" t="n">
+      <c r="V492" s="4"/>
+      <c r="W492" s="4" t="n">
         <v>34690</v>
       </c>
-      <c r="W492" s="4"/>
     </row>
     <row r="493">
       <c r="A493" s="4" t="s">
@@ -29604,10 +29604,10 @@
         <v>1156.7</v>
       </c>
       <c r="U493" s="4"/>
-      <c r="V493" s="4" t="n">
+      <c r="V493" s="4"/>
+      <c r="W493" s="4" t="n">
         <v>34701</v>
       </c>
-      <c r="W493" s="4"/>
     </row>
     <row r="494">
       <c r="A494" s="3" t="s">
@@ -29662,10 +29662,10 @@
         <v>1159.8</v>
       </c>
       <c r="T494" s="3"/>
-      <c r="U494" s="3" t="n">
+      <c r="U494" s="3"/>
+      <c r="V494" s="3" t="n">
         <v>34794</v>
       </c>
-      <c r="V494" s="3"/>
       <c r="W494" s="3"/>
     </row>
     <row r="495">
@@ -29721,10 +29721,10 @@
         <v>1159.8</v>
       </c>
       <c r="T495" s="3"/>
-      <c r="U495" s="3" t="n">
+      <c r="U495" s="3"/>
+      <c r="V495" s="3" t="n">
         <v>34794</v>
       </c>
-      <c r="V495" s="3"/>
       <c r="W495" s="3"/>
     </row>
     <row r="496">
@@ -29781,10 +29781,10 @@
         <v>1160.4</v>
       </c>
       <c r="U496" s="2"/>
-      <c r="V496" s="2" t="n">
+      <c r="V496" s="2"/>
+      <c r="W496" s="2" t="n">
         <v>34812</v>
       </c>
-      <c r="W496" s="2"/>
     </row>
     <row r="497">
       <c r="A497" s="2" t="s">
@@ -29840,10 +29840,10 @@
         <v>1166.267</v>
       </c>
       <c r="U497" s="2"/>
-      <c r="V497" s="2" t="n">
+      <c r="V497" s="2"/>
+      <c r="W497" s="2" t="n">
         <v>34988</v>
       </c>
-      <c r="W497" s="2"/>
     </row>
     <row r="498">
       <c r="A498" s="2" t="s">
@@ -29899,10 +29899,10 @@
         <v>1166.267</v>
       </c>
       <c r="U498" s="2"/>
-      <c r="V498" s="2" t="n">
+      <c r="V498" s="2"/>
+      <c r="W498" s="2" t="n">
         <v>34988</v>
       </c>
-      <c r="W498" s="2"/>
     </row>
     <row r="499">
       <c r="A499" s="2" t="s">
@@ -29958,10 +29958,10 @@
         <v>1174.367</v>
       </c>
       <c r="U499" s="2"/>
-      <c r="V499" s="2" t="n">
+      <c r="V499" s="2"/>
+      <c r="W499" s="2" t="n">
         <v>35231</v>
       </c>
-      <c r="W499" s="2"/>
     </row>
     <row r="500">
       <c r="A500" s="2" t="s">
@@ -30017,10 +30017,10 @@
         <v>1174.367</v>
       </c>
       <c r="U500" s="2"/>
-      <c r="V500" s="2" t="n">
+      <c r="V500" s="2"/>
+      <c r="W500" s="2" t="n">
         <v>35231</v>
       </c>
-      <c r="W500" s="2"/>
     </row>
     <row r="501">
       <c r="A501" s="2" t="s">
@@ -30076,10 +30076,10 @@
         <v>1174.867</v>
       </c>
       <c r="U501" s="2"/>
-      <c r="V501" s="2" t="n">
+      <c r="V501" s="2"/>
+      <c r="W501" s="2" t="n">
         <v>35246</v>
       </c>
-      <c r="W501" s="2"/>
     </row>
     <row r="502">
       <c r="A502" s="2" t="s">
@@ -30135,10 +30135,10 @@
         <v>1174.867</v>
       </c>
       <c r="U502" s="2"/>
-      <c r="V502" s="2" t="n">
+      <c r="V502" s="2"/>
+      <c r="W502" s="2" t="n">
         <v>35246</v>
       </c>
-      <c r="W502" s="2"/>
     </row>
     <row r="503">
       <c r="A503" s="2" t="s">
@@ -30194,10 +30194,10 @@
         <v>1193.967</v>
       </c>
       <c r="U503" s="2"/>
-      <c r="V503" s="2" t="n">
+      <c r="V503" s="2"/>
+      <c r="W503" s="2" t="n">
         <v>35819</v>
       </c>
-      <c r="W503" s="2"/>
     </row>
     <row r="504">
       <c r="A504" s="2" t="s">
@@ -30253,10 +30253,10 @@
         <v>1193.967</v>
       </c>
       <c r="U504" s="2"/>
-      <c r="V504" s="2" t="n">
+      <c r="V504" s="2"/>
+      <c r="W504" s="2" t="n">
         <v>35819</v>
       </c>
-      <c r="W504" s="2"/>
     </row>
     <row r="505">
       <c r="A505" s="2" t="s">
@@ -30312,10 +30312,10 @@
         <v>1194.867</v>
       </c>
       <c r="U505" s="2"/>
-      <c r="V505" s="2" t="n">
+      <c r="V505" s="2"/>
+      <c r="W505" s="2" t="n">
         <v>35846</v>
       </c>
-      <c r="W505" s="2"/>
     </row>
     <row r="506">
       <c r="A506" s="2" t="s">
@@ -30371,10 +30371,10 @@
         <v>1194.867</v>
       </c>
       <c r="U506" s="2"/>
-      <c r="V506" s="2" t="n">
+      <c r="V506" s="2"/>
+      <c r="W506" s="2" t="n">
         <v>35846</v>
       </c>
-      <c r="W506" s="2"/>
     </row>
     <row r="507">
       <c r="A507" s="2" t="s">
@@ -30430,10 +30430,10 @@
         <v>1195.067</v>
       </c>
       <c r="U507" s="2"/>
-      <c r="V507" s="2" t="n">
+      <c r="V507" s="2"/>
+      <c r="W507" s="2" t="n">
         <v>35852</v>
       </c>
-      <c r="W507" s="2"/>
     </row>
     <row r="508">
       <c r="A508" s="2" t="s">
@@ -30489,10 +30489,10 @@
         <v>1195.067</v>
       </c>
       <c r="U508" s="2"/>
-      <c r="V508" s="2" t="n">
+      <c r="V508" s="2"/>
+      <c r="W508" s="2" t="n">
         <v>35852</v>
       </c>
-      <c r="W508" s="2"/>
     </row>
     <row r="509">
       <c r="A509" s="2" t="s">
@@ -30548,10 +30548,10 @@
         <v>1195.367</v>
       </c>
       <c r="U509" s="2"/>
-      <c r="V509" s="2" t="n">
+      <c r="V509" s="2"/>
+      <c r="W509" s="2" t="n">
         <v>35861</v>
       </c>
-      <c r="W509" s="2"/>
     </row>
     <row r="510">
       <c r="A510" s="2" t="s">
@@ -30607,10 +30607,10 @@
         <v>1195.367</v>
       </c>
       <c r="U510" s="2"/>
-      <c r="V510" s="2" t="n">
+      <c r="V510" s="2"/>
+      <c r="W510" s="2" t="n">
         <v>35861</v>
       </c>
-      <c r="W510" s="2"/>
     </row>
     <row r="511">
       <c r="A511" s="2" t="s">
@@ -30666,10 +30666,10 @@
         <v>1196.3</v>
       </c>
       <c r="U511" s="2"/>
-      <c r="V511" s="2" t="n">
+      <c r="V511" s="2"/>
+      <c r="W511" s="2" t="n">
         <v>35889</v>
       </c>
-      <c r="W511" s="2"/>
     </row>
     <row r="512">
       <c r="A512" s="2" t="s">
@@ -30725,10 +30725,10 @@
         <v>1196.3</v>
       </c>
       <c r="U512" s="2"/>
-      <c r="V512" s="2" t="n">
+      <c r="V512" s="2"/>
+      <c r="W512" s="2" t="n">
         <v>35889</v>
       </c>
-      <c r="W512" s="2"/>
     </row>
     <row r="513">
       <c r="A513" s="2" t="s">
@@ -30784,10 +30784,10 @@
         <v>1202.767</v>
       </c>
       <c r="U513" s="2"/>
-      <c r="V513" s="2" t="n">
+      <c r="V513" s="2"/>
+      <c r="W513" s="2" t="n">
         <v>36083</v>
       </c>
-      <c r="W513" s="2"/>
     </row>
     <row r="514">
       <c r="A514" s="2" t="s">
@@ -30843,10 +30843,10 @@
         <v>1202.767</v>
       </c>
       <c r="U514" s="2"/>
-      <c r="V514" s="2" t="n">
+      <c r="V514" s="2"/>
+      <c r="W514" s="2" t="n">
         <v>36083</v>
       </c>
-      <c r="W514" s="2"/>
     </row>
     <row r="515">
       <c r="A515" s="3" t="s">
@@ -30901,10 +30901,10 @@
         <v>1213.133</v>
       </c>
       <c r="T515" s="3"/>
-      <c r="U515" s="3" t="n">
+      <c r="U515" s="3"/>
+      <c r="V515" s="3" t="n">
         <v>36394</v>
       </c>
-      <c r="V515" s="3"/>
       <c r="W515" s="3"/>
     </row>
     <row r="516">
@@ -30960,10 +30960,10 @@
         <v>1213.133</v>
       </c>
       <c r="T516" s="3"/>
-      <c r="U516" s="3" t="n">
+      <c r="U516" s="3"/>
+      <c r="V516" s="3" t="n">
         <v>36394</v>
       </c>
-      <c r="V516" s="3"/>
       <c r="W516" s="3"/>
     </row>
     <row r="517">
@@ -31020,10 +31020,10 @@
         <v>1213.467</v>
       </c>
       <c r="U517" s="2"/>
-      <c r="V517" s="2" t="n">
+      <c r="V517" s="2"/>
+      <c r="W517" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="W517" s="2"/>
     </row>
     <row r="518">
       <c r="A518" s="2" t="s">
@@ -31079,10 +31079,10 @@
         <v>1213.467</v>
       </c>
       <c r="U518" s="2"/>
-      <c r="V518" s="2" t="n">
+      <c r="V518" s="2"/>
+      <c r="W518" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="W518" s="2"/>
     </row>
     <row r="519">
       <c r="A519" s="3" t="s">
@@ -31137,10 +31137,10 @@
         <v>1213.9</v>
       </c>
       <c r="T519" s="3"/>
-      <c r="U519" s="3" t="n">
+      <c r="U519" s="3"/>
+      <c r="V519" s="3" t="n">
         <v>36417</v>
       </c>
-      <c r="V519" s="3"/>
       <c r="W519" s="3"/>
     </row>
     <row r="520">
@@ -31196,10 +31196,10 @@
         <v>1213.9</v>
       </c>
       <c r="T520" s="3"/>
-      <c r="U520" s="3" t="n">
+      <c r="U520" s="3"/>
+      <c r="V520" s="3" t="n">
         <v>36417</v>
       </c>
-      <c r="V520" s="3"/>
       <c r="W520" s="3"/>
     </row>
     <row r="521">
@@ -31256,10 +31256,10 @@
         <v>1214</v>
       </c>
       <c r="U521" s="2"/>
-      <c r="V521" s="2" t="n">
+      <c r="V521" s="2"/>
+      <c r="W521" s="2" t="n">
         <v>36420</v>
       </c>
-      <c r="W521" s="2"/>
     </row>
     <row r="522">
       <c r="A522" s="4" t="s">
@@ -31315,10 +31315,10 @@
         <v>1215.533</v>
       </c>
       <c r="U522" s="4"/>
-      <c r="V522" s="4" t="n">
+      <c r="V522" s="4"/>
+      <c r="W522" s="4" t="n">
         <v>36466</v>
       </c>
-      <c r="W522" s="4"/>
     </row>
     <row r="523">
       <c r="A523" s="4" t="s">
@@ -31374,10 +31374,10 @@
         <v>1215.8</v>
       </c>
       <c r="U523" s="4"/>
-      <c r="V523" s="4" t="n">
+      <c r="V523" s="4"/>
+      <c r="W523" s="4" t="n">
         <v>36474</v>
       </c>
-      <c r="W523" s="4"/>
     </row>
     <row r="524">
       <c r="A524" s="4" t="s">
@@ -31433,10 +31433,10 @@
         <v>1221</v>
       </c>
       <c r="U524" s="4"/>
-      <c r="V524" s="4" t="n">
+      <c r="V524" s="4"/>
+      <c r="W524" s="4" t="n">
         <v>36630</v>
       </c>
-      <c r="W524" s="4"/>
     </row>
     <row r="525">
       <c r="A525" s="4" t="s">
@@ -31492,10 +31492,10 @@
         <v>1221</v>
       </c>
       <c r="U525" s="4"/>
-      <c r="V525" s="4" t="n">
+      <c r="V525" s="4"/>
+      <c r="W525" s="4" t="n">
         <v>36630</v>
       </c>
-      <c r="W525" s="4"/>
     </row>
     <row r="526">
       <c r="A526" s="3" t="s">
@@ -31550,10 +31550,10 @@
         <v>1234.9</v>
       </c>
       <c r="T526" s="3"/>
-      <c r="U526" s="3" t="n">
+      <c r="U526" s="3"/>
+      <c r="V526" s="3" t="n">
         <v>37047</v>
       </c>
-      <c r="V526" s="3"/>
       <c r="W526" s="3"/>
     </row>
     <row r="527">
@@ -31609,10 +31609,10 @@
         <v>1234.9</v>
       </c>
       <c r="T527" s="3"/>
-      <c r="U527" s="3" t="n">
+      <c r="U527" s="3"/>
+      <c r="V527" s="3" t="n">
         <v>37047</v>
       </c>
-      <c r="V527" s="3"/>
       <c r="W527" s="3"/>
     </row>
     <row r="528">
@@ -31669,10 +31669,10 @@
         <v>1236.233</v>
       </c>
       <c r="U528" s="4"/>
-      <c r="V528" s="4" t="n">
+      <c r="V528" s="4"/>
+      <c r="W528" s="4" t="n">
         <v>37087</v>
       </c>
-      <c r="W528" s="4"/>
     </row>
     <row r="529">
       <c r="A529" s="4" t="s">
@@ -31728,10 +31728,10 @@
         <v>1236.233</v>
       </c>
       <c r="U529" s="4"/>
-      <c r="V529" s="4" t="n">
+      <c r="V529" s="4"/>
+      <c r="W529" s="4" t="n">
         <v>37087</v>
       </c>
-      <c r="W529" s="4"/>
     </row>
     <row r="530">
       <c r="A530" s="4" t="s">
@@ -31787,10 +31787,10 @@
         <v>1236.567</v>
       </c>
       <c r="U530" s="4"/>
-      <c r="V530" s="4" t="n">
+      <c r="V530" s="4"/>
+      <c r="W530" s="4" t="n">
         <v>37097</v>
       </c>
-      <c r="W530" s="4"/>
     </row>
     <row r="531">
       <c r="A531" s="3" t="s">
@@ -31845,10 +31845,10 @@
         <v>1239.167</v>
       </c>
       <c r="T531" s="3"/>
-      <c r="U531" s="3" t="n">
+      <c r="U531" s="3"/>
+      <c r="V531" s="3" t="n">
         <v>37175</v>
       </c>
-      <c r="V531" s="3"/>
       <c r="W531" s="3"/>
     </row>
     <row r="532">
@@ -31904,10 +31904,10 @@
         <v>1239.167</v>
       </c>
       <c r="T532" s="3"/>
-      <c r="U532" s="3" t="n">
+      <c r="U532" s="3"/>
+      <c r="V532" s="3" t="n">
         <v>37175</v>
       </c>
-      <c r="V532" s="3"/>
       <c r="W532" s="3"/>
     </row>
     <row r="533">
@@ -31964,10 +31964,10 @@
         <v>1240.233</v>
       </c>
       <c r="U533" s="2"/>
-      <c r="V533" s="2" t="n">
+      <c r="V533" s="2"/>
+      <c r="W533" s="2" t="n">
         <v>37207</v>
       </c>
-      <c r="W533" s="2"/>
     </row>
     <row r="534">
       <c r="A534" s="3" t="s">
@@ -32022,10 +32022,10 @@
         <v>1241.4</v>
       </c>
       <c r="T534" s="3"/>
-      <c r="U534" s="3" t="n">
+      <c r="U534" s="3"/>
+      <c r="V534" s="3" t="n">
         <v>37242</v>
       </c>
-      <c r="V534" s="3"/>
       <c r="W534" s="3"/>
     </row>
     <row r="535">
@@ -32081,10 +32081,10 @@
         <v>1241.4</v>
       </c>
       <c r="T535" s="3"/>
-      <c r="U535" s="3" t="n">
+      <c r="U535" s="3"/>
+      <c r="V535" s="3" t="n">
         <v>37242</v>
       </c>
-      <c r="V535" s="3"/>
       <c r="W535" s="3"/>
     </row>
     <row r="536">
@@ -32140,10 +32140,10 @@
         <v>1241.967</v>
       </c>
       <c r="T536" s="3"/>
-      <c r="U536" s="3" t="n">
+      <c r="U536" s="3"/>
+      <c r="V536" s="3" t="n">
         <v>37259</v>
       </c>
-      <c r="V536" s="3"/>
       <c r="W536" s="3"/>
     </row>
     <row r="537">
@@ -32199,10 +32199,10 @@
         <v>1241.967</v>
       </c>
       <c r="T537" s="3"/>
-      <c r="U537" s="3" t="n">
+      <c r="U537" s="3"/>
+      <c r="V537" s="3" t="n">
         <v>37259</v>
       </c>
-      <c r="V537" s="3"/>
       <c r="W537" s="3"/>
     </row>
     <row r="538">
@@ -32259,10 +32259,10 @@
         <v>1242.4</v>
       </c>
       <c r="U538" s="2"/>
-      <c r="V538" s="2" t="n">
+      <c r="V538" s="2"/>
+      <c r="W538" s="2" t="n">
         <v>37272</v>
       </c>
-      <c r="W538" s="2"/>
     </row>
     <row r="539">
       <c r="A539" s="4" t="s">
@@ -32318,10 +32318,10 @@
         <v>1243.667</v>
       </c>
       <c r="U539" s="4"/>
-      <c r="V539" s="4" t="n">
+      <c r="V539" s="4"/>
+      <c r="W539" s="4" t="n">
         <v>37310</v>
       </c>
-      <c r="W539" s="4"/>
     </row>
     <row r="540">
       <c r="A540" s="4" t="s">
@@ -32377,10 +32377,10 @@
         <v>1245.4</v>
       </c>
       <c r="U540" s="4"/>
-      <c r="V540" s="4" t="n">
+      <c r="V540" s="4"/>
+      <c r="W540" s="4" t="n">
         <v>37362</v>
       </c>
-      <c r="W540" s="4"/>
     </row>
     <row r="541">
       <c r="A541" s="4" t="s">
@@ -32436,10 +32436,10 @@
         <v>1248.2</v>
       </c>
       <c r="U541" s="4"/>
-      <c r="V541" s="4" t="n">
+      <c r="V541" s="4"/>
+      <c r="W541" s="4" t="n">
         <v>37446</v>
       </c>
-      <c r="W541" s="4"/>
     </row>
     <row r="542">
       <c r="A542" s="4" t="s">
@@ -32495,10 +32495,10 @@
         <v>1248.2</v>
       </c>
       <c r="U542" s="4"/>
-      <c r="V542" s="4" t="n">
+      <c r="V542" s="4"/>
+      <c r="W542" s="4" t="n">
         <v>37446</v>
       </c>
-      <c r="W542" s="4"/>
     </row>
     <row r="543">
       <c r="A543" s="4" t="s">
@@ -32554,10 +32554,10 @@
         <v>1290.7</v>
       </c>
       <c r="U543" s="4"/>
-      <c r="V543" s="4" t="n">
+      <c r="V543" s="4"/>
+      <c r="W543" s="4" t="n">
         <v>38721</v>
       </c>
-      <c r="W543" s="4"/>
     </row>
     <row r="544">
       <c r="A544" s="4" t="s">
@@ -32613,10 +32613,10 @@
         <v>1290.7</v>
       </c>
       <c r="U544" s="4"/>
-      <c r="V544" s="4" t="n">
+      <c r="V544" s="4"/>
+      <c r="W544" s="4" t="n">
         <v>38721</v>
       </c>
-      <c r="W544" s="4"/>
     </row>
     <row r="545">
       <c r="A545" s="3" t="s">
@@ -32671,10 +32671,10 @@
         <v>1291.367</v>
       </c>
       <c r="T545" s="3"/>
-      <c r="U545" s="3" t="n">
+      <c r="U545" s="3"/>
+      <c r="V545" s="3" t="n">
         <v>38741</v>
       </c>
-      <c r="V545" s="3"/>
       <c r="W545" s="3"/>
     </row>
     <row r="546">
@@ -32730,10 +32730,10 @@
         <v>1291.367</v>
       </c>
       <c r="T546" s="3"/>
-      <c r="U546" s="3" t="n">
+      <c r="U546" s="3"/>
+      <c r="V546" s="3" t="n">
         <v>38741</v>
       </c>
-      <c r="V546" s="3"/>
       <c r="W546" s="3"/>
     </row>
     <row r="547">
@@ -32789,10 +32789,10 @@
         <v>1292.133</v>
       </c>
       <c r="T547" s="3"/>
-      <c r="U547" s="3" t="n">
+      <c r="U547" s="3"/>
+      <c r="V547" s="3" t="n">
         <v>38764</v>
       </c>
-      <c r="V547" s="3"/>
       <c r="W547" s="3"/>
     </row>
     <row r="548">
@@ -32848,10 +32848,10 @@
         <v>1292.133</v>
       </c>
       <c r="T548" s="3"/>
-      <c r="U548" s="3" t="n">
+      <c r="U548" s="3"/>
+      <c r="V548" s="3" t="n">
         <v>38764</v>
       </c>
-      <c r="V548" s="3"/>
       <c r="W548" s="3"/>
     </row>
     <row r="549">
@@ -32908,10 +32908,10 @@
         <v>1293</v>
       </c>
       <c r="U549" s="4"/>
-      <c r="V549" s="4" t="n">
+      <c r="V549" s="4"/>
+      <c r="W549" s="4" t="n">
         <v>38790</v>
       </c>
-      <c r="W549" s="4"/>
     </row>
     <row r="550">
       <c r="A550" s="2" t="s">
@@ -32967,10 +32967,10 @@
         <v>1293.367</v>
       </c>
       <c r="U550" s="2"/>
-      <c r="V550" s="2" t="n">
+      <c r="V550" s="2"/>
+      <c r="W550" s="2" t="n">
         <v>38801</v>
       </c>
-      <c r="W550" s="2"/>
     </row>
     <row r="551">
       <c r="A551" s="2" t="s">
@@ -33026,10 +33026,10 @@
         <v>1294.267</v>
       </c>
       <c r="U551" s="2"/>
-      <c r="V551" s="2" t="n">
+      <c r="V551" s="2"/>
+      <c r="W551" s="2" t="n">
         <v>38828</v>
       </c>
-      <c r="W551" s="2"/>
     </row>
     <row r="552">
       <c r="A552" s="2" t="s">
@@ -33085,10 +33085,10 @@
         <v>1294.267</v>
       </c>
       <c r="U552" s="2"/>
-      <c r="V552" s="2" t="n">
+      <c r="V552" s="2"/>
+      <c r="W552" s="2" t="n">
         <v>38828</v>
       </c>
-      <c r="W552" s="2"/>
     </row>
     <row r="553">
       <c r="A553" s="3" t="s">
@@ -33143,10 +33143,10 @@
         <v>1359.933</v>
       </c>
       <c r="T553" s="3"/>
-      <c r="U553" s="3" t="n">
+      <c r="U553" s="3"/>
+      <c r="V553" s="3" t="n">
         <v>40798</v>
       </c>
-      <c r="V553" s="3"/>
       <c r="W553" s="3"/>
     </row>
     <row r="554">
@@ -33202,10 +33202,10 @@
         <v>1359.933</v>
       </c>
       <c r="T554" s="3"/>
-      <c r="U554" s="3" t="n">
+      <c r="U554" s="3"/>
+      <c r="V554" s="3" t="n">
         <v>40798</v>
       </c>
-      <c r="V554" s="3"/>
       <c r="W554" s="3"/>
     </row>
     <row r="555">
@@ -33261,10 +33261,10 @@
         <v>1360.433</v>
       </c>
       <c r="T555" s="3"/>
-      <c r="U555" s="3" t="n">
+      <c r="U555" s="3"/>
+      <c r="V555" s="3" t="n">
         <v>40813</v>
       </c>
-      <c r="V555" s="3"/>
       <c r="W555" s="3"/>
     </row>
     <row r="556">
@@ -33320,10 +33320,10 @@
         <v>1360.433</v>
       </c>
       <c r="T556" s="3"/>
-      <c r="U556" s="3" t="n">
+      <c r="U556" s="3"/>
+      <c r="V556" s="3" t="n">
         <v>40813</v>
       </c>
-      <c r="V556" s="3"/>
       <c r="W556" s="3"/>
     </row>
     <row r="557">
@@ -33380,10 +33380,10 @@
         <v>1360.967</v>
       </c>
       <c r="U557" s="2"/>
-      <c r="V557" s="2" t="n">
+      <c r="V557" s="2"/>
+      <c r="W557" s="2" t="n">
         <v>40829</v>
       </c>
-      <c r="W557" s="2"/>
     </row>
     <row r="558">
       <c r="A558" s="2" t="s">
@@ -33439,10 +33439,10 @@
         <v>1360.967</v>
       </c>
       <c r="U558" s="2"/>
-      <c r="V558" s="2" t="n">
+      <c r="V558" s="2"/>
+      <c r="W558" s="2" t="n">
         <v>40829</v>
       </c>
-      <c r="W558" s="2"/>
     </row>
     <row r="559">
       <c r="A559" s="2" t="s">
@@ -33498,10 +33498,10 @@
         <v>1361.467</v>
       </c>
       <c r="U559" s="2"/>
-      <c r="V559" s="2" t="n">
+      <c r="V559" s="2"/>
+      <c r="W559" s="2" t="n">
         <v>40844</v>
       </c>
-      <c r="W559" s="2"/>
     </row>
     <row r="560">
       <c r="A560" s="4" t="s">
@@ -33557,10 +33557,10 @@
         <v>1362.133</v>
       </c>
       <c r="U560" s="4"/>
-      <c r="V560" s="4" t="n">
+      <c r="V560" s="4"/>
+      <c r="W560" s="4" t="n">
         <v>40864</v>
       </c>
-      <c r="W560" s="4"/>
     </row>
     <row r="561">
       <c r="A561" s="4" t="s">
@@ -33616,10 +33616,10 @@
         <v>1363.033</v>
       </c>
       <c r="U561" s="4"/>
-      <c r="V561" s="4" t="n">
+      <c r="V561" s="4"/>
+      <c r="W561" s="4" t="n">
         <v>40891</v>
       </c>
-      <c r="W561" s="4"/>
     </row>
     <row r="562">
       <c r="A562" s="4" t="s">
@@ -33675,10 +33675,10 @@
         <v>1363.033</v>
       </c>
       <c r="U562" s="4"/>
-      <c r="V562" s="4" t="n">
+      <c r="V562" s="4"/>
+      <c r="W562" s="4" t="n">
         <v>40891</v>
       </c>
-      <c r="W562" s="4"/>
     </row>
     <row r="563">
       <c r="A563" s="4" t="s">
@@ -33734,10 +33734,10 @@
         <v>1369.633</v>
       </c>
       <c r="U563" s="4"/>
-      <c r="V563" s="4" t="n">
+      <c r="V563" s="4"/>
+      <c r="W563" s="4" t="n">
         <v>41089</v>
       </c>
-      <c r="W563" s="4"/>
     </row>
     <row r="564">
       <c r="A564" s="4" t="s">
@@ -33793,10 +33793,10 @@
         <v>1369.633</v>
       </c>
       <c r="U564" s="4"/>
-      <c r="V564" s="4" t="n">
+      <c r="V564" s="4"/>
+      <c r="W564" s="4" t="n">
         <v>41089</v>
       </c>
-      <c r="W564" s="4"/>
     </row>
     <row r="565">
       <c r="A565" s="4" t="s">
@@ -33852,10 +33852,10 @@
         <v>1373.067</v>
       </c>
       <c r="U565" s="4"/>
-      <c r="V565" s="4" t="n">
+      <c r="V565" s="4"/>
+      <c r="W565" s="4" t="n">
         <v>41192</v>
       </c>
-      <c r="W565" s="4"/>
     </row>
     <row r="566">
       <c r="A566" s="4" t="s">
@@ -33911,10 +33911,10 @@
         <v>1373.067</v>
       </c>
       <c r="U566" s="4"/>
-      <c r="V566" s="4" t="n">
+      <c r="V566" s="4"/>
+      <c r="W566" s="4" t="n">
         <v>41192</v>
       </c>
-      <c r="W566" s="4"/>
     </row>
     <row r="567">
       <c r="A567" s="4" t="s">
@@ -33970,10 +33970,10 @@
         <v>1374.533</v>
       </c>
       <c r="U567" s="4"/>
-      <c r="V567" s="4" t="n">
+      <c r="V567" s="4"/>
+      <c r="W567" s="4" t="n">
         <v>41236</v>
       </c>
-      <c r="W567" s="4"/>
     </row>
     <row r="568">
       <c r="A568" s="4" t="s">
@@ -34029,10 +34029,10 @@
         <v>1374.533</v>
       </c>
       <c r="U568" s="4"/>
-      <c r="V568" s="4" t="n">
+      <c r="V568" s="4"/>
+      <c r="W568" s="4" t="n">
         <v>41236</v>
       </c>
-      <c r="W568" s="4"/>
     </row>
     <row r="569">
       <c r="A569" s="3" t="s">
@@ -34087,10 +34087,10 @@
         <v>1374.833</v>
       </c>
       <c r="T569" s="3"/>
-      <c r="U569" s="3" t="n">
+      <c r="U569" s="3"/>
+      <c r="V569" s="3" t="n">
         <v>41245</v>
       </c>
-      <c r="V569" s="3"/>
       <c r="W569" s="3"/>
     </row>
     <row r="570">
@@ -34146,10 +34146,10 @@
         <v>1374.833</v>
       </c>
       <c r="T570" s="3"/>
-      <c r="U570" s="3" t="n">
+      <c r="U570" s="3"/>
+      <c r="V570" s="3" t="n">
         <v>41245</v>
       </c>
-      <c r="V570" s="3"/>
       <c r="W570" s="3"/>
     </row>
     <row r="571">
@@ -34206,10 +34206,10 @@
         <v>1376.4</v>
       </c>
       <c r="U571" s="4"/>
-      <c r="V571" s="4" t="n">
+      <c r="V571" s="4"/>
+      <c r="W571" s="4" t="n">
         <v>41292</v>
       </c>
-      <c r="W571" s="4"/>
     </row>
     <row r="572">
       <c r="A572" s="3" t="s">
@@ -34264,10 +34264,10 @@
         <v>1386.233</v>
       </c>
       <c r="T572" s="3"/>
-      <c r="U572" s="3" t="n">
+      <c r="U572" s="3"/>
+      <c r="V572" s="3" t="n">
         <v>41587</v>
       </c>
-      <c r="V572" s="3"/>
       <c r="W572" s="3"/>
     </row>
     <row r="573">
@@ -34323,10 +34323,10 @@
         <v>1386.233</v>
       </c>
       <c r="T573" s="3"/>
-      <c r="U573" s="3" t="n">
+      <c r="U573" s="3"/>
+      <c r="V573" s="3" t="n">
         <v>41587</v>
       </c>
-      <c r="V573" s="3"/>
       <c r="W573" s="3"/>
     </row>
     <row r="574">
@@ -34383,10 +34383,10 @@
         <v>1387.9</v>
       </c>
       <c r="U574" s="4"/>
-      <c r="V574" s="4" t="n">
+      <c r="V574" s="4"/>
+      <c r="W574" s="4" t="n">
         <v>41637</v>
       </c>
-      <c r="W574" s="4"/>
     </row>
     <row r="575">
       <c r="A575" s="4" t="s">
@@ -34442,10 +34442,10 @@
         <v>1389.333</v>
       </c>
       <c r="U575" s="4"/>
-      <c r="V575" s="4" t="n">
+      <c r="V575" s="4"/>
+      <c r="W575" s="4" t="n">
         <v>41680</v>
       </c>
-      <c r="W575" s="4"/>
     </row>
     <row r="576">
       <c r="A576" s="4" t="s">
@@ -34501,10 +34501,10 @@
         <v>1389.333</v>
       </c>
       <c r="U576" s="4"/>
-      <c r="V576" s="4" t="n">
+      <c r="V576" s="4"/>
+      <c r="W576" s="4" t="n">
         <v>41680</v>
       </c>
-      <c r="W576" s="4"/>
     </row>
     <row r="577">
       <c r="A577" s="4" t="s">
@@ -34560,10 +34560,10 @@
         <v>1394.867</v>
       </c>
       <c r="U577" s="4"/>
-      <c r="V577" s="4" t="n">
+      <c r="V577" s="4"/>
+      <c r="W577" s="4" t="n">
         <v>41846</v>
       </c>
-      <c r="W577" s="4"/>
     </row>
     <row r="578">
       <c r="A578" s="3" t="s">
@@ -34618,10 +34618,10 @@
         <v>1395.6</v>
       </c>
       <c r="T578" s="3"/>
-      <c r="U578" s="3" t="n">
+      <c r="U578" s="3"/>
+      <c r="V578" s="3" t="n">
         <v>41868</v>
       </c>
-      <c r="V578" s="3"/>
       <c r="W578" s="3"/>
     </row>
     <row r="579">
@@ -34677,10 +34677,10 @@
         <v>1395.6</v>
       </c>
       <c r="T579" s="3"/>
-      <c r="U579" s="3" t="n">
+      <c r="U579" s="3"/>
+      <c r="V579" s="3" t="n">
         <v>41868</v>
       </c>
-      <c r="V579" s="3"/>
       <c r="W579" s="3"/>
     </row>
     <row r="580">
@@ -34737,10 +34737,10 @@
         <v>1396.867</v>
       </c>
       <c r="U580" s="4"/>
-      <c r="V580" s="4" t="n">
+      <c r="V580" s="4"/>
+      <c r="W580" s="4" t="n">
         <v>41906</v>
       </c>
-      <c r="W580" s="4"/>
     </row>
     <row r="581">
       <c r="A581" s="4" t="s">
@@ -34796,10 +34796,10 @@
         <v>1396.867</v>
       </c>
       <c r="U581" s="4"/>
-      <c r="V581" s="4" t="n">
+      <c r="V581" s="4"/>
+      <c r="W581" s="4" t="n">
         <v>41906</v>
       </c>
-      <c r="W581" s="4"/>
     </row>
     <row r="582">
       <c r="A582" s="3" t="s">
@@ -34854,10 +34854,10 @@
         <v>1396.9</v>
       </c>
       <c r="T582" s="3"/>
-      <c r="U582" s="3" t="n">
+      <c r="U582" s="3"/>
+      <c r="V582" s="3" t="n">
         <v>41907</v>
       </c>
-      <c r="V582" s="3"/>
       <c r="W582" s="3"/>
     </row>
     <row r="583">
@@ -34914,10 +34914,10 @@
         <v>1397.233</v>
       </c>
       <c r="U583" s="4"/>
-      <c r="V583" s="4" t="n">
+      <c r="V583" s="4"/>
+      <c r="W583" s="4" t="n">
         <v>41917</v>
       </c>
-      <c r="W583" s="4"/>
     </row>
     <row r="584">
       <c r="A584" s="3" t="s">
@@ -34972,10 +34972,10 @@
         <v>1470.5</v>
       </c>
       <c r="T584" s="3"/>
-      <c r="U584" s="3" t="n">
+      <c r="U584" s="3"/>
+      <c r="V584" s="3" t="n">
         <v>44115</v>
       </c>
-      <c r="V584" s="3"/>
       <c r="W584" s="3"/>
     </row>
     <row r="585">
@@ -35031,10 +35031,10 @@
         <v>1472.067</v>
       </c>
       <c r="T585" s="3"/>
-      <c r="U585" s="3" t="n">
+      <c r="U585" s="3"/>
+      <c r="V585" s="3" t="n">
         <v>44162</v>
       </c>
-      <c r="V585" s="3"/>
       <c r="W585" s="3"/>
     </row>
     <row r="586">
@@ -35090,10 +35090,10 @@
         <v>1472.067</v>
       </c>
       <c r="T586" s="3"/>
-      <c r="U586" s="3" t="n">
+      <c r="U586" s="3"/>
+      <c r="V586" s="3" t="n">
         <v>44162</v>
       </c>
-      <c r="V586" s="3"/>
       <c r="W586" s="3"/>
     </row>
     <row r="587">
@@ -35150,10 +35150,10 @@
         <v>1474.2</v>
       </c>
       <c r="U587" s="2"/>
-      <c r="V587" s="2" t="n">
+      <c r="V587" s="2"/>
+      <c r="W587" s="2" t="n">
         <v>44226</v>
       </c>
-      <c r="W587" s="2"/>
     </row>
     <row r="588">
       <c r="A588" s="3" t="s">
@@ -35208,10 +35208,10 @@
         <v>1480.7</v>
       </c>
       <c r="T588" s="3"/>
-      <c r="U588" s="3" t="n">
+      <c r="U588" s="3"/>
+      <c r="V588" s="3" t="n">
         <v>44421</v>
       </c>
-      <c r="V588" s="3"/>
       <c r="W588" s="3"/>
     </row>
     <row r="589">
@@ -35267,10 +35267,10 @@
         <v>1480.7</v>
       </c>
       <c r="T589" s="3"/>
-      <c r="U589" s="3" t="n">
+      <c r="U589" s="3"/>
+      <c r="V589" s="3" t="n">
         <v>44421</v>
       </c>
-      <c r="V589" s="3"/>
       <c r="W589" s="3"/>
     </row>
     <row r="590">
@@ -35327,10 +35327,10 @@
         <v>1482.9</v>
       </c>
       <c r="U590" s="2"/>
-      <c r="V590" s="2" t="n">
+      <c r="V590" s="2"/>
+      <c r="W590" s="2" t="n">
         <v>44487</v>
       </c>
-      <c r="W590" s="2"/>
     </row>
     <row r="591">
       <c r="A591" s="3" t="s">
@@ -35385,10 +35385,10 @@
         <v>1487.367</v>
       </c>
       <c r="T591" s="3"/>
-      <c r="U591" s="3" t="n">
+      <c r="U591" s="3"/>
+      <c r="V591" s="3" t="n">
         <v>44621</v>
       </c>
-      <c r="V591" s="3"/>
       <c r="W591" s="3"/>
     </row>
     <row r="592">
@@ -35444,10 +35444,10 @@
         <v>1487.367</v>
       </c>
       <c r="T592" s="3"/>
-      <c r="U592" s="3" t="n">
+      <c r="U592" s="3"/>
+      <c r="V592" s="3" t="n">
         <v>44621</v>
       </c>
-      <c r="V592" s="3"/>
       <c r="W592" s="3"/>
     </row>
     <row r="593">
@@ -35504,10 +35504,10 @@
         <v>1489.267</v>
       </c>
       <c r="U593" s="4"/>
-      <c r="V593" s="4" t="n">
+      <c r="V593" s="4"/>
+      <c r="W593" s="4" t="n">
         <v>44678</v>
       </c>
-      <c r="W593" s="4"/>
     </row>
     <row r="594">
       <c r="A594" s="3" t="s">
@@ -35562,10 +35562,10 @@
         <v>1492.6</v>
       </c>
       <c r="T594" s="3"/>
-      <c r="U594" s="3" t="n">
+      <c r="U594" s="3"/>
+      <c r="V594" s="3" t="n">
         <v>44778</v>
       </c>
-      <c r="V594" s="3"/>
       <c r="W594" s="3"/>
     </row>
     <row r="595">
@@ -35621,10 +35621,10 @@
         <v>1492.6</v>
       </c>
       <c r="T595" s="3"/>
-      <c r="U595" s="3" t="n">
+      <c r="U595" s="3"/>
+      <c r="V595" s="3" t="n">
         <v>44778</v>
       </c>
-      <c r="V595" s="3"/>
       <c r="W595" s="3"/>
     </row>
     <row r="596">
@@ -35681,10 +35681,10 @@
         <v>1494.4</v>
       </c>
       <c r="U596" s="4"/>
-      <c r="V596" s="4" t="n">
+      <c r="V596" s="4"/>
+      <c r="W596" s="4" t="n">
         <v>44832</v>
       </c>
-      <c r="W596" s="4"/>
     </row>
     <row r="597">
       <c r="A597" s="3" t="s">
@@ -35739,10 +35739,10 @@
         <v>1494.467</v>
       </c>
       <c r="T597" s="3"/>
-      <c r="U597" s="3" t="n">
+      <c r="U597" s="3"/>
+      <c r="V597" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="V597" s="3"/>
       <c r="W597" s="3"/>
     </row>
     <row r="598">
@@ -35798,10 +35798,10 @@
         <v>1494.467</v>
       </c>
       <c r="T598" s="3"/>
-      <c r="U598" s="3" t="n">
+      <c r="U598" s="3"/>
+      <c r="V598" s="3" t="n">
         <v>44834</v>
       </c>
-      <c r="V598" s="3"/>
       <c r="W598" s="3"/>
     </row>
     <row r="599">
@@ -35858,10 +35858,10 @@
         <v>1496.767</v>
       </c>
       <c r="U599" s="2"/>
-      <c r="V599" s="2" t="n">
+      <c r="V599" s="2"/>
+      <c r="W599" s="2" t="n">
         <v>44903</v>
       </c>
-      <c r="W599" s="2"/>
     </row>
     <row r="600">
       <c r="A600" s="2" t="s">
@@ -35917,10 +35917,10 @@
         <v>1497.433</v>
       </c>
       <c r="U600" s="2"/>
-      <c r="V600" s="2" t="n">
+      <c r="V600" s="2"/>
+      <c r="W600" s="2" t="n">
         <v>44923</v>
       </c>
-      <c r="W600" s="2"/>
     </row>
     <row r="601">
       <c r="A601" s="2" t="s">
@@ -35976,10 +35976,10 @@
         <v>1497.433</v>
       </c>
       <c r="U601" s="2"/>
-      <c r="V601" s="2" t="n">
+      <c r="V601" s="2"/>
+      <c r="W601" s="2" t="n">
         <v>44923</v>
       </c>
-      <c r="W601" s="2"/>
     </row>
     <row r="602">
       <c r="A602" s="2" t="s">
@@ -36035,10 +36035,10 @@
         <v>1499.7</v>
       </c>
       <c r="U602" s="2"/>
-      <c r="V602" s="2" t="n">
+      <c r="V602" s="2"/>
+      <c r="W602" s="2" t="n">
         <v>44991</v>
       </c>
-      <c r="W602" s="2"/>
     </row>
     <row r="603">
       <c r="A603" s="2" t="s">
@@ -36094,10 +36094,10 @@
         <v>1499.7</v>
       </c>
       <c r="U603" s="2"/>
-      <c r="V603" s="2" t="n">
+      <c r="V603" s="2"/>
+      <c r="W603" s="2" t="n">
         <v>44991</v>
       </c>
-      <c r="W603" s="2"/>
     </row>
     <row r="604">
       <c r="A604" s="2" t="s">
@@ -36153,10 +36153,10 @@
         <v>1508.7</v>
       </c>
       <c r="U604" s="2"/>
-      <c r="V604" s="2" t="n">
+      <c r="V604" s="2"/>
+      <c r="W604" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="W604" s="2"/>
     </row>
     <row r="605">
       <c r="A605" s="2" t="s">
@@ -36212,10 +36212,10 @@
         <v>1508.7</v>
       </c>
       <c r="U605" s="2"/>
-      <c r="V605" s="2" t="n">
+      <c r="V605" s="2"/>
+      <c r="W605" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="W605" s="2"/>
     </row>
     <row r="606">
       <c r="A606" s="2" t="s">
@@ -36271,10 +36271,10 @@
         <v>1536.2</v>
       </c>
       <c r="U606" s="2"/>
-      <c r="V606" s="2" t="n">
+      <c r="V606" s="2"/>
+      <c r="W606" s="2" t="n">
         <v>46086</v>
       </c>
-      <c r="W606" s="2"/>
     </row>
     <row r="607">
       <c r="A607" s="2" t="s">
@@ -36330,10 +36330,10 @@
         <v>1536.2</v>
       </c>
       <c r="U607" s="2"/>
-      <c r="V607" s="2" t="n">
+      <c r="V607" s="2"/>
+      <c r="W607" s="2" t="n">
         <v>46086</v>
       </c>
-      <c r="W607" s="2"/>
     </row>
     <row r="608">
       <c r="A608" s="2" t="s">
@@ -36389,10 +36389,10 @@
         <v>1540.267</v>
       </c>
       <c r="U608" s="2"/>
-      <c r="V608" s="2" t="n">
+      <c r="V608" s="2"/>
+      <c r="W608" s="2" t="n">
         <v>46208</v>
       </c>
-      <c r="W608" s="2"/>
     </row>
     <row r="609">
       <c r="A609" s="2" t="s">
@@ -36448,10 +36448,10 @@
         <v>1540.267</v>
       </c>
       <c r="U609" s="2"/>
-      <c r="V609" s="2" t="n">
+      <c r="V609" s="2"/>
+      <c r="W609" s="2" t="n">
         <v>46208</v>
       </c>
-      <c r="W609" s="2"/>
     </row>
     <row r="610">
       <c r="A610" s="2" t="s">
@@ -36507,10 +36507,10 @@
         <v>1554.133</v>
       </c>
       <c r="U610" s="2"/>
-      <c r="V610" s="2" t="n">
+      <c r="V610" s="2"/>
+      <c r="W610" s="2" t="n">
         <v>46624</v>
       </c>
-      <c r="W610" s="2"/>
     </row>
     <row r="611">
       <c r="A611" s="2" t="s">
@@ -36566,10 +36566,10 @@
         <v>1691.733</v>
       </c>
       <c r="U611" s="2"/>
-      <c r="V611" s="2" t="n">
+      <c r="V611" s="2"/>
+      <c r="W611" s="2" t="n">
         <v>50752</v>
       </c>
-      <c r="W611" s="2"/>
     </row>
     <row r="612">
       <c r="A612" s="2" t="s">
@@ -36625,10 +36625,10 @@
         <v>1725.633</v>
       </c>
       <c r="U612" s="2"/>
-      <c r="V612" s="2" t="n">
+      <c r="V612" s="2"/>
+      <c r="W612" s="2" t="n">
         <v>51769</v>
       </c>
-      <c r="W612" s="2"/>
     </row>
     <row r="613">
       <c r="A613" s="2" t="s">
@@ -36684,10 +36684,10 @@
         <v>1725.633</v>
       </c>
       <c r="U613" s="2"/>
-      <c r="V613" s="2" t="n">
+      <c r="V613" s="2"/>
+      <c r="W613" s="2" t="n">
         <v>51769</v>
       </c>
-      <c r="W613" s="2"/>
     </row>
     <row r="614">
       <c r="A614" s="2" t="s">
@@ -36743,10 +36743,10 @@
         <v>1731</v>
       </c>
       <c r="U614" s="2"/>
-      <c r="V614" s="2" t="n">
+      <c r="V614" s="2"/>
+      <c r="W614" s="2" t="n">
         <v>51930</v>
       </c>
-      <c r="W614" s="2"/>
     </row>
     <row r="615">
       <c r="A615" s="2" t="s">
@@ -36802,10 +36802,10 @@
         <v>1731</v>
       </c>
       <c r="U615" s="2"/>
-      <c r="V615" s="2" t="n">
+      <c r="V615" s="2"/>
+      <c r="W615" s="2" t="n">
         <v>51930</v>
       </c>
-      <c r="W615" s="2"/>
     </row>
     <row r="616">
       <c r="A616" s="2" t="s">
@@ -36861,10 +36861,10 @@
         <v>1731.533</v>
       </c>
       <c r="U616" s="2"/>
-      <c r="V616" s="2" t="n">
+      <c r="V616" s="2"/>
+      <c r="W616" s="2" t="n">
         <v>51946</v>
       </c>
-      <c r="W616" s="2"/>
     </row>
     <row r="617">
       <c r="A617" s="2" t="s">
@@ -36920,10 +36920,10 @@
         <v>1731.533</v>
       </c>
       <c r="U617" s="2"/>
-      <c r="V617" s="2" t="n">
+      <c r="V617" s="2"/>
+      <c r="W617" s="2" t="n">
         <v>51946</v>
       </c>
-      <c r="W617" s="2"/>
     </row>
     <row r="618">
       <c r="A618" s="2" t="s">
@@ -36979,10 +36979,10 @@
         <v>1731.967</v>
       </c>
       <c r="U618" s="2"/>
-      <c r="V618" s="2" t="n">
+      <c r="V618" s="2"/>
+      <c r="W618" s="2" t="n">
         <v>51959</v>
       </c>
-      <c r="W618" s="2"/>
     </row>
     <row r="619">
       <c r="A619" s="2" t="s">
@@ -37038,10 +37038,10 @@
         <v>1731.967</v>
       </c>
       <c r="U619" s="2"/>
-      <c r="V619" s="2" t="n">
+      <c r="V619" s="2"/>
+      <c r="W619" s="2" t="n">
         <v>51959</v>
       </c>
-      <c r="W619" s="2"/>
     </row>
     <row r="620">
       <c r="A620" s="2" t="s">
@@ -37097,10 +37097,10 @@
         <v>1732.1</v>
       </c>
       <c r="U620" s="2"/>
-      <c r="V620" s="2" t="n">
+      <c r="V620" s="2"/>
+      <c r="W620" s="2" t="n">
         <v>51963</v>
       </c>
-      <c r="W620" s="2"/>
     </row>
     <row r="621">
       <c r="A621" s="2" t="s">
@@ -37156,10 +37156,10 @@
         <v>1732.1</v>
       </c>
       <c r="U621" s="2"/>
-      <c r="V621" s="2" t="n">
+      <c r="V621" s="2"/>
+      <c r="W621" s="2" t="n">
         <v>51963</v>
       </c>
-      <c r="W621" s="2"/>
     </row>
     <row r="622">
       <c r="A622" s="3" t="s">
@@ -37214,10 +37214,10 @@
         <v>1734.267</v>
       </c>
       <c r="T622" s="3"/>
-      <c r="U622" s="3" t="n">
+      <c r="U622" s="3"/>
+      <c r="V622" s="3" t="n">
         <v>52028</v>
       </c>
-      <c r="V622" s="3"/>
       <c r="W622" s="3"/>
     </row>
     <row r="623">
@@ -37273,10 +37273,10 @@
         <v>1734.267</v>
       </c>
       <c r="T623" s="3"/>
-      <c r="U623" s="3" t="n">
+      <c r="U623" s="3"/>
+      <c r="V623" s="3" t="n">
         <v>52028</v>
       </c>
-      <c r="V623" s="3"/>
       <c r="W623" s="3"/>
     </row>
     <row r="624">
@@ -37332,10 +37332,10 @@
         <v>1735.067</v>
       </c>
       <c r="T624" s="3"/>
-      <c r="U624" s="3" t="n">
+      <c r="U624" s="3"/>
+      <c r="V624" s="3" t="n">
         <v>52052</v>
       </c>
-      <c r="V624" s="3"/>
       <c r="W624" s="3"/>
     </row>
     <row r="625">
@@ -37391,10 +37391,10 @@
         <v>1735.067</v>
       </c>
       <c r="T625" s="3"/>
-      <c r="U625" s="3" t="n">
+      <c r="U625" s="3"/>
+      <c r="V625" s="3" t="n">
         <v>52052</v>
       </c>
-      <c r="V625" s="3"/>
       <c r="W625" s="3"/>
     </row>
     <row r="626">
@@ -37451,10 +37451,10 @@
         <v>1737.1</v>
       </c>
       <c r="U626" s="4"/>
-      <c r="V626" s="4" t="n">
+      <c r="V626" s="4"/>
+      <c r="W626" s="4" t="n">
         <v>52113</v>
       </c>
-      <c r="W626" s="4"/>
     </row>
     <row r="627">
       <c r="A627" s="2" t="s">
@@ -37510,10 +37510,10 @@
         <v>1737.533</v>
       </c>
       <c r="U627" s="2"/>
-      <c r="V627" s="2" t="n">
+      <c r="V627" s="2"/>
+      <c r="W627" s="2" t="n">
         <v>52126</v>
       </c>
-      <c r="W627" s="2"/>
     </row>
     <row r="628">
       <c r="A628" s="4" t="s">
@@ -37569,10 +37569,10 @@
         <v>1739.9</v>
       </c>
       <c r="U628" s="4"/>
-      <c r="V628" s="4" t="n">
+      <c r="V628" s="4"/>
+      <c r="W628" s="4" t="n">
         <v>52197</v>
       </c>
-      <c r="W628" s="4"/>
     </row>
     <row r="629">
       <c r="A629" s="4" t="s">
@@ -37628,10 +37628,10 @@
         <v>1739.9</v>
       </c>
       <c r="U629" s="4"/>
-      <c r="V629" s="4" t="n">
+      <c r="V629" s="4"/>
+      <c r="W629" s="4" t="n">
         <v>52197</v>
       </c>
-      <c r="W629" s="4"/>
     </row>
     <row r="630">
       <c r="A630" s="3" t="s">
@@ -37686,10 +37686,10 @@
         <v>1771.9</v>
       </c>
       <c r="T630" s="3"/>
-      <c r="U630" s="3" t="n">
+      <c r="U630" s="3"/>
+      <c r="V630" s="3" t="n">
         <v>53157</v>
       </c>
-      <c r="V630" s="3"/>
       <c r="W630" s="3"/>
     </row>
     <row r="631">
@@ -37745,10 +37745,10 @@
         <v>1771.9</v>
       </c>
       <c r="T631" s="3"/>
-      <c r="U631" s="3" t="n">
+      <c r="U631" s="3"/>
+      <c r="V631" s="3" t="n">
         <v>53157</v>
       </c>
-      <c r="V631" s="3"/>
       <c r="W631" s="3"/>
     </row>
     <row r="632">
@@ -37805,10 +37805,10 @@
         <v>1773.167</v>
       </c>
       <c r="U632" s="4"/>
-      <c r="V632" s="4" t="n">
+      <c r="V632" s="4"/>
+      <c r="W632" s="4" t="n">
         <v>53195</v>
       </c>
-      <c r="W632" s="4"/>
     </row>
     <row r="633">
       <c r="A633" s="4" t="s">
@@ -37864,10 +37864,10 @@
         <v>1773.167</v>
       </c>
       <c r="U633" s="4"/>
-      <c r="V633" s="4" t="n">
+      <c r="V633" s="4"/>
+      <c r="W633" s="4" t="n">
         <v>53195</v>
       </c>
-      <c r="W633" s="4"/>
     </row>
     <row r="634">
       <c r="A634" s="4" t="s">
@@ -37923,10 +37923,10 @@
         <v>1773.933</v>
       </c>
       <c r="U634" s="4"/>
-      <c r="V634" s="4" t="n">
+      <c r="V634" s="4"/>
+      <c r="W634" s="4" t="n">
         <v>53218</v>
       </c>
-      <c r="W634" s="4"/>
     </row>
     <row r="635">
       <c r="A635" s="3" t="s">
@@ -37981,10 +37981,10 @@
         <v>1777.033</v>
       </c>
       <c r="T635" s="3"/>
-      <c r="U635" s="3" t="n">
+      <c r="U635" s="3"/>
+      <c r="V635" s="3" t="n">
         <v>53311</v>
       </c>
-      <c r="V635" s="3"/>
       <c r="W635" s="3"/>
     </row>
     <row r="636">
@@ -38040,10 +38040,10 @@
         <v>1777.033</v>
       </c>
       <c r="T636" s="3"/>
-      <c r="U636" s="3" t="n">
+      <c r="U636" s="3"/>
+      <c r="V636" s="3" t="n">
         <v>53311</v>
       </c>
-      <c r="V636" s="3"/>
       <c r="W636" s="3"/>
     </row>
     <row r="637">
@@ -38100,10 +38100,10 @@
         <v>1780.5</v>
       </c>
       <c r="U637" s="2"/>
-      <c r="V637" s="2" t="n">
+      <c r="V637" s="2"/>
+      <c r="W637" s="2" t="n">
         <v>53415</v>
       </c>
-      <c r="W637" s="2"/>
     </row>
     <row r="638">
       <c r="A638" s="2" t="s">
@@ -38159,10 +38159,10 @@
         <v>1782.133</v>
       </c>
       <c r="U638" s="2"/>
-      <c r="V638" s="2" t="n">
+      <c r="V638" s="2"/>
+      <c r="W638" s="2" t="n">
         <v>53464</v>
       </c>
-      <c r="W638" s="2"/>
     </row>
     <row r="639">
       <c r="A639" s="2" t="s">
@@ -38218,10 +38218,10 @@
         <v>1782.133</v>
       </c>
       <c r="U639" s="2"/>
-      <c r="V639" s="2" t="n">
+      <c r="V639" s="2"/>
+      <c r="W639" s="2" t="n">
         <v>53464</v>
       </c>
-      <c r="W639" s="2"/>
     </row>
     <row r="640">
       <c r="A640" s="2" t="s">
@@ -38277,10 +38277,10 @@
         <v>1801.267</v>
       </c>
       <c r="U640" s="2"/>
-      <c r="V640" s="2" t="n">
+      <c r="V640" s="2"/>
+      <c r="W640" s="2" t="n">
         <v>54038</v>
       </c>
-      <c r="W640" s="2"/>
     </row>
     <row r="641">
       <c r="A641" s="2" t="s">
@@ -38336,10 +38336,10 @@
         <v>1801.267</v>
       </c>
       <c r="U641" s="2"/>
-      <c r="V641" s="2" t="n">
+      <c r="V641" s="2"/>
+      <c r="W641" s="2" t="n">
         <v>54038</v>
       </c>
-      <c r="W641" s="2"/>
     </row>
     <row r="642">
       <c r="A642" s="3" t="s">
@@ -38394,10 +38394,10 @@
         <v>1811.067</v>
       </c>
       <c r="T642" s="3"/>
-      <c r="U642" s="3" t="n">
+      <c r="U642" s="3"/>
+      <c r="V642" s="3" t="n">
         <v>54332</v>
       </c>
-      <c r="V642" s="3"/>
       <c r="W642" s="3"/>
     </row>
     <row r="643">
@@ -38454,10 +38454,10 @@
         <v>1814.667</v>
       </c>
       <c r="U643" s="2"/>
-      <c r="V643" s="2" t="n">
+      <c r="V643" s="2"/>
+      <c r="W643" s="2" t="n">
         <v>54440</v>
       </c>
-      <c r="W643" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
